--- a/data_clean/Storebrand 15.12.2020.xlsx
+++ b/data_clean/Storebrand 15.12.2020.xlsx
@@ -1278,7 +1278,7 @@
         <v>1.037935956421336</v>
       </c>
       <c r="K2">
-        <v>49.51240369073768</v>
+        <v>-0.004875963092623372</v>
       </c>
       <c r="L2">
         <v>4.888894424641452E-06</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1349,7 +1349,7 @@
         <v>1.037935956421336</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.01027320650480556</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1420,7 +1420,7 @@
         <v>0.475</v>
       </c>
       <c r="K4">
-        <v>32.20338983050848</v>
+        <v>-0.1779661016949152</v>
       </c>
       <c r="L4">
         <v>-8.766197200330757E-05</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9996768982229401</v>
+        <v>-0.0003231017770598532</v>
       </c>
       <c r="V4">
-        <v>0.9996768982229401</v>
+        <v>-0.0003231017770598532</v>
       </c>
       <c r="W4">
-        <v>0.9987080103359174</v>
+        <v>-0.001291989664082616</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1491,7 +1491,7 @@
         <v>0.7381578947367955</v>
       </c>
       <c r="K5">
-        <v>42.46782740348067</v>
+        <v>-0.07532172596519332</v>
       </c>
       <c r="L5">
         <v>-0.002325506391843791</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9999191984486102</v>
+        <v>-8.08015513897864E-05</v>
       </c>
       <c r="V5">
-        <v>0.9999191984486102</v>
+        <v>-8.08015513897864E-05</v>
       </c>
       <c r="W5">
-        <v>1.000323415265201</v>
+        <v>0.0003234152652005218</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1562,7 +1562,7 @@
         <v>1.846191135734025</v>
       </c>
       <c r="K6">
-        <v>64.86532519039335</v>
+        <v>0.1486532519039335</v>
       </c>
       <c r="L6">
         <v>-0.0003245069388544426</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000210101010101</v>
+        <v>0.0002101010101009937</v>
       </c>
       <c r="V6">
-        <v>1.000210101010101</v>
+        <v>0.0002101010101009937</v>
       </c>
       <c r="W6">
-        <v>1.001293242806337</v>
+        <v>0.001293242806336803</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1633,7 +1633,7 @@
         <v>1.166131780090218</v>
       </c>
       <c r="K7">
-        <v>53.83475699902475</v>
+        <v>0.03834756999024758</v>
       </c>
       <c r="L7">
         <v>0.0006180783677474132</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000032316442606</v>
+        <v>3.231644260615063E-05</v>
       </c>
       <c r="V7">
-        <v>1.000032316442606</v>
+        <v>3.231644260615063E-05</v>
       </c>
       <c r="W7">
-        <v>0.999354213755247</v>
+        <v>-0.0006457862447529772</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1704,7 +1704,7 @@
         <v>1.747749744330442</v>
       </c>
       <c r="K8">
-        <v>63.60658382142166</v>
+        <v>0.1360658382142166</v>
       </c>
       <c r="L8">
         <v>0.002165102253121858</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000161576991436</v>
+        <v>0.000161576991436263</v>
       </c>
       <c r="V8">
-        <v>1.000161576991436</v>
+        <v>0.000161576991436263</v>
       </c>
       <c r="W8">
-        <v>1.000969305331179</v>
+        <v>0.0009693053311794486</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1775,7 +1775,7 @@
         <v>3.58443805245739</v>
       </c>
       <c r="K9">
-        <v>78.18707574281713</v>
+        <v>0.2818707574281712</v>
       </c>
       <c r="L9">
         <v>0.006161864377568695</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.00048465266559</v>
+        <v>0.0004846526655897243</v>
       </c>
       <c r="V9">
-        <v>1.00048465266559</v>
+        <v>0.0004846526655897243</v>
       </c>
       <c r="W9">
-        <v>1.002905100064558</v>
+        <v>0.002905100064557686</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1846,7 +1846,7 @@
         <v>1.566006234263705</v>
       </c>
       <c r="K10">
-        <v>61.02893334213032</v>
+        <v>0.1102893334213032</v>
       </c>
       <c r="L10">
         <v>0.008682979293090337</v>
@@ -1876,13 +1876,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U10">
-        <v>1.000161472630389</v>
+        <v>0.0001614726303891256</v>
       </c>
       <c r="V10">
-        <v>1.000161472630389</v>
+        <v>0.0001614726303891256</v>
       </c>
       <c r="W10">
-        <v>0.9980688767299646</v>
+        <v>-0.001931123270035418</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1917,7 +1917,7 @@
         <v>1.207989985680545</v>
       </c>
       <c r="K11">
-        <v>54.70993951579084</v>
+        <v>0.0470993951579084</v>
       </c>
       <c r="L11">
         <v>0.009562005763004837</v>
@@ -1947,13 +1947,13 @@
         <v>0.0105000000000075</v>
       </c>
       <c r="U11">
-        <v>1.000032289312238</v>
+        <v>3.228931223753229E-05</v>
       </c>
       <c r="V11">
-        <v>1.000032289312238</v>
+        <v>3.228931223753229E-05</v>
       </c>
       <c r="W11">
-        <v>0.9990325701386649</v>
+        <v>-0.000967429861335134</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1988,7 +1988,7 @@
         <v>1.609073115480563</v>
       </c>
       <c r="K12">
-        <v>61.67221247780898</v>
+        <v>0.1167221247780897</v>
       </c>
       <c r="L12">
         <v>0.01058529313360151</v>
@@ -2018,13 +2018,13 @@
         <v>0.02727272727273089</v>
       </c>
       <c r="U12">
-        <v>1.00017318253733</v>
+        <v>0.0001731825373296747</v>
       </c>
       <c r="V12">
-        <v>1.00017318253733</v>
+        <v>0.0001731825373296747</v>
       </c>
       <c r="W12">
-        <v>1.00161394448031</v>
+        <v>0.001613944480309826</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2059,7 +2059,7 @@
         <v>1.283853035308988</v>
       </c>
       <c r="K13">
-        <v>56.21434547058289</v>
+        <v>0.06214345470582894</v>
       </c>
       <c r="L13">
         <v>0.01093978080505883</v>
@@ -2089,13 +2089,13 @@
         <v>0.04083333333333172</v>
       </c>
       <c r="U13">
-        <v>1.000063587094755</v>
+        <v>6.358709475451363E-05</v>
       </c>
       <c r="V13">
-        <v>1.000063587094755</v>
+        <v>6.358709475451363E-05</v>
       </c>
       <c r="W13">
-        <v>0.9990331936835321</v>
+        <v>-0.0009668063164679497</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2130,7 +2130,7 @@
         <v>1.12437596045354</v>
       </c>
       <c r="K14">
-        <v>52.92735285017503</v>
+        <v>0.02927352850175036</v>
       </c>
       <c r="L14">
         <v>0.01054448290523436</v>
@@ -2160,13 +2160,13 @@
         <v>0.04307692307691724</v>
       </c>
       <c r="U14">
-        <v>1.000004138541826</v>
+        <v>4.138541826126385E-06</v>
       </c>
       <c r="V14">
-        <v>1.000004138541826</v>
+        <v>4.138541826126385E-06</v>
       </c>
       <c r="W14">
-        <v>0.9993548387096775</v>
+        <v>-0.000645161290322549</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2201,7 +2201,7 @@
         <v>1.255131273167815</v>
       </c>
       <c r="K15">
-        <v>55.65668340915313</v>
+        <v>0.05656683409153129</v>
       </c>
       <c r="L15">
         <v>0.01008387317829103</v>
@@ -2231,13 +2231,13 @@
         <v>0.05250000000000199</v>
       </c>
       <c r="U15">
-        <v>1.000049662296385</v>
+        <v>4.966229638458941E-05</v>
       </c>
       <c r="V15">
-        <v>1.000049662296385</v>
+        <v>4.966229638458941E-05</v>
       </c>
       <c r="W15">
-        <v>1.000645577792124</v>
+        <v>0.0006455777921239303</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2272,7 +2272,7 @@
         <v>1.103279063708529</v>
       </c>
       <c r="K16">
-        <v>52.45519164552578</v>
+        <v>0.02455191645525778</v>
       </c>
       <c r="L16">
         <v>0.00927571069258915</v>
@@ -2302,13 +2302,13 @@
         <v>0.05250000000000199</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.9993548387096775</v>
+        <v>-0.000645161290322549</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2343,7 +2343,7 @@
         <v>0.9263241574287544</v>
       </c>
       <c r="K17">
-        <v>48.08765720226477</v>
+        <v>-0.01912342797735234</v>
       </c>
       <c r="L17">
         <v>0.007872625968118491</v>
@@ -2373,13 +2373,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U17">
-        <v>0.9999394770819883</v>
+        <v>-6.052291801172949E-05</v>
       </c>
       <c r="V17">
-        <v>1.000021519259737</v>
+        <v>2.151925973747915E-05</v>
       </c>
       <c r="W17">
-        <v>0.999031633311814</v>
+        <v>-0.0009683666881860065</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2414,7 +2414,7 @@
         <v>1.038878528924234</v>
       </c>
       <c r="K18">
-        <v>50.95342925958289</v>
+        <v>0.009534292595828942</v>
       </c>
       <c r="L18">
         <v>0.006510600332062903</v>
@@ -2444,13 +2444,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U18">
-        <v>0.999984571655758</v>
+        <v>-1.542834424195227E-05</v>
       </c>
       <c r="V18">
-        <v>1.000021518796669</v>
+        <v>2.151879666900669E-05</v>
       </c>
       <c r="W18">
-        <v>1.000646203554119</v>
+        <v>0.0006462035541194844</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2485,7 +2485,7 @@
         <v>1.157356814708949</v>
       </c>
       <c r="K19">
-        <v>53.64698165913223</v>
+        <v>0.03646981659132231</v>
       </c>
       <c r="L19">
         <v>0.005521456394625828</v>
@@ -2515,13 +2515,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U19">
-        <v>1.000022153861735</v>
+        <v>2.215386173465284E-05</v>
       </c>
       <c r="V19">
-        <v>1.000150628335342</v>
+        <v>0.0001506283353416293</v>
       </c>
       <c r="W19">
-        <v>1.000645786244753</v>
+        <v>0.0006457862447528662</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2556,7 +2556,7 @@
         <v>1.406784784782056</v>
       </c>
       <c r="K20">
-        <v>58.45079267897424</v>
+        <v>0.08450792678974239</v>
       </c>
       <c r="L20">
         <v>0.005324116318035725</v>
@@ -2586,13 +2586,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U20">
-        <v>1.000087780650313</v>
+        <v>8.778065031300741E-05</v>
       </c>
       <c r="V20">
-        <v>1.000215150928376</v>
+        <v>0.0002151509283760955</v>
       </c>
       <c r="W20">
-        <v>1.001290738948048</v>
+        <v>0.001290738948047876</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2627,7 +2627,7 @@
         <v>1.734979482246629</v>
       </c>
       <c r="K21">
-        <v>63.43665440668838</v>
+        <v>0.1343665440668838</v>
       </c>
       <c r="L21">
         <v>0.006218873141180983</v>
@@ -2657,13 +2657,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U21">
-        <v>1.000159690133188</v>
+        <v>0.0001596901331883949</v>
       </c>
       <c r="V21">
-        <v>1.000236615113253</v>
+        <v>0.0002366151132526806</v>
       </c>
       <c r="W21">
-        <v>1.00161134386078</v>
+        <v>0.001611343860779879</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2698,7 +2698,7 @@
         <v>1.734979482246629</v>
       </c>
       <c r="K22">
-        <v>63.43665440668838</v>
+        <v>0.1343665440668838</v>
       </c>
       <c r="L22">
         <v>0.007645131397826124</v>
@@ -2728,13 +2728,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U22">
-        <v>1.000144458480481</v>
+        <v>0.0001444584804810578</v>
       </c>
       <c r="V22">
-        <v>1.000279569892473</v>
+        <v>0.0002795698924731305</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2769,7 +2769,7 @@
         <v>2.316820497142318</v>
       </c>
       <c r="K23">
-        <v>69.85064458985427</v>
+        <v>0.1985064458985427</v>
       </c>
       <c r="L23">
         <v>0.01026093343181374</v>
@@ -2799,13 +2799,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U23">
-        <v>1.000248645024306</v>
+        <v>0.0002486450243059934</v>
       </c>
       <c r="V23">
-        <v>1.000386988583837</v>
+        <v>0.0003869885838367892</v>
       </c>
       <c r="W23">
-        <v>1.002574002574003</v>
+        <v>0.002574002574002643</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2840,7 +2840,7 @@
         <v>1.88409313144775</v>
       </c>
       <c r="K24">
-        <v>65.32705587430104</v>
+        <v>0.1532705587430104</v>
       </c>
       <c r="L24">
         <v>0.01296718635559572</v>
@@ -2870,13 +2870,13 @@
         <v>0.04249999999999687</v>
       </c>
       <c r="U24">
-        <v>1.000184889079303</v>
+        <v>0.0001848890793034741</v>
       </c>
       <c r="V24">
-        <v>1.000128946293869</v>
+        <v>0.0001289462938685038</v>
       </c>
       <c r="W24">
-        <v>0.9990372272143774</v>
+        <v>-0.0009627727856226231</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2911,7 +2911,7 @@
         <v>1.768212320350024</v>
       </c>
       <c r="K25">
-        <v>63.87560330366725</v>
+        <v>0.1387560330366725</v>
       </c>
       <c r="L25">
         <v>0.01536545456083264</v>
@@ -2941,13 +2941,13 @@
         <v>0.07875000000000654</v>
       </c>
       <c r="U25">
-        <v>1.000156011162686</v>
+        <v>0.0001560111626863758</v>
       </c>
       <c r="V25">
-        <v>1.000236371059587</v>
+        <v>0.0002363710595869595</v>
       </c>
       <c r="W25">
-        <v>0.9996787664632188</v>
+        <v>-0.0003212335367811514</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2982,7 +2982,7 @@
         <v>2.027179988390494</v>
       </c>
       <c r="K26">
-        <v>66.9659549866513</v>
+        <v>0.169659549866513</v>
       </c>
       <c r="L26">
         <v>0.01785280861884572</v>
@@ -3012,13 +3012,13 @@
         <v>0.1075000000000017</v>
       </c>
       <c r="U26">
-        <v>1.000195106220019</v>
+        <v>0.0001951062200185039</v>
       </c>
       <c r="V26">
-        <v>1.000386697602475</v>
+        <v>0.0003866976024748947</v>
       </c>
       <c r="W26">
-        <v>1.001285347043702</v>
+        <v>0.001285347043701757</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3053,7 +3053,7 @@
         <v>1.897843142860674</v>
       </c>
       <c r="K27">
-        <v>65.49157595145655</v>
+        <v>0.1549157595145655</v>
       </c>
       <c r="L27">
         <v>0.02003444805467779</v>
@@ -3083,13 +3083,13 @@
         <v>0.1262499999999989</v>
       </c>
       <c r="U27">
-        <v>1.000167661890452</v>
+        <v>0.0001676618904522531</v>
       </c>
       <c r="V27">
-        <v>1.000257698750161</v>
+        <v>0.0002576987501610173</v>
       </c>
       <c r="W27">
-        <v>0.9996790757381258</v>
+        <v>-0.0003209242618742447</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3124,7 +3124,7 @@
         <v>1.965002471931508</v>
       </c>
       <c r="K28">
-        <v>66.27321530195675</v>
+        <v>0.1627321530195676</v>
       </c>
       <c r="L28">
         <v>0.02193429323494177</v>
@@ -3154,13 +3154,13 @@
         <v>0.1424999999999983</v>
       </c>
       <c r="U28">
-        <v>1.000167156195525</v>
+        <v>0.0001671561955249867</v>
       </c>
       <c r="V28">
-        <v>1.000343509811499</v>
+        <v>0.0003435098114989987</v>
       </c>
       <c r="W28">
-        <v>1.00032102728732</v>
+        <v>0.0003210272873195308</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3195,7 +3195,7 @@
         <v>1.965002471931508</v>
       </c>
       <c r="K29">
-        <v>66.27321530195675</v>
+        <v>0.1627321530195676</v>
       </c>
       <c r="L29">
         <v>0.0234574330118906</v>
@@ -3225,13 +3225,13 @@
         <v>0.1425000000000054</v>
       </c>
       <c r="U29">
-        <v>1.000155190526215</v>
+        <v>0.0001551905262153763</v>
       </c>
       <c r="V29">
-        <v>1.000386315834657</v>
+        <v>0.0003863158346566475</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3266,7 +3266,7 @@
         <v>1.82890493367144</v>
       </c>
       <c r="K30">
-        <v>64.65063254344963</v>
+        <v>0.1465063254344963</v>
       </c>
       <c r="L30">
         <v>0.02444687334135624</v>
@@ -3296,13 +3296,13 @@
         <v>0.1387500000000017</v>
       </c>
       <c r="U30">
-        <v>1.000133352595375</v>
+        <v>0.000133352595374836</v>
       </c>
       <c r="V30">
-        <v>1.000321805543637</v>
+        <v>0.0003218055436369216</v>
       </c>
       <c r="W30">
-        <v>0.9996790757381258</v>
+        <v>-0.0003209242618742447</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3337,7 +3337,7 @@
         <v>1.974717031758754</v>
       </c>
       <c r="K31">
-        <v>66.38335716225197</v>
+        <v>0.1638335716225197</v>
       </c>
       <c r="L31">
         <v>0.02520024043247581</v>
@@ -3367,13 +3367,13 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="U31">
-        <v>1.000145927547343</v>
+        <v>0.0001459275473429944</v>
       </c>
       <c r="V31">
-        <v>1.000407489222982</v>
+        <v>0.0004074892229823934</v>
       </c>
       <c r="W31">
-        <v>1.000642054574639</v>
+        <v>0.0006420545746388395</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3408,7 +3408,7 @@
         <v>2.051460241278365</v>
       </c>
       <c r="K32">
-        <v>67.22880454175393</v>
+        <v>0.1722880454175393</v>
       </c>
       <c r="L32">
         <v>0.02578808841021664</v>
@@ -3438,13 +3438,13 @@
         <v>0.1075000000000017</v>
       </c>
       <c r="U32">
-        <v>1.000257743030199</v>
+        <v>0.0002577430301988759</v>
       </c>
       <c r="V32">
-        <v>1.000493075504866</v>
+        <v>0.0004930755048662139</v>
       </c>
       <c r="W32">
-        <v>1.000320821302535</v>
+        <v>0.0003208213025345241</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3479,7 +3479,7 @@
         <v>2.293807218708775</v>
       </c>
       <c r="K33">
-        <v>69.63999610177501</v>
+        <v>0.1963999610177501</v>
       </c>
       <c r="L33">
         <v>0.02649922266202265</v>
@@ -3509,13 +3509,13 @@
         <v>0.09750000000000369</v>
       </c>
       <c r="U33">
-        <v>1.000268413141507</v>
+        <v>0.0002684131415073843</v>
       </c>
       <c r="V33">
-        <v>1.000514260001286</v>
+        <v>0.0005142600012857379</v>
       </c>
       <c r="W33">
-        <v>1.00096215522771</v>
+        <v>0.0009621552277101486</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3550,7 +3550,7 @@
         <v>1.827586180047593</v>
       </c>
       <c r="K34">
-        <v>64.63414600565179</v>
+        <v>0.1463414600565178</v>
       </c>
       <c r="L34">
         <v>0.02678345282840783</v>
@@ -3580,13 +3580,13 @@
         <v>0.0762499999999946</v>
       </c>
       <c r="U34">
-        <v>1.000279074759835</v>
+        <v>0.0002790747598346854</v>
       </c>
       <c r="V34">
-        <v>1.000406913241813</v>
+        <v>0.0004069132418134114</v>
       </c>
       <c r="W34">
-        <v>0.9990387696251202</v>
+        <v>-0.000961230374879829</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3621,7 +3621,7 @@
         <v>1.827586180047593</v>
       </c>
       <c r="K35">
-        <v>64.63414600565179</v>
+        <v>0.1463414600565178</v>
       </c>
       <c r="L35">
         <v>0.02669329515485252</v>
@@ -3651,13 +3651,13 @@
         <v>0.05999999999999517</v>
       </c>
       <c r="U35">
-        <v>1.000268266248887</v>
+        <v>0.0002682662488866505</v>
       </c>
       <c r="V35">
-        <v>1.00032111662956</v>
+        <v>0.0003211166295600254</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3692,7 +3692,7 @@
         <v>1.699969452322056</v>
       </c>
       <c r="K36">
-        <v>62.96254392285921</v>
+        <v>0.1296254392285922</v>
       </c>
       <c r="L36">
         <v>0.02616665481575211</v>
@@ -3722,13 +3722,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U36">
-        <v>1.000214555441126</v>
+        <v>0.0002145554411259187</v>
       </c>
       <c r="V36">
-        <v>1.000192608128063</v>
+        <v>0.0001926081280627656</v>
       </c>
       <c r="W36">
-        <v>0.9996792815907634</v>
+        <v>-0.0003207184092366422</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3763,7 +3763,7 @@
         <v>1.846975814125859</v>
       </c>
       <c r="K37">
-        <v>64.87500894674646</v>
+        <v>0.1487500894674646</v>
       </c>
       <c r="L37">
         <v>0.02555058754781672</v>
@@ -3793,13 +3793,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U37">
-        <v>1.000257411300356</v>
+        <v>0.0002574113003559475</v>
       </c>
       <c r="V37">
-        <v>1.000235364601164</v>
+        <v>0.0002353646011641342</v>
       </c>
       <c r="W37">
-        <v>1.000641642605069</v>
+        <v>0.0006416426050690482</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3834,7 +3834,7 @@
         <v>1.499028379865762</v>
       </c>
       <c r="K38">
-        <v>59.98444803361073</v>
+        <v>0.09984448033610727</v>
       </c>
       <c r="L38">
         <v>0.02447244243634087</v>
@@ -3864,13 +3864,13 @@
         <v>0.03125</v>
       </c>
       <c r="U38">
-        <v>1.000193008792623</v>
+        <v>0.0001930087926227397</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W38">
-        <v>0.9990381532542482</v>
+        <v>-0.0009618467457518376</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3905,7 +3905,7 @@
         <v>1.406084862750543</v>
       </c>
       <c r="K39">
-        <v>58.43870615366248</v>
+        <v>0.08438706153662479</v>
       </c>
       <c r="L39">
         <v>0.02297715954554532</v>
@@ -3935,13 +3935,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U39">
-        <v>1.000085765132186</v>
+        <v>8.576513218550019E-05</v>
       </c>
       <c r="V39">
-        <v>1.000042783494128</v>
+        <v>4.278349412789595E-05</v>
       </c>
       <c r="W39">
-        <v>0.9996790757381258</v>
+        <v>-0.0003209242618742447</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3976,7 +3976,7 @@
         <v>1.536616455731693</v>
       </c>
       <c r="K40">
-        <v>60.57740626335455</v>
+        <v>0.1057740626335455</v>
       </c>
       <c r="L40">
         <v>0.02147703402283073</v>
@@ -4006,13 +4006,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U40">
-        <v>1.000171515554317</v>
+        <v>0.0001715155543167146</v>
       </c>
       <c r="V40">
-        <v>1.000106954159447</v>
+        <v>0.0001069541594471701</v>
       </c>
       <c r="W40">
-        <v>1.000642054574639</v>
+        <v>0.0006420545746388395</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4047,7 +4047,7 @@
         <v>1.674018132553931</v>
       </c>
       <c r="K41">
-        <v>62.60309577463827</v>
+        <v>0.1260309577463827</v>
       </c>
       <c r="L41">
         <v>0.02022646309072227</v>
@@ -4077,13 +4077,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U41">
-        <v>1.000225075561081</v>
+        <v>0.0002250755610813115</v>
       </c>
       <c r="V41">
-        <v>1.000064165632887</v>
+        <v>6.416563288702548E-05</v>
       </c>
       <c r="W41">
-        <v>1.000641642605069</v>
+        <v>0.0006416426050690482</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4118,7 +4118,7 @@
         <v>1.674018132553931</v>
       </c>
       <c r="K42">
-        <v>62.60309577463827</v>
+        <v>0.1260309577463827</v>
       </c>
       <c r="L42">
         <v>0.01913264307208316</v>
@@ -4148,13 +4148,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U42">
-        <v>1.000171447553122</v>
+        <v>0.0001714475531220394</v>
       </c>
       <c r="V42">
-        <v>1.000085548687897</v>
+        <v>8.554868789700798E-05</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4189,7 +4189,7 @@
         <v>1.826263757841731</v>
       </c>
       <c r="K43">
-        <v>64.61759815497024</v>
+        <v>0.1461759815497023</v>
       </c>
       <c r="L43">
         <v>0.01836820969798377</v>
@@ -4219,13 +4219,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U43">
-        <v>1.000224986340115</v>
+        <v>0.0002249863401151408</v>
       </c>
       <c r="V43">
-        <v>1.000106926712431</v>
+        <v>0.0001069267124313988</v>
       </c>
       <c r="W43">
-        <v>1.000641231163835</v>
+        <v>0.0006412311638346324</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4260,7 +4260,7 @@
         <v>1.233315625485945</v>
       </c>
       <c r="K44">
-        <v>55.22352556941382</v>
+        <v>0.05223525569413812</v>
       </c>
       <c r="L44">
         <v>0.01708090179182914</v>
@@ -4290,13 +4290,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U44">
-        <v>1.000182090831191</v>
+        <v>0.0001820908311911396</v>
       </c>
       <c r="V44">
-        <v>0.9999786169439338</v>
+        <v>-2.138305606624868E-05</v>
       </c>
       <c r="W44">
-        <v>0.9980775392502402</v>
+        <v>-0.001922460749759769</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4331,7 +4331,7 @@
         <v>1.290276723074359</v>
       </c>
       <c r="K45">
-        <v>56.33715393755357</v>
+        <v>0.06337153937553563</v>
       </c>
       <c r="L45">
         <v>0.01561456458940965</v>
@@ -4361,13 +4361,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U45">
-        <v>1.000171348404853</v>
+        <v>0.0001713484048533331</v>
       </c>
       <c r="V45">
-        <v>1.000021383513311</v>
+        <v>2.138351331093524E-05</v>
       </c>
       <c r="W45">
-        <v>1.00032102728732</v>
+        <v>0.0003210272873195308</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4402,7 +4402,7 @@
         <v>1.470153873353539</v>
       </c>
       <c r="K46">
-        <v>59.51669202524715</v>
+        <v>0.09516692025247142</v>
       </c>
       <c r="L46">
         <v>0.01442813834034509</v>
@@ -4432,13 +4432,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U46">
-        <v>1.00022485625261</v>
+        <v>0.0002248562526099285</v>
       </c>
       <c r="V46">
-        <v>1.000042766112133</v>
+        <v>4.276611213294146E-05</v>
       </c>
       <c r="W46">
-        <v>1.000962772785623</v>
+        <v>0.0009627727856227342</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4473,7 +4473,7 @@
         <v>1.533268662925166</v>
       </c>
       <c r="K47">
-        <v>60.52530808772175</v>
+        <v>0.1052530808772175</v>
       </c>
       <c r="L47">
         <v>0.01355126073693254</v>
@@ -4503,13 +4503,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U47">
-        <v>1.000267625837669</v>
+        <v>0.0002676258376690388</v>
       </c>
       <c r="V47">
-        <v>1.000042764283271</v>
+        <v>4.276428327076864E-05</v>
       </c>
       <c r="W47">
-        <v>1.000320615581917</v>
+        <v>0.0003206155819173162</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4544,7 +4544,7 @@
         <v>1.353433559165346</v>
       </c>
       <c r="K48">
-        <v>57.50889180170211</v>
+        <v>0.07508891801702111</v>
       </c>
       <c r="L48">
         <v>0.01263404298569369</v>
@@ -4574,13 +4574,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U48">
-        <v>1.000224745555924</v>
+        <v>0.0002247455559241107</v>
       </c>
       <c r="V48">
-        <v>0.9999358563181526</v>
+        <v>-6.414368184737285E-05</v>
       </c>
       <c r="W48">
-        <v>0.9993589743589744</v>
+        <v>-0.0006410256410256387</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4615,7 +4615,7 @@
         <v>1.141952324653958</v>
       </c>
       <c r="K49">
-        <v>53.31362007968341</v>
+        <v>0.0331362007968341</v>
       </c>
       <c r="L49">
         <v>0.01135376079967237</v>
@@ -4645,13 +4645,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U49">
-        <v>1.000171196233683</v>
+        <v>0.0001711962336827799</v>
       </c>
       <c r="V49">
-        <v>0.9999358522034767</v>
+        <v>-6.414779652330616E-05</v>
       </c>
       <c r="W49">
-        <v>0.9990378447722899</v>
+        <v>-0.0009621552277101486</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4686,7 +4686,7 @@
         <v>1.082597366602945</v>
       </c>
       <c r="K50">
-        <v>51.98303733423218</v>
+        <v>0.01983037334232174</v>
       </c>
       <c r="L50">
         <v>0.009777074878374852</v>
@@ -4716,13 +4716,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U50">
-        <v>1.000117677264752</v>
+        <v>0.0001176772647524249</v>
       </c>
       <c r="V50">
-        <v>0.9999144641176974</v>
+        <v>-8.553588230264531E-05</v>
       </c>
       <c r="W50">
-        <v>0.9996789727126807</v>
+        <v>-0.0003210272873193087</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4757,7 +4757,7 @@
         <v>1.30144679442135</v>
       </c>
       <c r="K51">
-        <v>56.54907154821153</v>
+        <v>0.06549071548211527</v>
       </c>
       <c r="L51">
         <v>0.008553894669624751</v>
@@ -4787,13 +4787,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U51">
-        <v>1.000106966744039</v>
+        <v>0.0001069667440392053</v>
       </c>
       <c r="V51">
-        <v>1.000021385799829</v>
+        <v>2.138579982902122E-05</v>
       </c>
       <c r="W51">
-        <v>1.001284521515735</v>
+        <v>0.001284521515735326</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4828,7 +4828,7 @@
         <v>1.359038749110414</v>
       </c>
       <c r="K52">
-        <v>57.609852725942</v>
+        <v>0.07609852725942001</v>
       </c>
       <c r="L52">
         <v>0.007708531294352266</v>
@@ -4858,13 +4858,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U52">
-        <v>1.000117650833717</v>
+        <v>0.0001176508337166204</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1.000320718409237</v>
+        <v>0.0003207184092366422</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4899,7 +4899,7 @@
         <v>1.281358793752292</v>
       </c>
       <c r="K53">
-        <v>56.16647400055656</v>
+        <v>0.06166474000556565</v>
       </c>
       <c r="L53">
         <v>0.007000795942941312</v>
@@ -4929,13 +4929,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U53">
-        <v>1.000021388544296</v>
+        <v>2.138854429567516E-05</v>
       </c>
       <c r="V53">
-        <v>1.000042770684973</v>
+        <v>4.277068497260395E-05</v>
       </c>
       <c r="W53">
-        <v>0.9996793844180827</v>
+        <v>-0.0003206155819173162</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4970,7 +4970,7 @@
         <v>1.208639396777456</v>
       </c>
       <c r="K54">
-        <v>54.72325625183257</v>
+        <v>0.04723256251832564</v>
       </c>
       <c r="L54">
         <v>0.006279096744995974</v>
@@ -5000,13 +5000,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U54">
-        <v>1.000042776173671</v>
+        <v>4.277617367121067E-05</v>
       </c>
       <c r="V54">
-        <v>1.000042768855719</v>
+        <v>4.276885571941058E-05</v>
       </c>
       <c r="W54">
-        <v>0.9996792815907634</v>
+        <v>-0.0003207184092366422</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5041,7 +5041,7 @@
         <v>1.208639396777456</v>
       </c>
       <c r="K55">
-        <v>54.72325625183255</v>
+        <v>0.04723256251832553</v>
       </c>
       <c r="L55">
         <v>0.005572090249967386</v>
@@ -5071,13 +5071,13 @@
         <v>-0.01250000000000995</v>
       </c>
       <c r="U55">
-        <v>1.000053467929936</v>
+        <v>5.346792993554672E-05</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5112,7 +5112,7 @@
         <v>1.208639396777456</v>
       </c>
       <c r="K56">
-        <v>54.72325625183255</v>
+        <v>0.04723256251832553</v>
       </c>
       <c r="L56">
         <v>0.004898765662023612</v>
@@ -5142,13 +5142,13 @@
         <v>-0.01499999999999346</v>
       </c>
       <c r="U56">
-        <v>1.000010693014254</v>
+        <v>1.069301425382641E-05</v>
       </c>
       <c r="V56">
-        <v>0.9999572329733775</v>
+        <v>-4.276702662253662E-05</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5183,7 +5183,7 @@
         <v>1.208639396777456</v>
       </c>
       <c r="K57">
-        <v>54.72325625183257</v>
+        <v>0.04723256251832564</v>
       </c>
       <c r="L57">
         <v>0.004270925895001511</v>
@@ -5213,13 +5213,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U57">
-        <v>1.000021385799829</v>
+        <v>2.138579982879918E-05</v>
       </c>
       <c r="V57">
-        <v>0.9999572311442807</v>
+        <v>-4.276885571929956E-05</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5254,7 +5254,7 @@
         <v>0.9996778325604099</v>
       </c>
       <c r="K58">
-        <v>49.99194451640298</v>
+        <v>-8.055483597019242E-05</v>
       </c>
       <c r="L58">
         <v>0.003344489105927564</v>
@@ -5284,13 +5284,13 @@
         <v>-0.001249999999991758</v>
       </c>
       <c r="U58">
-        <v>0.9999786146575138</v>
+        <v>-2.138534248619095E-05</v>
       </c>
       <c r="V58">
-        <v>0.9998503026025961</v>
+        <v>-0.0001496973974038918</v>
       </c>
       <c r="W58">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5325,7 +5325,7 @@
         <v>0.942502671823657</v>
       </c>
       <c r="K59">
-        <v>48.5200193284068</v>
+        <v>-0.01479980671593195</v>
       </c>
       <c r="L59">
         <v>0.002167224063576797</v>
@@ -5355,13 +5355,13 @@
         <v>-0.003749999999989484</v>
       </c>
       <c r="U59">
-        <v>0.9999679213002565</v>
+        <v>-3.207869974353184E-05</v>
       </c>
       <c r="V59">
-        <v>0.9999572229114088</v>
+        <v>-4.27770885912393E-05</v>
       </c>
       <c r="W59">
-        <v>0.9996788696210661</v>
+        <v>-0.0003211303789338871</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5396,7 +5396,7 @@
         <v>0.8412141377649643</v>
       </c>
       <c r="K60">
-        <v>45.68801208457521</v>
+        <v>-0.04311987915424786</v>
       </c>
       <c r="L60">
         <v>0.0006714648002023121</v>
@@ -5426,13 +5426,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U60">
-        <v>0.999957227028241</v>
+        <v>-4.277297175903083E-05</v>
       </c>
       <c r="V60">
-        <v>0.9998930527036277</v>
+        <v>-0.000106947296372284</v>
       </c>
       <c r="W60">
-        <v>0.9993575329264376</v>
+        <v>-0.0006424670735624138</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5467,7 +5467,7 @@
         <v>0.7961806372844629</v>
       </c>
       <c r="K61">
-        <v>44.32631221813861</v>
+        <v>-0.05673687781861392</v>
       </c>
       <c r="L61">
         <v>-0.001041203299751331</v>
@@ -5497,13 +5497,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U61">
-        <v>0.9999251440976122</v>
+        <v>-7.485590238776041E-05</v>
       </c>
       <c r="V61">
-        <v>0.999807474276424</v>
+        <v>-0.0001925257235759759</v>
       </c>
       <c r="W61">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5538,7 +5538,7 @@
         <v>0.8525321446928679</v>
       </c>
       <c r="K62">
-        <v>46.01983005451221</v>
+        <v>-0.03980169945487794</v>
       </c>
       <c r="L62">
         <v>-0.002655529320101663</v>
@@ -5568,13 +5568,13 @@
         <v>-0.03625000000000256</v>
       </c>
       <c r="U62">
-        <v>0.9999251384937864</v>
+        <v>-7.486150621360821E-05</v>
       </c>
       <c r="V62">
-        <v>0.9998074372031324</v>
+        <v>-0.0001925627968676347</v>
       </c>
       <c r="W62">
-        <v>1.00032154340836</v>
+        <v>0.0003215434083601032</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5609,7 +5609,7 @@
         <v>0.8047938831471761</v>
       </c>
       <c r="K63">
-        <v>44.59201079204607</v>
+        <v>-0.05407989207953934</v>
       </c>
       <c r="L63">
         <v>-0.004214665875589948</v>
@@ -5639,13 +5639,13 @@
         <v>-0.04124999999999801</v>
       </c>
       <c r="U63">
-        <v>0.9998823516829057</v>
+        <v>-0.0001176483170942655</v>
       </c>
       <c r="V63">
-        <v>0.9998288001027199</v>
+        <v>-0.0001711998972800943</v>
       </c>
       <c r="W63">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5680,7 +5680,7 @@
         <v>0.7599973593121219</v>
       </c>
       <c r="K64">
-        <v>43.18173293221074</v>
+        <v>-0.06818267067789263</v>
       </c>
       <c r="L64">
         <v>-0.005742623461516286</v>
@@ -5710,13 +5710,13 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="U64">
-        <v>0.9999037309601231</v>
+        <v>-9.626903987691726E-05</v>
       </c>
       <c r="V64">
-        <v>0.9998715780912224</v>
+        <v>-0.0001284219087775984</v>
       </c>
       <c r="W64">
-        <v>0.9996784565916398</v>
+        <v>-0.0003215434083602142</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5751,7 +5751,7 @@
         <v>0.8185890516737094</v>
       </c>
       <c r="K65">
-        <v>45.01231605459926</v>
+        <v>-0.04987683945400739</v>
       </c>
       <c r="L65">
         <v>-0.007016680951497024</v>
@@ -5781,13 +5781,13 @@
         <v>-0.06125000000000114</v>
       </c>
       <c r="U65">
-        <v>0.999914419281336</v>
+        <v>-8.558071866404671E-05</v>
       </c>
       <c r="V65">
-        <v>0.9999143743979449</v>
+        <v>-8.562560205505054E-05</v>
       </c>
       <c r="W65">
-        <v>1.000321646831779</v>
+        <v>0.0003216468317788213</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5822,7 +5822,7 @@
         <v>0.7287028735850746</v>
       </c>
       <c r="K66">
-        <v>42.15315915301584</v>
+        <v>-0.07846840846984166</v>
       </c>
       <c r="L66">
         <v>-0.00826402900613463</v>
@@ -5852,13 +5852,13 @@
         <v>-0.06875000000000142</v>
       </c>
       <c r="U66">
-        <v>0.9999037134512309</v>
+        <v>-9.628654876914222E-05</v>
       </c>
       <c r="V66">
-        <v>0.9997859176639335</v>
+        <v>-0.0002140823360664568</v>
       </c>
       <c r="W66">
-        <v>0.9993569131832797</v>
+        <v>-0.0006430868167203174</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5893,7 +5893,7 @@
         <v>0.8442883793691154</v>
       </c>
       <c r="K67">
-        <v>45.77854465785471</v>
+        <v>-0.04221455342145292</v>
       </c>
       <c r="L67">
         <v>-0.009152017211788311</v>
@@ -5923,13 +5923,13 @@
         <v>-0.06625000000000369</v>
       </c>
       <c r="U67">
-        <v>0.9999037041792387</v>
+        <v>-9.629582076131626E-05</v>
       </c>
       <c r="V67">
-        <v>0.9998072846405859</v>
+        <v>-0.0001927153594141195</v>
       </c>
       <c r="W67">
-        <v>1.000643500643501</v>
+        <v>0.0006435006435008273</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5964,7 +5964,7 @@
         <v>0.8442883793691155</v>
       </c>
       <c r="K68">
-        <v>45.77854465785471</v>
+        <v>-0.04221455342145292</v>
       </c>
       <c r="L68">
         <v>-0.009732459258003555</v>
@@ -5994,13 +5994,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U68">
-        <v>0.9999357966036403</v>
+        <v>-6.420339635970773E-05</v>
       </c>
       <c r="V68">
-        <v>0.9998286644393044</v>
+        <v>-0.0001713355606955957</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6035,7 +6035,7 @@
         <v>0.7934770517489328</v>
       </c>
       <c r="K69">
-        <v>44.24238665195985</v>
+        <v>-0.05757613348040153</v>
       </c>
       <c r="L69">
         <v>-0.0101711063122274</v>
@@ -6065,13 +6065,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U69">
-        <v>0.9999357924812995</v>
+        <v>-6.420751870050978E-05</v>
       </c>
       <c r="V69">
-        <v>0.9998286350783994</v>
+        <v>-0.0001713649216006363</v>
       </c>
       <c r="W69">
-        <v>0.9996784565916398</v>
+        <v>-0.0003215434083602142</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6106,7 +6106,7 @@
         <v>0.856826979721661</v>
       </c>
       <c r="K70">
-        <v>46.14468601970118</v>
+        <v>-0.03855313980298819</v>
       </c>
       <c r="L70">
         <v>-0.01034202705457884</v>
@@ -6136,13 +6136,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U70">
-        <v>0.9999250864181678</v>
+        <v>-7.491358183220331E-05</v>
       </c>
       <c r="V70">
-        <v>0.9998500299940013</v>
+        <v>-0.0001499700059987008</v>
       </c>
       <c r="W70">
-        <v>1.000321646831779</v>
+        <v>0.0003216468317788213</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6177,7 +6177,7 @@
         <v>0.8032621390362247</v>
       </c>
       <c r="K71">
-        <v>44.54494560982342</v>
+        <v>-0.05455054390176578</v>
       </c>
       <c r="L71">
         <v>-0.01041914156960714</v>
@@ -6207,13 +6207,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U71">
-        <v>0.9998929725795748</v>
+        <v>-0.0001070274204252319</v>
       </c>
       <c r="V71">
-        <v>0.9998285799995714</v>
+        <v>-0.0001714200004285793</v>
       </c>
       <c r="W71">
-        <v>0.9996784565916398</v>
+        <v>-0.0003215434083602142</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6248,7 +6248,7 @@
         <v>0.9348734074981054</v>
       </c>
       <c r="K72">
-        <v>48.31703220868319</v>
+        <v>-0.01682967791316814</v>
       </c>
       <c r="L72">
         <v>-0.01016275467061775</v>
@@ -6278,13 +6278,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U72">
-        <v>0.999914368898784</v>
+        <v>-8.563110121595496E-05</v>
       </c>
       <c r="V72">
-        <v>0.9998714129572878</v>
+        <v>-0.000128587042712236</v>
       </c>
       <c r="W72">
-        <v>1.000643293663557</v>
+        <v>0.0006432936635574205</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6319,7 +6319,7 @@
         <v>0.9348734074981054</v>
       </c>
       <c r="K73">
-        <v>48.31703220868319</v>
+        <v>-0.01682967791316814</v>
       </c>
       <c r="L73">
         <v>-0.009683610743921633</v>
@@ -6349,13 +6349,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U73">
-        <v>0.9998929519568382</v>
+        <v>-0.0001070480431617504</v>
       </c>
       <c r="V73">
-        <v>0.9999356982102668</v>
+        <v>-6.430178973315659E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6390,7 +6390,7 @@
         <v>1.007788237670906</v>
       </c>
       <c r="K74">
-        <v>50.19395067479677</v>
+        <v>0.001939506747967723</v>
       </c>
       <c r="L74">
         <v>-0.008947789902858147</v>
@@ -6420,13 +6420,13 @@
         <v>-7.105427357601002E-15</v>
       </c>
       <c r="U74">
-        <v>0.9999678821488984</v>
+        <v>-3.211785110157628E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999785646917603</v>
+        <v>-2.143530823972561E-05</v>
       </c>
       <c r="W74">
-        <v>1.00032144005143</v>
+        <v>0.0003214400514304216</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6461,7 +6461,7 @@
         <v>1.084540690484352</v>
       </c>
       <c r="K75">
-        <v>52.02780139697605</v>
+        <v>0.02027801396976048</v>
       </c>
       <c r="L75">
         <v>-0.007953739724854822</v>
@@ -6491,13 +6491,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U75">
-        <v>0.9999678811173088</v>
+        <v>-3.21188826911678E-05</v>
       </c>
       <c r="V75">
-        <v>1.000042871535444</v>
+        <v>4.287153544391131E-05</v>
       </c>
       <c r="W75">
-        <v>1.000321336760925</v>
+        <v>0.0003213367609253837</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6532,7 +6532,7 @@
         <v>1.246124801670584</v>
       </c>
       <c r="K76">
-        <v>55.47887636269199</v>
+        <v>0.05478876362691987</v>
       </c>
       <c r="L76">
         <v>-0.006603597575700469</v>
@@ -6562,13 +6562,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U76">
-        <v>0.9999571734475375</v>
+        <v>-4.282655246246048E-05</v>
       </c>
       <c r="V76">
-        <v>1.000107174243886</v>
+        <v>0.0001071742438856216</v>
       </c>
       <c r="W76">
-        <v>1.000642467073563</v>
+        <v>0.0006424670735625249</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6603,7 +6603,7 @@
         <v>1.246124801670584</v>
       </c>
       <c r="K77">
-        <v>55.47887636269199</v>
+        <v>0.05478876362691987</v>
       </c>
       <c r="L77">
         <v>-0.005099611351512979</v>
@@ -6633,13 +6633,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U77">
-        <v>0.9999464645166817</v>
+        <v>-5.353548331832325E-05</v>
       </c>
       <c r="V77">
-        <v>1.000085730207039</v>
+        <v>8.573020703850354E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6674,7 +6674,7 @@
         <v>1.425165368081954</v>
       </c>
       <c r="K78">
-        <v>58.76569848962948</v>
+        <v>0.08765698489629481</v>
       </c>
       <c r="L78">
         <v>-0.003345663273238232</v>
@@ -6704,13 +6704,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U78">
-        <v>0.9999892923300959</v>
+        <v>-1.070766990407535E-05</v>
       </c>
       <c r="V78">
-        <v>1.0001500150015</v>
+        <v>0.0001500150015001367</v>
       </c>
       <c r="W78">
-        <v>1.000642054574639</v>
+        <v>0.0006420545746388395</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6745,7 +6745,7 @@
         <v>1.302434518644179</v>
       </c>
       <c r="K79">
-        <v>56.56771161557879</v>
+        <v>0.06567711615578786</v>
       </c>
       <c r="L79">
         <v>-0.001656821412637153</v>
@@ -6775,13 +6775,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U79">
-        <v>1.000010707784559</v>
+        <v>1.070778455947163E-05</v>
       </c>
       <c r="V79">
-        <v>1.000149992500375</v>
+        <v>0.0001499925003749514</v>
       </c>
       <c r="W79">
-        <v>0.9996791786974655</v>
+        <v>-0.0003208213025345241</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6816,7 +6816,7 @@
         <v>1.483733293821524</v>
       </c>
       <c r="K80">
-        <v>59.73802813339192</v>
+        <v>0.09738028133391918</v>
       </c>
       <c r="L80">
         <v>0.0001249574673318539</v>
@@ -6846,13 +6846,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U80">
-        <v>1.000042830679616</v>
+        <v>4.283067961585729E-05</v>
       </c>
       <c r="V80">
-        <v>1.00017139429257</v>
+        <v>0.0001713942925700707</v>
       </c>
       <c r="W80">
-        <v>1.000641848523748</v>
+        <v>0.0006418485237484894</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6887,7 +6887,7 @@
         <v>1.245954349158986</v>
       </c>
       <c r="K81">
-        <v>55.47549751514508</v>
+        <v>0.05475497515145078</v>
       </c>
       <c r="L81">
         <v>0.001615010728867973</v>
@@ -6917,13 +6917,13 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="U81">
-        <v>0.9999785855773863</v>
+        <v>-2.141442261371918E-05</v>
       </c>
       <c r="V81">
-        <v>1.000171364921601</v>
+        <v>0.0001713649216006363</v>
       </c>
       <c r="W81">
-        <v>0.9993585631815266</v>
+        <v>-0.0006414368184733954</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6958,7 +6958,7 @@
         <v>1.149037732900891</v>
       </c>
       <c r="K82">
-        <v>53.46754574429252</v>
+        <v>0.03467545744292522</v>
       </c>
       <c r="L82">
         <v>0.002710444419592813</v>
@@ -6988,13 +6988,13 @@
         <v>0.05374999999999375</v>
       </c>
       <c r="U82">
-        <v>0.9999571702375981</v>
+        <v>-4.282976240188585E-05</v>
       </c>
       <c r="V82">
-        <v>1.000107084725435</v>
+        <v>0.0001070847254347473</v>
       </c>
       <c r="W82">
-        <v>0.9996790757381258</v>
+        <v>-0.0003209242618742447</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7029,7 +7029,7 @@
         <v>1.230916728601541</v>
       </c>
       <c r="K83">
-        <v>55.17537758449399</v>
+        <v>0.0517537758449399</v>
       </c>
       <c r="L83">
         <v>0.003604082163532169</v>
@@ -7059,13 +7059,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U83">
-        <v>0.9999785842015656</v>
+        <v>-2.141579843439878E-05</v>
       </c>
       <c r="V83">
-        <v>1.000128487911429</v>
+        <v>0.0001284879114289428</v>
       </c>
       <c r="W83">
-        <v>1.00032102728732</v>
+        <v>0.0003210272873195308</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7100,7 +7100,7 @@
         <v>1.403293561655512</v>
       </c>
       <c r="K84">
-        <v>58.39043486176743</v>
+        <v>0.08390434861767426</v>
       </c>
       <c r="L84">
         <v>0.004539326702915627</v>
@@ -7130,13 +7130,13 @@
         <v>0.05125000000000313</v>
       </c>
       <c r="U84">
-        <v>1.00001070812854</v>
+        <v>1.070812854031544E-05</v>
       </c>
       <c r="V84">
-        <v>1.00019270710661</v>
+        <v>0.0001927071066099018</v>
       </c>
       <c r="W84">
-        <v>1.000641848523748</v>
+        <v>0.0006418485237484894</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7171,7 +7171,7 @@
         <v>1.494018210631303</v>
       </c>
       <c r="K85">
-        <v>59.90406181730031</v>
+        <v>0.09904061817300314</v>
       </c>
       <c r="L85">
         <v>0.005540559655076225</v>
@@ -7201,13 +7201,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U85">
-        <v>1.000021416027755</v>
+        <v>2.141602775540541E-05</v>
       </c>
       <c r="V85">
-        <v>1.000192669977736</v>
+        <v>0.0001926699777359264</v>
       </c>
       <c r="W85">
-        <v>1.000320718409237</v>
+        <v>0.0003207184092366422</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7242,7 +7242,7 @@
         <v>1.780517102133731</v>
       </c>
       <c r="K86">
-        <v>64.0354666679585</v>
+        <v>0.1403546666795851</v>
       </c>
       <c r="L86">
         <v>0.006848615512970601</v>
@@ -7272,13 +7272,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U86">
-        <v>1.000053538922797</v>
+        <v>5.353892279669203E-05</v>
       </c>
       <c r="V86">
-        <v>1.000278247469018</v>
+        <v>0.0002782474690183889</v>
       </c>
       <c r="W86">
-        <v>1.000961846745752</v>
+        <v>0.0009618467457517266</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7313,7 +7313,7 @@
         <v>1.780517102133731</v>
       </c>
       <c r="K87">
-        <v>64.0354666679585</v>
+        <v>0.1403546666795851</v>
       </c>
       <c r="L87">
         <v>0.008234078830863011</v>
@@ -7343,13 +7343,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U87">
-        <v>1.000053536056534</v>
+        <v>5.35360565341314E-05</v>
       </c>
       <c r="V87">
-        <v>1.000235374673685</v>
+        <v>0.0002353746736849516</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7384,7 +7384,7 @@
         <v>1.469517851529025</v>
       </c>
       <c r="K88">
-        <v>59.50626559023089</v>
+        <v>0.09506265590230889</v>
       </c>
       <c r="L88">
         <v>0.009314063747247281</v>
@@ -7414,13 +7414,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U88">
-        <v>1.000064239828694</v>
+        <v>6.423982869385725E-05</v>
       </c>
       <c r="V88">
-        <v>1.000192533960851</v>
+        <v>0.0001925339608512822</v>
       </c>
       <c r="W88">
-        <v>0.9993593850096092</v>
+        <v>-0.0006406149903908087</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7455,7 +7455,7 @@
         <v>1.653378838779959</v>
       </c>
       <c r="K89">
-        <v>62.31220414572212</v>
+        <v>0.1231220414572212</v>
       </c>
       <c r="L89">
         <v>0.01034002319357171</v>
@@ -7485,13 +7485,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U89">
-        <v>1.000096353553305</v>
+        <v>9.635355330472883E-05</v>
       </c>
       <c r="V89">
-        <v>1.000213885442957</v>
+        <v>0.0002138854429567516</v>
       </c>
       <c r="W89">
-        <v>1.000641025641026</v>
+        <v>0.0006410256410256387</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7526,7 +7526,7 @@
         <v>1.281384249560925</v>
       </c>
       <c r="K90">
-        <v>56.16696309740633</v>
+        <v>0.06166963097406331</v>
       </c>
       <c r="L90">
         <v>0.01087925479616946</v>
@@ -7556,13 +7556,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U90">
-        <v>1.000085639351282</v>
+        <v>8.563935128202971E-05</v>
       </c>
       <c r="V90">
-        <v>1.000128303823454</v>
+        <v>0.000128303823454079</v>
       </c>
       <c r="W90">
-        <v>0.9990390775144139</v>
+        <v>-0.000960922485586102</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7597,7 +7597,7 @@
         <v>1.106656382006985</v>
       </c>
       <c r="K91">
-        <v>52.53141382994257</v>
+        <v>0.02531413829942575</v>
       </c>
       <c r="L91">
         <v>0.0108157845655282</v>
@@ -7627,13 +7627,13 @@
         <v>0.03875000000000028</v>
       </c>
       <c r="U91">
-        <v>1.000074928015585</v>
+        <v>7.492801558495188E-05</v>
       </c>
       <c r="V91">
-        <v>1.000042762454565</v>
+        <v>4.276245456491523E-05</v>
       </c>
       <c r="W91">
-        <v>0.9993587688361655</v>
+        <v>-0.0006412311638345214</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7668,7 +7668,7 @@
         <v>1.032552439940825</v>
       </c>
       <c r="K92">
-        <v>50.8007773699008</v>
+        <v>0.008007773699007958</v>
       </c>
       <c r="L92">
         <v>0.01023502953252921</v>
@@ -7698,13 +7698,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U92">
-        <v>1.000053516001284</v>
+        <v>5.351600128444822E-05</v>
       </c>
       <c r="V92">
-        <v>1.000021380313008</v>
+        <v>2.138031300780163E-05</v>
       </c>
       <c r="W92">
-        <v>0.9996791786974655</v>
+        <v>-0.0003208213025345241</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7739,7 +7739,7 @@
         <v>1.10303877229438</v>
       </c>
       <c r="K93">
-        <v>52.44975921632597</v>
+        <v>0.02449759216325975</v>
       </c>
       <c r="L93">
         <v>0.009457649635137549</v>
@@ -7769,13 +7769,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U93">
-        <v>1.000074918392465</v>
+        <v>7.49183924653174E-05</v>
       </c>
       <c r="V93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>1.000320924261874</v>
+        <v>0.0003209242618742447</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7810,7 +7810,7 @@
         <v>0.8045618549056309</v>
       </c>
       <c r="K94">
-        <v>44.58488650408191</v>
+        <v>-0.05415113495918084</v>
       </c>
       <c r="L94">
         <v>0.007991890686744278</v>
@@ -7840,13 +7840,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U94">
-        <v>1.000032105477194</v>
+        <v>3.210547719434409E-05</v>
       </c>
       <c r="V94">
-        <v>0.9999144805764009</v>
+        <v>-8.551942359913411E-05</v>
       </c>
       <c r="W94">
-        <v>0.9983958934873275</v>
+        <v>-0.00160410651267251</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7881,7 +7881,7 @@
         <v>0.9184966454938988</v>
       </c>
       <c r="K95">
-        <v>47.87585360919099</v>
+        <v>-0.02124146390809012</v>
       </c>
       <c r="L95">
         <v>0.006407350612078505</v>
@@ -7911,13 +7911,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U95">
-        <v>1.000042805928621</v>
+        <v>4.280592862127008E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999144732622036</v>
+        <v>-8.552673779638198E-05</v>
       </c>
       <c r="W95">
-        <v>1.000642673521851</v>
+        <v>0.0006426735218509894</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7952,7 +7952,7 @@
         <v>0.7408051172759039</v>
       </c>
       <c r="K96">
-        <v>42.55531592388422</v>
+        <v>-0.07444684076115782</v>
       </c>
       <c r="L96">
         <v>0.004361087187344462</v>
@@ -7982,13 +7982,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U96">
-        <v>1.000021402048176</v>
+        <v>2.14020481759114E-05</v>
       </c>
       <c r="V96">
-        <v>0.9998716989201326</v>
+        <v>-0.0001283010798673878</v>
       </c>
       <c r="W96">
-        <v>0.9987154784842647</v>
+        <v>-0.001284521515735326</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8023,7 +8023,7 @@
         <v>0.8935359803917047</v>
       </c>
       <c r="K97">
-        <v>47.1887510797056</v>
+        <v>-0.02811248920294396</v>
       </c>
       <c r="L97">
         <v>0.00250028948006782</v>
@@ -8053,13 +8053,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U97">
-        <v>1.000032102385207</v>
+        <v>3.21023852072333E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999572274856177</v>
+        <v>-4.277251438233876E-05</v>
       </c>
       <c r="W97">
-        <v>1.00096463022508</v>
+        <v>0.0009646302250803096</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8094,7 +8094,7 @@
         <v>0.9471257569235773</v>
       </c>
       <c r="K98">
-        <v>48.64224889202937</v>
+        <v>-0.01357751107970628</v>
       </c>
       <c r="L98">
         <v>0.0009781510000548914</v>
@@ -8124,13 +8124,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U98">
-        <v>1.000042801806236</v>
+        <v>4.280180623617014E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999572256560516</v>
+        <v>-4.277434394839297E-05</v>
       </c>
       <c r="W98">
-        <v>1.000321233536781</v>
+        <v>0.0003212335367812624</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8165,7 +8165,7 @@
         <v>0.8965510511543389</v>
       </c>
       <c r="K99">
-        <v>47.2727085626644</v>
+        <v>-0.02727291437335599</v>
       </c>
       <c r="L99">
         <v>-0.0003622869918284172</v>
@@ -8195,13 +8195,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U99">
-        <v>1.00004279997432</v>
+        <v>4.279997431999583E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998930595658219</v>
+        <v>-0.0001069404341781377</v>
       </c>
       <c r="W99">
-        <v>0.9996788696210661</v>
+        <v>-0.0003211303789338871</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8236,7 +8236,7 @@
         <v>0.896551051154339</v>
       </c>
       <c r="K100">
-        <v>47.27270856266441</v>
+        <v>-0.02727291437335594</v>
       </c>
       <c r="L100">
         <v>-0.001505947383015988</v>
@@ -8266,13 +8266,13 @@
         <v>-0.06374999999999886</v>
       </c>
       <c r="U100">
-        <v>1.00003209860692</v>
+        <v>3.209860692043875E-05</v>
       </c>
       <c r="V100">
-        <v>0.9998716577540107</v>
+        <v>-0.0001283422459893435</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8307,7 +8307,7 @@
         <v>0.8016847192968977</v>
       </c>
       <c r="K101">
-        <v>44.49639333177854</v>
+        <v>-0.05503606668221456</v>
       </c>
       <c r="L101">
         <v>-0.002685790194294317</v>
@@ -8337,13 +8337,13 @@
         <v>-0.06875000000000142</v>
       </c>
       <c r="U101">
-        <v>1.000021398384422</v>
+        <v>2.139838442194453E-05</v>
       </c>
       <c r="V101">
-        <v>0.9997646756803011</v>
+        <v>-0.0002353243196988597</v>
       </c>
       <c r="W101">
-        <v>0.9993575329264376</v>
+        <v>-0.0006424670735624138</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8378,7 +8378,7 @@
         <v>0.8016847192968979</v>
       </c>
       <c r="K102">
-        <v>44.49639333177855</v>
+        <v>-0.0550360666822145</v>
       </c>
       <c r="L102">
         <v>-0.003802647487041013</v>
@@ -8408,13 +8408,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V102">
-        <v>0.9997646202897312</v>
+        <v>-0.0002353797102687682</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8449,7 +8449,7 @@
         <v>0.7572908897465942</v>
       </c>
       <c r="K103">
-        <v>43.09422498945507</v>
+        <v>-0.06905775010544929</v>
       </c>
       <c r="L103">
         <v>-0.004913262834366954</v>
@@ -8479,13 +8479,13 @@
         <v>-0.05250000000000199</v>
       </c>
       <c r="U103">
-        <v>0.9999893010367296</v>
+        <v>-1.069896327043907E-05</v>
       </c>
       <c r="V103">
-        <v>0.9997859680664354</v>
+        <v>-0.0002140319335646179</v>
       </c>
       <c r="W103">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8520,7 +8520,7 @@
         <v>0.8155810701257841</v>
       </c>
       <c r="K104">
-        <v>44.92121467587676</v>
+        <v>-0.05078785324123236</v>
       </c>
       <c r="L104">
         <v>-0.005814647341520526</v>
@@ -8550,13 +8550,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U104">
-        <v>0.9999893009222606</v>
+        <v>-1.069907773942891E-05</v>
       </c>
       <c r="V104">
-        <v>0.9997645144716562</v>
+        <v>-0.0002354855283438484</v>
       </c>
       <c r="W104">
-        <v>1.00032154340836</v>
+        <v>0.0003215434083601032</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8591,7 +8591,7 @@
         <v>0.7684315802104841</v>
       </c>
       <c r="K105">
-        <v>43.45271758373728</v>
+        <v>-0.06547282416262717</v>
       </c>
       <c r="L105">
         <v>-0.006627602636279081</v>
@@ -8621,13 +8621,13 @@
         <v>-0.03125000000000711</v>
       </c>
       <c r="U105">
-        <v>0.9999679024233669</v>
+        <v>-3.209757663313884E-05</v>
       </c>
       <c r="V105">
-        <v>0.9998072846405859</v>
+        <v>-0.0001927153594141195</v>
       </c>
       <c r="W105">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8662,7 +8662,7 @@
         <v>0.8292851775217248</v>
       </c>
       <c r="K106">
-        <v>45.3338379227028</v>
+        <v>-0.04666162077297203</v>
       </c>
       <c r="L106">
         <v>-0.007194237995169128</v>
@@ -8692,13 +8692,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U106">
-        <v>0.9999572018574393</v>
+        <v>-4.279814256069603E-05</v>
       </c>
       <c r="V106">
-        <v>0.9998714983294782</v>
+        <v>-0.0001285016705218078</v>
       </c>
       <c r="W106">
-        <v>1.00032154340836</v>
+        <v>0.0003215434083601032</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8733,7 +8733,7 @@
         <v>0.9573980139664652</v>
       </c>
       <c r="K107">
-        <v>48.91176996886785</v>
+        <v>-0.01088230031132148</v>
       </c>
       <c r="L107">
         <v>-0.007315588153865357</v>
@@ -8763,13 +8763,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U107">
-        <v>0.99997860001284</v>
+        <v>-2.139998715999791E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999357409073384</v>
+        <v>-6.425909266161156E-05</v>
       </c>
       <c r="W107">
-        <v>1.000642880102861</v>
+        <v>0.0006428801028608433</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8804,7 +8804,7 @@
         <v>1.024825822621603</v>
       </c>
       <c r="K108">
-        <v>50.61303600399221</v>
+        <v>0.006130360039922067</v>
       </c>
       <c r="L108">
         <v>-0.007015862303319209</v>
@@ -8834,13 +8834,13 @@
         <v>-0.01875000000000426</v>
       </c>
       <c r="U108">
-        <v>0.9999678993323062</v>
+        <v>-3.210066769376851E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999357367778421</v>
+        <v>-6.426322215791203E-05</v>
       </c>
       <c r="W108">
-        <v>1.000321233536781</v>
+        <v>0.0003212335367812624</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8875,7 +8875,7 @@
         <v>1.095802463311198</v>
       </c>
       <c r="K109">
-        <v>52.28557950924053</v>
+        <v>0.02285579509240532</v>
       </c>
       <c r="L109">
         <v>-0.006337613195864766</v>
@@ -8905,13 +8905,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U109">
-        <v>0.9999892994339401</v>
+        <v>-1.070056605989578E-05</v>
       </c>
       <c r="V109">
-        <v>1.000064267352185</v>
+        <v>6.426735218512114E-05</v>
       </c>
       <c r="W109">
-        <v>1.000321130378934</v>
+        <v>0.0003211303789338871</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8946,7 +8946,7 @@
         <v>1.245226970026186</v>
       </c>
       <c r="K110">
-        <v>55.46107305185556</v>
+        <v>0.05461073051855558</v>
       </c>
       <c r="L110">
         <v>-0.005216271081735137</v>
@@ -8976,13 +8976,13 @@
         <v>0.002500000000004832</v>
       </c>
       <c r="U110">
-        <v>0.9999892993194366</v>
+        <v>-1.070068056341356E-05</v>
       </c>
       <c r="V110">
-        <v>1.000064263222158</v>
+        <v>6.426322215813407E-05</v>
       </c>
       <c r="W110">
-        <v>1.000642054574639</v>
+        <v>0.0006420545746388395</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9017,7 +9017,7 @@
         <v>1.15443688474385</v>
       </c>
       <c r="K111">
-        <v>53.58415894746</v>
+        <v>0.03584158947459992</v>
       </c>
       <c r="L111">
         <v>-0.003995786329191484</v>
@@ -9047,13 +9047,13 @@
         <v>0.01500000000000767</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>1.000128518185323</v>
+        <v>0.0001285181853230011</v>
       </c>
       <c r="W111">
-        <v>0.9996791786974655</v>
+        <v>-0.0003208213025345241</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9088,7 +9088,7 @@
         <v>1.23118474928898</v>
       </c>
       <c r="K112">
-        <v>55.18076213461597</v>
+        <v>0.05180762134615979</v>
       </c>
       <c r="L112">
         <v>-0.002661501125463545</v>
@@ -9118,13 +9118,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U112">
-        <v>1.000021401590138</v>
+        <v>2.140159013830356E-05</v>
       </c>
       <c r="V112">
-        <v>1.000085667780348</v>
+        <v>8.566778034801992E-05</v>
       </c>
       <c r="W112">
-        <v>1.000320924261874</v>
+        <v>0.0003209242618742447</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9159,7 +9159,7 @@
         <v>1.059927538449824</v>
       </c>
       <c r="K113">
-        <v>51.45460307052648</v>
+        <v>0.01454603070526483</v>
       </c>
       <c r="L113">
         <v>-0.001567457622260791</v>
@@ -9189,13 +9189,13 @@
         <v>0.03125</v>
       </c>
       <c r="U113">
-        <v>0.9999892994339399</v>
+        <v>-1.070056606011782E-05</v>
       </c>
       <c r="V113">
-        <v>1.000021415110502</v>
+        <v>2.141511050202105E-05</v>
       </c>
       <c r="W113">
-        <v>0.999358357394931</v>
+        <v>-0.0006416426050690482</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9230,7 +9230,7 @@
         <v>0.9876233605814436</v>
       </c>
       <c r="K114">
-        <v>49.68865732653354</v>
+        <v>-0.003113426734664637</v>
       </c>
       <c r="L114">
         <v>-0.0007999226109474824</v>
@@ -9260,13 +9260,13 @@
         <v>0.03874999999999318</v>
       </c>
       <c r="U114">
-        <v>0.9999571972777469</v>
+        <v>-4.280272225309911E-05</v>
       </c>
       <c r="V114">
-        <v>1.000021414651905</v>
+        <v>2.14146519048608E-05</v>
       </c>
       <c r="W114">
-        <v>0.9996789727126807</v>
+        <v>-0.0003210272873193087</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9301,7 +9301,7 @@
         <v>0.9214567956777635</v>
       </c>
       <c r="K115">
-        <v>47.95615481703997</v>
+        <v>-0.02043845182960036</v>
       </c>
       <c r="L115">
         <v>-0.0003931462745282594</v>
@@ -9331,13 +9331,13 @@
         <v>0.03875000000000028</v>
       </c>
       <c r="U115">
-        <v>0.999935793168393</v>
+        <v>-6.420683160701657E-05</v>
       </c>
       <c r="V115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W115">
-        <v>0.9996788696210661</v>
+        <v>-0.0003211303789338871</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9372,7 +9372,7 @@
         <v>0.8075561114311794</v>
       </c>
       <c r="K116">
-        <v>44.67668286058218</v>
+        <v>-0.05323317139417827</v>
       </c>
       <c r="L116">
         <v>-0.0004633003126399459</v>
@@ -9402,13 +9402,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U116">
-        <v>0.9998822799169539</v>
+        <v>-0.0001177200830461134</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>0.9993575329264376</v>
+        <v>-0.0006424670735624138</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9443,7 +9443,7 @@
         <v>0.8726136690204648</v>
       </c>
       <c r="K117">
-        <v>46.5987023087851</v>
+        <v>-0.034012976912149</v>
       </c>
       <c r="L117">
         <v>-0.0006993023752426298</v>
@@ -9473,13 +9473,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U117">
-        <v>0.999892969143004</v>
+        <v>-0.0001070308569960376</v>
       </c>
       <c r="V117">
-        <v>1.000021414193327</v>
+        <v>2.141419332746253E-05</v>
       </c>
       <c r="W117">
-        <v>1.00032144005143</v>
+        <v>0.0003214400514304216</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9514,7 +9514,7 @@
         <v>0.816685693704146</v>
       </c>
       <c r="K118">
-        <v>44.9547049626927</v>
+        <v>-0.05045295037307296</v>
       </c>
       <c r="L118">
         <v>-0.001135137285177554</v>
@@ -9544,13 +9544,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U118">
-        <v>0.999903661917556</v>
+        <v>-9.63380824440252E-05</v>
       </c>
       <c r="V118">
-        <v>1.000021413734769</v>
+        <v>2.141373476938213E-05</v>
       </c>
       <c r="W118">
-        <v>0.9996786632390745</v>
+        <v>-0.0003213367609254947</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9585,7 +9585,7 @@
         <v>0.816685693704146</v>
       </c>
       <c r="K119">
-        <v>44.9547049626927</v>
+        <v>-0.05045295037307296</v>
       </c>
       <c r="L119">
         <v>-0.00166014152884523</v>
@@ -9615,13 +9615,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U119">
-        <v>0.9998822421102214</v>
+        <v>-0.0001177578897786358</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9656,7 +9656,7 @@
         <v>0.8877022935492035</v>
       </c>
       <c r="K120">
-        <v>47.02554510754825</v>
+        <v>-0.02974454892451756</v>
       </c>
       <c r="L120">
         <v>-0.002082741682052137</v>
@@ -9686,13 +9686,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U120">
-        <v>0.9999250543356066</v>
+        <v>-7.494566439336658E-05</v>
       </c>
       <c r="V120">
-        <v>1.000042826552463</v>
+        <v>4.28265524625715E-05</v>
       </c>
       <c r="W120">
-        <v>1.00032144005143</v>
+        <v>0.0003214400514304216</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9727,7 +9727,7 @@
         <v>0.7722450005284363</v>
       </c>
       <c r="K121">
-        <v>43.57439294782456</v>
+        <v>-0.06425607052175442</v>
       </c>
       <c r="L121">
         <v>-0.002642687841822337</v>
@@ -9757,13 +9757,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U121">
-        <v>0.9999250487183332</v>
+        <v>-7.495128166679077E-05</v>
       </c>
       <c r="V121">
-        <v>0.9999785876407865</v>
+        <v>-2.141235921349072E-05</v>
       </c>
       <c r="W121">
-        <v>0.9993573264781491</v>
+        <v>-0.0006426735218508783</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9798,7 +9798,7 @@
         <v>0.7722450005284363</v>
       </c>
       <c r="K122">
-        <v>43.57439294782456</v>
+        <v>-0.06425607052175442</v>
       </c>
       <c r="L122">
         <v>-0.003240567418273971</v>
@@ -9828,13 +9828,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U122">
-        <v>0.9999357512287577</v>
+        <v>-6.424877124233674E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999357615468619</v>
+        <v>-6.423845313807686E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9869,7 +9869,7 @@
         <v>0.7722450005284363</v>
       </c>
       <c r="K123">
-        <v>43.57439294782456</v>
+        <v>-0.06425607052175442</v>
       </c>
       <c r="L123">
         <v>-0.003811562373648808</v>
@@ -9899,13 +9899,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U123">
-        <v>0.9999250382840192</v>
+        <v>-7.496171598075918E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999143432266906</v>
+        <v>-8.565677330940602E-05</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9940,7 +9940,7 @@
         <v>0.7722450005284361</v>
       </c>
       <c r="K124">
-        <v>43.57439294782456</v>
+        <v>-0.06425607052175442</v>
       </c>
       <c r="L124">
         <v>-0.004316038247453226</v>
@@ -9970,13 +9970,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U124">
-        <v>0.9999785807612398</v>
+        <v>-2.14192387602008E-05</v>
       </c>
       <c r="V124">
-        <v>0.9998929198612241</v>
+        <v>-0.0001070801387759168</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10011,7 +10011,7 @@
         <v>0.7722450005284364</v>
       </c>
       <c r="K125">
-        <v>43.57439294782456</v>
+        <v>-0.06425607052175442</v>
       </c>
       <c r="L125">
         <v>-0.004732382805738975</v>
@@ -10041,13 +10041,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U125">
-        <v>0.9999571606048923</v>
+        <v>-4.283939510774104E-05</v>
       </c>
       <c r="V125">
-        <v>0.9998500717513762</v>
+        <v>-0.0001499282486238096</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10082,7 +10082,7 @@
         <v>0.8562888636672851</v>
       </c>
       <c r="K126">
-        <v>46.12907400498004</v>
+        <v>-0.03870925995019958</v>
       </c>
       <c r="L126">
         <v>-0.00493463266002527</v>
@@ -10112,13 +10112,13 @@
         <v>-0.03124999999999289</v>
       </c>
       <c r="U126">
-        <v>1.0000107103076</v>
+        <v>1.071030759991487E-05</v>
       </c>
       <c r="V126">
-        <v>0.9998928923353756</v>
+        <v>-0.0001071076646244062</v>
       </c>
       <c r="W126">
-        <v>1.00032154340836</v>
+        <v>0.0003215434083601032</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10153,7 +10153,7 @@
         <v>0.6766933234644468</v>
       </c>
       <c r="K127">
-        <v>40.35880109943049</v>
+        <v>-0.09641198900569509</v>
       </c>
       <c r="L127">
         <v>-0.005327238342064384</v>
@@ -10183,13 +10183,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U127">
-        <v>0.9999464490355472</v>
+        <v>-5.355096445280871E-05</v>
       </c>
       <c r="V127">
-        <v>0.9998071855517707</v>
+        <v>-0.0001928144482292726</v>
       </c>
       <c r="W127">
-        <v>0.9990356798457087</v>
+        <v>-0.0009643201542912649</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10224,7 +10224,7 @@
         <v>0.8974692147284895</v>
       </c>
       <c r="K128">
-        <v>47.29822269379528</v>
+        <v>-0.02701777306204717</v>
       </c>
       <c r="L128">
         <v>-0.005439878605113324</v>
@@ -10254,13 +10254,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U128">
-        <v>0.9999678677006127</v>
+        <v>-3.213229938725526E-05</v>
       </c>
       <c r="V128">
-        <v>0.9999142881631953</v>
+        <v>-8.571183680472494E-05</v>
       </c>
       <c r="W128">
-        <v>1.000965250965251</v>
+        <v>0.0009652509652509078</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10295,7 +10295,7 @@
         <v>0.8329449469929766</v>
       </c>
       <c r="K129">
-        <v>45.44298770999412</v>
+        <v>-0.0455701229000588</v>
       </c>
       <c r="L129">
         <v>-0.005472895302745934</v>
@@ -10325,13 +10325,13 @@
         <v>-0.01749999999999119</v>
       </c>
       <c r="U129">
-        <v>0.9999678666680948</v>
+        <v>-3.213333190521528E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999142808160466</v>
+        <v>-8.571918395339218E-05</v>
       </c>
       <c r="W129">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10366,7 +10366,7 @@
         <v>0.8329449469929766</v>
       </c>
       <c r="K130">
-        <v>45.44298770999412</v>
+        <v>-0.0455701229000588</v>
       </c>
       <c r="L130">
         <v>-0.005435650775358204</v>
@@ -10396,13 +10396,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U130">
-        <v>0.9999678656355107</v>
+        <v>-3.213436448934459E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999357051007287</v>
+        <v>-6.429489927128884E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10437,7 +10437,7 @@
         <v>0.771486098537711</v>
       </c>
       <c r="K131">
-        <v>43.55022030229541</v>
+        <v>-0.06449779697704594</v>
       </c>
       <c r="L131">
         <v>-0.005455424165384868</v>
@@ -10467,13 +10467,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U131">
-        <v>0.9999785764019066</v>
+        <v>-2.142359809342853E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999571339777524</v>
+        <v>-4.286602224756741E-05</v>
       </c>
       <c r="W131">
-        <v>0.9996784565916398</v>
+        <v>-0.0003215434083602142</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10508,7 +10508,7 @@
         <v>0.7158844765729256</v>
       </c>
       <c r="K132">
-        <v>41.72101830554094</v>
+        <v>-0.08278981694459064</v>
       </c>
       <c r="L132">
         <v>-0.005605645537374214</v>
@@ -10538,13 +10538,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U132">
-        <v>0.9999678639143895</v>
+        <v>-3.213608561047909E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999142642803558</v>
+        <v>-8.573571964420879E-05</v>
       </c>
       <c r="W132">
-        <v>0.9996783531682213</v>
+        <v>-0.0003216468317787102</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10579,7 +10579,7 @@
         <v>0.6215742551774087</v>
       </c>
       <c r="K133">
-        <v>38.33153204010416</v>
+        <v>-0.1166846795989585</v>
       </c>
       <c r="L133">
         <v>-0.006038976179652629</v>
@@ -10609,13 +10609,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U133">
-        <v>0.9999571505088376</v>
+        <v>-4.28494911624E-05</v>
       </c>
       <c r="V133">
-        <v>0.99989282116139</v>
+        <v>-0.0001071788386100003</v>
       </c>
       <c r="W133">
-        <v>0.9993564993564994</v>
+        <v>-0.0006435006435006052</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10650,7 +10650,7 @@
         <v>0.8295839002538488</v>
       </c>
       <c r="K134">
-        <v>45.34276346325231</v>
+        <v>-0.04657236536747689</v>
       </c>
       <c r="L134">
         <v>-0.006243255898251667</v>
@@ -10680,13 +10680,13 @@
         <v>-0.01625000000000654</v>
       </c>
       <c r="U134">
-        <v>0.9999785743363401</v>
+        <v>-2.142566365992415E-05</v>
       </c>
       <c r="V134">
-        <v>0.999957123869142</v>
+        <v>-4.28761308579606E-05</v>
       </c>
       <c r="W134">
-        <v>1.000965872504829</v>
+        <v>0.0009658725048293793</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10721,7 +10721,7 @@
         <v>0.9755555810092364</v>
       </c>
       <c r="K135">
-        <v>49.38132798627018</v>
+        <v>-0.006186720137298207</v>
       </c>
       <c r="L135">
         <v>-0.006038974190248639</v>
@@ -10751,13 +10751,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U135">
-        <v>1.000010713061364</v>
+        <v>1.071306136446459E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999785610153503</v>
+        <v>-2.143898464967986E-05</v>
       </c>
       <c r="W135">
-        <v>1.000643293663557</v>
+        <v>0.0006432936635574205</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10792,7 +10792,7 @@
         <v>1.282864382599527</v>
       </c>
       <c r="K136">
-        <v>56.19538297490596</v>
+        <v>0.06195382974905961</v>
       </c>
       <c r="L136">
         <v>-0.00511002555943336</v>
@@ -10822,13 +10822,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U136">
-        <v>1.000042851786384</v>
+        <v>4.285178638374632E-05</v>
       </c>
       <c r="V136">
-        <v>1.000107197221448</v>
+        <v>0.0001071972214479189</v>
       </c>
       <c r="W136">
-        <v>1.001285760205722</v>
+        <v>0.001285760205721687</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10863,7 +10863,7 @@
         <v>1.282864382599526</v>
       </c>
       <c r="K137">
-        <v>56.19538297490596</v>
+        <v>0.06195382974905961</v>
       </c>
       <c r="L137">
         <v>-0.003782517627911221</v>
@@ -10893,13 +10893,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U137">
-        <v>1.000021424975093</v>
+        <v>2.142497509338703E-05</v>
       </c>
       <c r="V137">
-        <v>1.000107185731436</v>
+        <v>0.0001071857314356439</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10934,7 +10934,7 @@
         <v>0.8998544293081321</v>
       </c>
       <c r="K138">
-        <v>47.36438831452108</v>
+        <v>-0.02635611685478922</v>
       </c>
       <c r="L138">
         <v>-0.002869515168649432</v>
@@ -10964,13 +10964,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U138">
-        <v>0.9999571509678524</v>
+        <v>-4.284903214757385E-05</v>
       </c>
       <c r="V138">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W138">
-        <v>0.998394863563403</v>
+        <v>-0.001605136436596988</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11005,7 +11005,7 @@
         <v>0.7993669634290339</v>
       </c>
       <c r="K139">
-        <v>44.42489940493789</v>
+        <v>-0.0557510059506211</v>
       </c>
       <c r="L139">
         <v>-0.002489484997007261</v>
@@ -11035,13 +11035,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U139">
-        <v>0.999925010980535</v>
+        <v>-7.498901946501046E-05</v>
       </c>
       <c r="V139">
-        <v>0.9999571303024458</v>
+        <v>-4.286969755418202E-05</v>
       </c>
       <c r="W139">
-        <v>0.9993569131832797</v>
+        <v>-0.0006430868167203174</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11076,7 +11076,7 @@
         <v>0.858141069788694</v>
       </c>
       <c r="K140">
-        <v>46.18277286590953</v>
+        <v>-0.03817227134090473</v>
       </c>
       <c r="L140">
         <v>-0.002330483333173509</v>
@@ -11106,13 +11106,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U140">
-        <v>0.9999142918362973</v>
+        <v>-8.57081637026802E-05</v>
       </c>
       <c r="V140">
-        <v>0.999978564232278</v>
+        <v>-2.143576772195566E-05</v>
       </c>
       <c r="W140">
-        <v>1.00032175032175</v>
+        <v>0.0003217503217503026</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11147,7 +11147,7 @@
         <v>0.858141069788694</v>
       </c>
       <c r="K141">
-        <v>46.18277286590953</v>
+        <v>-0.03817227134090473</v>
       </c>
       <c r="L141">
         <v>-0.002307046370957117</v>
@@ -11177,13 +11177,13 @@
         <v>0.01625000000000654</v>
       </c>
       <c r="U141">
-        <v>0.9999249989285562</v>
+        <v>-7.500107144375878E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999571275455518</v>
+        <v>-4.28724544482284E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11218,7 +11218,7 @@
         <v>0.6807970719367366</v>
       </c>
       <c r="K142">
-        <v>40.50441801116852</v>
+        <v>-0.09495581988831481</v>
       </c>
       <c r="L142">
         <v>-0.002827056023983471</v>
@@ -11248,13 +11248,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U142">
-        <v>0.9998714170908116</v>
+        <v>-0.0001285829091883794</v>
       </c>
       <c r="V142">
-        <v>0.9999356885611389</v>
+        <v>-6.431143886109769E-05</v>
       </c>
       <c r="W142">
-        <v>0.9987134126728852</v>
+        <v>-0.001286587327114841</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11289,7 +11289,7 @@
         <v>0.7895658391288906</v>
       </c>
       <c r="K143">
-        <v>44.12052475885596</v>
+        <v>-0.05879475241144044</v>
       </c>
       <c r="L143">
         <v>-0.003398808744718272</v>
@@ -11319,13 +11319,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U143">
-        <v>0.9999142670367474</v>
+        <v>-8.573296325264934E-05</v>
       </c>
       <c r="V143">
-        <v>0.999914245899882</v>
+        <v>-8.575410011801843E-05</v>
       </c>
       <c r="W143">
-        <v>1.000644122383253</v>
+        <v>0.0006441223832527321</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11360,7 +11360,7 @@
         <v>0.7468132314909568</v>
       </c>
       <c r="K144">
-        <v>42.75289527395723</v>
+        <v>-0.07247104726042769</v>
       </c>
       <c r="L144">
         <v>-0.004070194064138617</v>
@@ -11390,13 +11390,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U144">
-        <v>0.9999142596859761</v>
+        <v>-8.574031402386328E-05</v>
       </c>
       <c r="V144">
-        <v>0.9999142385454859</v>
+        <v>-8.576145451411055E-05</v>
       </c>
       <c r="W144">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11431,7 +11431,7 @@
         <v>0.7065425503567806</v>
       </c>
       <c r="K145">
-        <v>41.40198849475311</v>
+        <v>-0.08598011505246889</v>
       </c>
       <c r="L145">
         <v>-0.00486145298634673</v>
@@ -11461,13 +11461,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U145">
-        <v>0.9999142523339443</v>
+        <v>-8.574766605573547E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998927889872847</v>
+        <v>-0.0001072110127152692</v>
       </c>
       <c r="W145">
-        <v>0.9996780424983903</v>
+        <v>-0.0003219575016096821</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11502,7 +11502,7 @@
         <v>0.7065425503567806</v>
       </c>
       <c r="K146">
-        <v>41.40198849475311</v>
+        <v>-0.08598011505246889</v>
       </c>
       <c r="L146">
         <v>-0.005657283699022203</v>
@@ -11532,13 +11532,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U146">
-        <v>0.9999356837354886</v>
+        <v>-6.431626451142147E-05</v>
       </c>
       <c r="V146">
-        <v>0.9999142219934809</v>
+        <v>-8.577800651909939E-05</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11573,7 +11573,7 @@
         <v>0.6667075232820102</v>
       </c>
       <c r="K147">
-        <v>40.00147080209717</v>
+        <v>-0.09998529197902828</v>
       </c>
       <c r="L147">
         <v>-0.006501723011214484</v>
@@ -11603,13 +11603,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U147">
-        <v>0.9999142394648542</v>
+        <v>-8.576053514575133E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999142146349833</v>
+        <v>-8.578536501668843E-05</v>
       </c>
       <c r="W147">
-        <v>0.9996779388083735</v>
+        <v>-0.0003220611916264771</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11644,7 +11644,7 @@
         <v>0.78540273116707</v>
       </c>
       <c r="K148">
-        <v>43.99022794446344</v>
+        <v>-0.06009772055536561</v>
       </c>
       <c r="L148">
         <v>-0.007064050858098705</v>
@@ -11674,13 +11674,13 @@
         <v>-0.0449999999999946</v>
       </c>
       <c r="U148">
-        <v>0.9999463950683463</v>
+        <v>-5.360493165373903E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W148">
-        <v>1.000644329896907</v>
+        <v>0.0006443298969072142</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11715,7 +11715,7 @@
         <v>0.6981715545307885</v>
       </c>
       <c r="K149">
-        <v>41.1131344573544</v>
+        <v>-0.088868655426456</v>
       </c>
       <c r="L149">
         <v>-0.007628131232294559</v>
@@ -11745,13 +11745,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U149">
-        <v>0.9999249490725851</v>
+        <v>-7.505092741488806E-05</v>
       </c>
       <c r="V149">
-        <v>0.999892759094029</v>
+        <v>-0.0001072409059710289</v>
       </c>
       <c r="W149">
-        <v>0.9993560849967804</v>
+        <v>-0.0006439150032195862</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11786,7 +11786,7 @@
         <v>0.6981715545307886</v>
       </c>
       <c r="K150">
-        <v>41.11313445735441</v>
+        <v>-0.08886865542645589</v>
       </c>
       <c r="L150">
         <v>-0.008129634385358877</v>
@@ -11816,13 +11816,13 @@
         <v>-0.05125000000000313</v>
       </c>
       <c r="U150">
-        <v>0.9999142210737377</v>
+        <v>-8.577892626226991E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998498466290567</v>
+        <v>-0.0001501533709432623</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11857,7 +11857,7 @@
         <v>0.5602724678017782</v>
       </c>
       <c r="K151">
-        <v>35.90863002223769</v>
+        <v>-0.1409136997776231</v>
       </c>
       <c r="L151">
         <v>-0.009000188603098513</v>
@@ -11887,13 +11887,13 @@
         <v>-0.05500000000000682</v>
       </c>
       <c r="U151">
-        <v>0.9998927671438529</v>
+        <v>-0.0001072328561471103</v>
       </c>
       <c r="V151">
-        <v>0.9996781944563632</v>
+        <v>-0.0003218055436368106</v>
       </c>
       <c r="W151">
-        <v>0.9987113402061856</v>
+        <v>-0.001288659793814428</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11928,7 +11928,7 @@
         <v>0.7162050596450402</v>
       </c>
       <c r="K152">
-        <v>41.73190468236772</v>
+        <v>-0.08268095317632279</v>
       </c>
       <c r="L152">
         <v>-0.009654916776256038</v>
@@ -11958,13 +11958,13 @@
         <v>-0.04750000000000654</v>
       </c>
       <c r="U152">
-        <v>0.999924928950614</v>
+        <v>-7.507104938597742E-05</v>
       </c>
       <c r="V152">
-        <v>0.999742472691375</v>
+        <v>-0.0002575273086250496</v>
       </c>
       <c r="W152">
-        <v>1.000967741935484</v>
+        <v>0.000967741935483879</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11999,7 +11999,7 @@
         <v>0.9350578201267985</v>
       </c>
       <c r="K153">
-        <v>48.32195763874007</v>
+        <v>-0.01678042361259935</v>
       </c>
       <c r="L153">
         <v>-0.009633555845302897</v>
@@ -12029,13 +12029,13 @@
         <v>-0.03249999999999176</v>
       </c>
       <c r="U153">
-        <v>0.999967824277655</v>
+        <v>-3.217572234504029E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999356015884941</v>
+        <v>-6.439841150585046E-05</v>
       </c>
       <c r="W153">
-        <v>1.001289075088624</v>
+        <v>0.001289075088623859</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12070,7 +12070,7 @@
         <v>1.107836315243986</v>
       </c>
       <c r="K154">
-        <v>52.557985989332</v>
+        <v>0.02557985989332001</v>
       </c>
       <c r="L154">
         <v>-0.008817346285940579</v>
@@ -12100,13 +12100,13 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="U154">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V154">
-        <v>1.000042935039286</v>
+        <v>4.293503928565201E-05</v>
       </c>
       <c r="W154">
-        <v>1.000965561635018</v>
+        <v>0.0009655616350177088</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12141,7 +12141,7 @@
         <v>1.107836315243986</v>
       </c>
       <c r="K155">
-        <v>52.557985989332</v>
+        <v>0.02557985989332001</v>
       </c>
       <c r="L155">
         <v>-0.007539300899390452</v>
@@ -12171,13 +12171,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V155">
-        <v>1.000021466597974</v>
+        <v>2.146659797364059E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12212,7 +12212,7 @@
         <v>1.171651087217078</v>
       </c>
       <c r="K156">
-        <v>53.95208715220097</v>
+        <v>0.03952087152200978</v>
       </c>
       <c r="L156">
         <v>-0.005918148695347693</v>
@@ -12242,13 +12242,13 @@
         <v>0.002500000000004832</v>
       </c>
       <c r="U156">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V156">
-        <v>1.000042932274337</v>
+        <v>4.293227433715963E-05</v>
       </c>
       <c r="W156">
-        <v>1.00032154340836</v>
+        <v>0.0003215434083601032</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12283,7 +12283,7 @@
         <v>1.032886059137022</v>
       </c>
       <c r="K157">
-        <v>50.80885150914416</v>
+        <v>0.008088515091441595</v>
       </c>
       <c r="L157">
         <v>-0.004405131526721666</v>
@@ -12313,13 +12313,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U157">
-        <v>1.000010725585885</v>
+        <v>1.072558588521844E-05</v>
       </c>
       <c r="V157">
-        <v>1.000085860862473</v>
+        <v>8.5860862472531E-05</v>
       </c>
       <c r="W157">
-        <v>0.9993571198971392</v>
+        <v>-0.0006428801028608433</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12354,7 +12354,7 @@
         <v>0.9183912353263811</v>
       </c>
       <c r="K158">
-        <v>47.8729895349075</v>
+        <v>-0.02127010465092494</v>
       </c>
       <c r="L158">
         <v>-0.003272349032605219</v>
@@ -12384,13 +12384,13 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="U158">
-        <v>0.9999570981166073</v>
+        <v>-4.290188339273193E-05</v>
       </c>
       <c r="V158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W158">
-        <v>0.9993567063364426</v>
+        <v>-0.0006432936635574205</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12425,7 +12425,7 @@
         <v>0.8677643025140725</v>
       </c>
       <c r="K159">
-        <v>46.46005394503113</v>
+        <v>-0.03539946054968868</v>
       </c>
       <c r="L159">
         <v>-0.002547405009304095</v>
@@ -12455,13 +12455,13 @@
         <v>0.03625000000000256</v>
       </c>
       <c r="U159">
-        <v>0.9999570962759569</v>
+        <v>-4.29037240431418E-05</v>
       </c>
       <c r="V159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W159">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12496,7 +12496,7 @@
         <v>0.9838183460928622</v>
       </c>
       <c r="K160">
-        <v>49.59215888039831</v>
+        <v>-0.004078411196016929</v>
       </c>
       <c r="L160">
         <v>-0.001872121375606379</v>
@@ -12526,13 +12526,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U160">
-        <v>0.9999785472175741</v>
+        <v>-2.145278242593474E-05</v>
       </c>
       <c r="V160">
-        <v>1.000064390118263</v>
+        <v>6.439011826309127E-05</v>
       </c>
       <c r="W160">
-        <v>1.00064391500322</v>
+        <v>0.0006439150032195862</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12567,7 +12567,7 @@
         <v>0.9271848954298156</v>
       </c>
       <c r="K161">
-        <v>48.1108427960685</v>
+        <v>-0.01889157203931502</v>
       </c>
       <c r="L161">
         <v>-0.001380323009596065</v>
@@ -12597,13 +12597,13 @@
         <v>0.04374999999999574</v>
       </c>
       <c r="U161">
-        <v>0.9999785467573423</v>
+        <v>-2.145324265767634E-05</v>
       </c>
       <c r="V161">
-        <v>1.000042923981629</v>
+        <v>4.292398162863975E-05</v>
       </c>
       <c r="W161">
-        <v>0.9996782496782497</v>
+        <v>-0.0003217503217503026</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12638,7 +12638,7 @@
         <v>0.9271848954298156</v>
       </c>
       <c r="K162">
-        <v>48.1108427960685</v>
+        <v>-0.01889157203931502</v>
       </c>
       <c r="L162">
         <v>-0.001026004684385997</v>
@@ -12668,13 +12668,13 @@
         <v>0.03375000000000483</v>
       </c>
       <c r="U162">
-        <v>0.9999892731485456</v>
+        <v>-1.072685145442343E-05</v>
       </c>
       <c r="V162">
-        <v>1.000064383208859</v>
+        <v>6.438320885893134E-05</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12709,7 +12709,7 @@
         <v>0.8715914178460481</v>
       </c>
       <c r="K163">
-        <v>46.5695348640321</v>
+        <v>-0.03430465135967897</v>
       </c>
       <c r="L163">
         <v>-0.0008910101846527049</v>
@@ -12739,13 +12739,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W163">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12780,7 +12780,7 @@
         <v>1.060936985412833</v>
       </c>
       <c r="K164">
-        <v>51.47838060659157</v>
+        <v>0.01478380606591567</v>
       </c>
       <c r="L164">
         <v>-0.0005426820944514907</v>
@@ -12810,13 +12810,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V164">
-        <v>1.000107298439881</v>
+        <v>0.0001072984398808874</v>
       </c>
       <c r="W164">
-        <v>1.000965872504829</v>
+        <v>0.0009658725048293793</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12851,7 +12851,7 @@
         <v>1.193811067915831</v>
       </c>
       <c r="K165">
-        <v>54.41722331403761</v>
+        <v>0.0441722331403761</v>
       </c>
       <c r="L165">
         <v>0.0001490538215945205</v>
@@ -12881,13 +12881,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V165">
-        <v>1.000150201699425</v>
+        <v>0.0001502016994248123</v>
       </c>
       <c r="W165">
-        <v>1.000643293663557</v>
+        <v>0.0006432936635574205</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12922,7 +12922,7 @@
         <v>1.193811067915832</v>
       </c>
       <c r="K166">
-        <v>54.41722331403761</v>
+        <v>0.0441722331403761</v>
       </c>
       <c r="L166">
         <v>0.001004209839497726</v>
@@ -12952,13 +12952,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U166">
-        <v>0.9999570921339154</v>
+        <v>-4.290786608462938E-05</v>
       </c>
       <c r="V166">
-        <v>1.000235995794984</v>
+        <v>0.0002359957949840119</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12993,7 +12993,7 @@
         <v>1.11195510433004</v>
       </c>
       <c r="K167">
-        <v>52.65050862351438</v>
+        <v>0.0265050862351438</v>
       </c>
       <c r="L167">
         <v>0.001783011187084513</v>
@@ -13023,13 +13023,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U167">
-        <v>0.9999463628659393</v>
+        <v>-5.363713406070225E-05</v>
       </c>
       <c r="V167">
-        <v>1.000150143708979</v>
+        <v>0.0001501437089788116</v>
       </c>
       <c r="W167">
-        <v>0.9996785599485697</v>
+        <v>-0.0003214400514303106</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13064,7 +13064,7 @@
         <v>1.11195510433004</v>
       </c>
       <c r="K168">
-        <v>52.65050862351438</v>
+        <v>0.0265050862351438</v>
       </c>
       <c r="L168">
         <v>0.00245941135736034</v>
@@ -13094,13 +13094,13 @@
         <v>0.003750000000003695</v>
       </c>
       <c r="U168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V168">
-        <v>1.000064337643956</v>
+        <v>6.433764395552544E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13135,7 +13135,7 @@
         <v>1.033440072447486</v>
       </c>
       <c r="K169">
-        <v>50.82225369954564</v>
+        <v>0.008222536995456386</v>
       </c>
       <c r="L169">
         <v>0.002904509301340651</v>
@@ -13165,13 +13165,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U169">
-        <v>1.000010728002231</v>
+        <v>1.072800223145265E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999785554983702</v>
+        <v>-2.144450162977485E-05</v>
       </c>
       <c r="W169">
-        <v>0.9996784565916398</v>
+        <v>-0.0003215434083602142</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13206,7 +13206,7 @@
         <v>0.9619425352832586</v>
       </c>
       <c r="K170">
-        <v>49.03010755839374</v>
+        <v>-0.009698924416062626</v>
       </c>
       <c r="L170">
         <v>0.003053350376321674</v>
@@ -13236,13 +13236,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U170">
-        <v>0.9999892721128575</v>
+        <v>-1.072788714251427E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999571100769874</v>
+        <v>-4.288992301260119E-05</v>
       </c>
       <c r="W170">
-        <v>0.9996783531682213</v>
+        <v>-0.0003216468317787102</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13277,7 +13277,7 @@
         <v>0.8966441701081795</v>
       </c>
       <c r="K171">
-        <v>47.2752972982295</v>
+        <v>-0.02724702701770498</v>
       </c>
       <c r="L171">
         <v>0.00288494102373119</v>
@@ -13307,13 +13307,13 @@
         <v>0.0175000000000054</v>
       </c>
       <c r="U171">
-        <v>0.9999785439955371</v>
+        <v>-2.14560044629053E-05</v>
       </c>
       <c r="V171">
-        <v>0.999914216474726</v>
+        <v>-8.578352527399691E-05</v>
       </c>
       <c r="W171">
-        <v>0.9996782496782497</v>
+        <v>-0.0003217503217503026</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13348,7 +13348,7 @@
         <v>0.8368476417281334</v>
       </c>
       <c r="K172">
-        <v>45.55890334708516</v>
+        <v>-0.04441096652914839</v>
       </c>
       <c r="L172">
         <v>0.002407408608099029</v>
@@ -13378,13 +13378,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U172">
-        <v>1.000010728232416</v>
+        <v>1.072823241643484E-05</v>
       </c>
       <c r="V172">
-        <v>0.999935656836461</v>
+        <v>-6.43431635389824E-05</v>
       </c>
       <c r="W172">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13419,7 +13419,7 @@
         <v>0.7819550158824728</v>
       </c>
       <c r="K173">
-        <v>43.88186059204347</v>
+        <v>-0.06118139407956524</v>
       </c>
       <c r="L173">
         <v>0.001647120770793966</v>
@@ -13449,13 +13449,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U173">
-        <v>0.9999785437653546</v>
+        <v>-2.145623464544499E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999571017974348</v>
+        <v>-4.289820256520027E-05</v>
       </c>
       <c r="W173">
-        <v>0.9996780424983903</v>
+        <v>-0.0003219575016096821</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13490,7 +13490,7 @@
         <v>0.7819550158824727</v>
       </c>
       <c r="K174">
-        <v>43.88186059204347</v>
+        <v>-0.06118139407956535</v>
       </c>
       <c r="L174">
         <v>0.0007580021245699895</v>
@@ -13520,13 +13520,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U174">
-        <v>0.9999892716524872</v>
+        <v>-1.072834751281171E-05</v>
       </c>
       <c r="V174">
-        <v>0.9999785499785501</v>
+        <v>-2.145002144993136E-05</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13561,7 +13561,7 @@
         <v>0.8546359330408378</v>
       </c>
       <c r="K175">
-        <v>46.08106193864084</v>
+        <v>-0.03918938061359162</v>
       </c>
       <c r="L175">
         <v>-3.80998921581982E-05</v>
@@ -13591,13 +13591,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U175">
-        <v>1.000010728462611</v>
+        <v>1.072846261140903E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999570990368734</v>
+        <v>-4.290096312664637E-05</v>
       </c>
       <c r="W175">
-        <v>1.000322061191626</v>
+        <v>0.000322061191626366</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13632,7 +13632,7 @@
         <v>0.8546359330408378</v>
       </c>
       <c r="K176">
-        <v>46.08106193864084</v>
+        <v>-0.03918938061359162</v>
       </c>
       <c r="L176">
         <v>-0.0007269929906308418</v>
@@ -13662,13 +13662,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U176">
-        <v>1.000010728347513</v>
+        <v>1.072834751258966E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999785485981509</v>
+        <v>-2.145140184905969E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13703,7 +13703,7 @@
         <v>0.935168805238501</v>
       </c>
       <c r="K177">
-        <v>48.32492145940962</v>
+        <v>-0.01675078540590386</v>
       </c>
       <c r="L177">
         <v>-0.001187234272795429</v>
@@ -13733,13 +13733,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U177">
-        <v>1.000032184697249</v>
+        <v>3.218469724930451E-05</v>
       </c>
       <c r="V177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W177">
-        <v>1.00032195750161</v>
+        <v>0.0003219575016097931</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13774,7 +13774,7 @@
         <v>0.9351688052385011</v>
       </c>
       <c r="K178">
-        <v>48.32492145940962</v>
+        <v>-0.01675078540590386</v>
       </c>
       <c r="L178">
         <v>-0.001475307465338443</v>
@@ -13804,13 +13804,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U178">
-        <v>1.000010727887143</v>
+        <v>1.072788714262529E-05</v>
       </c>
       <c r="V178">
-        <v>1.000021451862022</v>
+        <v>2.145186202162641E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13845,7 +13845,7 @@
         <v>0.858557094678765</v>
       </c>
       <c r="K179">
-        <v>46.19481947242299</v>
+        <v>-0.03805180527577012</v>
       </c>
       <c r="L179">
         <v>-0.001752521965750155</v>
@@ -13875,13 +13875,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U179">
-        <v>1.000021455544113</v>
+        <v>2.14555441127029E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999356457944527</v>
+        <v>-6.43542055472901E-05</v>
       </c>
       <c r="W179">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13916,7 +13916,7 @@
         <v>0.7322640951341775</v>
       </c>
       <c r="K180">
-        <v>42.27208179116926</v>
+        <v>-0.07727918208830742</v>
       </c>
       <c r="L180">
         <v>-0.00223346699983987</v>
@@ -13946,13 +13946,13 @@
         <v>-0.03249999999999176</v>
       </c>
       <c r="U180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V180">
-        <v>0.9998498305230189</v>
+        <v>-0.0001501694769810991</v>
       </c>
       <c r="W180">
-        <v>0.9993560849967804</v>
+        <v>-0.0006439150032195862</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13987,7 +13987,7 @@
         <v>1.041946468839001</v>
       </c>
       <c r="K181">
-        <v>51.02711969875612</v>
+        <v>0.01027119698756129</v>
       </c>
       <c r="L181">
         <v>-0.002330375870396125</v>
@@ -14017,13 +14017,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U181">
-        <v>1.000085820335128</v>
+        <v>8.582033512838372E-05</v>
       </c>
       <c r="V181">
-        <v>0.9999356319866115</v>
+        <v>-6.436801338849385E-05</v>
       </c>
       <c r="W181">
-        <v>1.001288659793814</v>
+        <v>0.001288659793814428</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14058,7 +14058,7 @@
         <v>0.9634312877612762</v>
       </c>
       <c r="K182">
-        <v>49.068754978423</v>
+        <v>-0.009312450215769985</v>
       </c>
       <c r="L182">
         <v>-0.002297129955665057</v>
@@ -14088,13 +14088,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U182">
-        <v>1.000042906485315</v>
+        <v>4.290648531513064E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999356278431035</v>
+        <v>-6.437215689647502E-05</v>
       </c>
       <c r="W182">
-        <v>0.9996782496782497</v>
+        <v>-0.0003217503217503026</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14129,7 +14129,7 @@
         <v>0.8926277424349872</v>
       </c>
       <c r="K183">
-        <v>47.16340791277657</v>
+        <v>-0.02836592087223427</v>
       </c>
       <c r="L183">
         <v>-0.002295964047789512</v>
@@ -14159,13 +14159,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U183">
-        <v>0.999989273838893</v>
+        <v>-1.072616110697755E-05</v>
       </c>
       <c r="V183">
-        <v>0.999914164932083</v>
+        <v>-8.583506791703943E-05</v>
       </c>
       <c r="W183">
-        <v>0.9996781461216607</v>
+        <v>-0.0003218538783392733</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14200,7 +14200,7 @@
         <v>0.7730266574501262</v>
       </c>
       <c r="K184">
-        <v>43.59926875334477</v>
+        <v>-0.06400731246655228</v>
       </c>
       <c r="L184">
         <v>-0.002540321472843817</v>
@@ -14230,13 +14230,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U184">
-        <v>0.9999356423430479</v>
+        <v>-6.43576569521187E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998926969547395</v>
+        <v>-0.0001073030452605206</v>
       </c>
       <c r="W184">
-        <v>0.9993560849967804</v>
+        <v>-0.0006439150032195862</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14271,7 +14271,7 @@
         <v>0.7730266574501261</v>
       </c>
       <c r="K185">
-        <v>43.59926875334477</v>
+        <v>-0.06400731246655228</v>
       </c>
       <c r="L185">
         <v>-0.002908626531081986</v>
@@ -14301,13 +14301,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U185">
-        <v>0.9999356382008732</v>
+        <v>-6.436179912683304E-05</v>
       </c>
       <c r="V185">
-        <v>0.9999141483516485</v>
+        <v>-8.585164835150927E-05</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14342,7 +14342,7 @@
         <v>0.7730266574501261</v>
       </c>
       <c r="K186">
-        <v>43.59926875334477</v>
+        <v>-0.06400731246655228</v>
       </c>
       <c r="L186">
         <v>-0.00331798660527668</v>
@@ -14372,13 +14372,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U186">
-        <v>0.9999249064011928</v>
+        <v>-7.509359880719657E-05</v>
       </c>
       <c r="V186">
-        <v>0.9999356057353825</v>
+        <v>-6.439426461746223E-05</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14413,7 +14413,7 @@
         <v>0.6262292101794182</v>
       </c>
       <c r="K187">
-        <v>38.50805324732347</v>
+        <v>-0.1149194675267654</v>
       </c>
       <c r="L187">
         <v>-0.004065661775183141</v>
@@ -14443,13 +14443,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U187">
-        <v>0.9999141722991095</v>
+        <v>-8.582770089049507E-05</v>
       </c>
       <c r="V187">
-        <v>0.9998926693141569</v>
+        <v>-0.0001073306858431211</v>
       </c>
       <c r="W187">
-        <v>0.9990335051546393</v>
+        <v>-0.0009664948453607103</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14484,7 +14484,7 @@
         <v>0.5525895409405815</v>
       </c>
       <c r="K188">
-        <v>35.59147645718485</v>
+        <v>-0.1440852354281514</v>
       </c>
       <c r="L188">
         <v>-0.005190322738040468</v>
@@ -14514,13 +14514,13 @@
         <v>-0.01625000000000654</v>
       </c>
       <c r="U188">
-        <v>0.999914164932083</v>
+        <v>-8.583506791703943E-05</v>
       </c>
       <c r="V188">
-        <v>0.999871189351653</v>
+        <v>-0.0001288106483470219</v>
       </c>
       <c r="W188">
-        <v>0.9993550467591099</v>
+        <v>-0.0006449532408900893</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14555,7 +14555,7 @@
         <v>0.5203827259341309</v>
       </c>
       <c r="K189">
-        <v>34.22708749959028</v>
+        <v>-0.1577291250040972</v>
       </c>
       <c r="L189">
         <v>-0.006570139008709604</v>
@@ -14585,13 +14585,13 @@
         <v>-0.03249999999999176</v>
       </c>
       <c r="U189">
-        <v>0.9999141575637917</v>
+        <v>-8.584243620834986E-05</v>
       </c>
       <c r="V189">
-        <v>0.9998497015502211</v>
+        <v>-0.000150298449778874</v>
       </c>
       <c r="W189">
-        <v>0.9996773152629881</v>
+        <v>-0.0003226847370119135</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14626,7 +14626,7 @@
         <v>0.4903022046012636</v>
       </c>
       <c r="K190">
-        <v>32.89951548668922</v>
+        <v>-0.1710048451331078</v>
       </c>
       <c r="L190">
         <v>-0.008110072676711513</v>
@@ -14656,13 +14656,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U190">
-        <v>0.9998819565170732</v>
+        <v>-0.0001180434829267663</v>
       </c>
       <c r="V190">
-        <v>0.9998067300878304</v>
+        <v>-0.0001932699121696135</v>
       </c>
       <c r="W190">
-        <v>0.9996772111039379</v>
+        <v>-0.0003227888960620762</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14697,7 +14697,7 @@
         <v>0.5511491641334755</v>
       </c>
       <c r="K191">
-        <v>35.53166754542049</v>
+        <v>-0.1446833245457951</v>
       </c>
       <c r="L191">
         <v>-0.009502348237119635</v>
@@ -14727,13 +14727,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U191">
-        <v>0.9999034075664074</v>
+        <v>-9.659243359261271E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998281713132009</v>
+        <v>-0.0001718286867991026</v>
       </c>
       <c r="W191">
-        <v>1.000322893122376</v>
+        <v>0.0003228931223764331</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14768,7 +14768,7 @@
         <v>0.7432974573930693</v>
       </c>
       <c r="K192">
-        <v>42.63744286672671</v>
+        <v>-0.0736255713327329</v>
       </c>
       <c r="L192">
         <v>-0.01033033095135543</v>
@@ -14798,13 +14798,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U192">
-        <v>0.9999355988236051</v>
+        <v>-6.440117639494591E-05</v>
       </c>
       <c r="V192">
-        <v>0.9998711063372717</v>
+        <v>-0.00012889366272828</v>
       </c>
       <c r="W192">
-        <v>1.000968366688186</v>
+        <v>0.0009683666881858954</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14839,7 +14839,7 @@
         <v>0.7432974573930694</v>
       </c>
       <c r="K193">
-        <v>42.63744286672671</v>
+        <v>-0.0736255713327329</v>
       </c>
       <c r="L193">
         <v>-0.01072610628303409</v>
@@ -14869,13 +14869,13 @@
         <v>-0.05874999999999631</v>
       </c>
       <c r="U193">
-        <v>0.9999463288965221</v>
+        <v>-5.36711034778703E-05</v>
       </c>
       <c r="V193">
-        <v>0.9998710897215538</v>
+        <v>-0.0001289102784461926</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14910,7 +14910,7 @@
         <v>0.8142663561038904</v>
       </c>
       <c r="K194">
-        <v>44.88130165476446</v>
+        <v>-0.05118698345235534</v>
       </c>
       <c r="L194">
         <v>-0.01067851021670152</v>
@@ -14940,13 +14940,13 @@
         <v>-0.05749999999999034</v>
       </c>
       <c r="U194">
-        <v>0.9999248564220923</v>
+        <v>-7.514357790772141E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999140487343676</v>
+        <v>-8.595126563237798E-05</v>
       </c>
       <c r="W194">
-        <v>1.000322476620445</v>
+        <v>0.0003224766204450447</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14981,7 +14981,7 @@
         <v>0.7576656245606133</v>
       </c>
       <c r="K195">
-        <v>43.10635731696789</v>
+        <v>-0.06893642683032114</v>
       </c>
       <c r="L195">
         <v>-0.0104436779061511</v>
@@ -15011,13 +15011,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U195">
-        <v>0.9998926439644437</v>
+        <v>-0.0001073560355563385</v>
       </c>
       <c r="V195">
-        <v>0.9999355310095843</v>
+        <v>-6.446899041567811E-05</v>
       </c>
       <c r="W195">
-        <v>0.9996776273372019</v>
+        <v>-0.0003223726627981094</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15052,7 +15052,7 @@
         <v>0.757665624560613</v>
       </c>
       <c r="K196">
-        <v>43.10635731696788</v>
+        <v>-0.0689364268303212</v>
       </c>
       <c r="L196">
         <v>-0.01007234189311102</v>
@@ -15082,13 +15082,13 @@
         <v>-0.04249999999999687</v>
       </c>
       <c r="U196">
-        <v>0.9998926324378878</v>
+        <v>-0.0001073675621121595</v>
       </c>
       <c r="V196">
-        <v>0.9998495626571534</v>
+        <v>-0.0001504373428465877</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15123,7 +15123,7 @@
         <v>0.7034827785542703</v>
       </c>
       <c r="K197">
-        <v>41.29673557083503</v>
+        <v>-0.0870326442916497</v>
       </c>
       <c r="L197">
         <v>-0.00972258108150495</v>
@@ -15153,13 +15153,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U197">
-        <v>0.9998926209088568</v>
+        <v>-0.0001073790911432226</v>
       </c>
       <c r="V197">
-        <v>0.9998495400223539</v>
+        <v>-0.0001504599776460669</v>
       </c>
       <c r="W197">
-        <v>0.999677523379555</v>
+        <v>-0.0003224766204450447</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15194,7 +15194,7 @@
         <v>0.778759487559769</v>
       </c>
       <c r="K198">
-        <v>43.7810447677852</v>
+        <v>-0.06218955232214801</v>
       </c>
       <c r="L198">
         <v>-0.009255499141582076</v>
@@ -15224,13 +15224,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U198">
-        <v>0.9999033484396143</v>
+        <v>-9.665156038574096E-05</v>
       </c>
       <c r="V198">
-        <v>0.999892512414816</v>
+        <v>-0.0001074875851839741</v>
       </c>
       <c r="W198">
-        <v>1.000322580645161</v>
+        <v>0.000322580645161441</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15265,7 +15265,7 @@
         <v>0.5278180008694136</v>
       </c>
       <c r="K199">
-        <v>34.54717777700326</v>
+        <v>-0.1545282222299674</v>
       </c>
       <c r="L199">
         <v>-0.009417293341262787</v>
@@ -15295,13 +15295,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U199">
-        <v>0.9998496385956245</v>
+        <v>-0.0001503614043755208</v>
       </c>
       <c r="V199">
-        <v>0.9998065015479877</v>
+        <v>-0.0001934984520123306</v>
       </c>
       <c r="W199">
-        <v>0.9980651402773298</v>
+        <v>-0.001934859722670157</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15336,7 +15336,7 @@
         <v>0.5843499891529007</v>
       </c>
       <c r="K200">
-        <v>36.88263282441358</v>
+        <v>-0.1311736717558643</v>
       </c>
       <c r="L200">
         <v>-0.009798358397085953</v>
@@ -15366,13 +15366,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U200">
-        <v>0.9998710994145763</v>
+        <v>-0.0001289005854236969</v>
       </c>
       <c r="V200">
-        <v>0.9998279680880803</v>
+        <v>-0.0001720319119197233</v>
       </c>
       <c r="W200">
-        <v>1.00032310177706</v>
+        <v>0.0003231017770597422</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15407,7 +15407,7 @@
         <v>0.5515299028319645</v>
       </c>
       <c r="K201">
-        <v>35.5474877941619</v>
+        <v>-0.144525122058381</v>
       </c>
       <c r="L201">
         <v>-0.01036978871147698</v>
@@ -15437,13 +15437,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U201">
-        <v>0.9998710827970736</v>
+        <v>-0.0001289172029264041</v>
       </c>
       <c r="V201">
-        <v>0.9998064307990107</v>
+        <v>-0.0001935692009893408</v>
       </c>
       <c r="W201">
-        <v>0.9996770025839793</v>
+        <v>-0.0003229974160207094</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15478,7 +15478,7 @@
         <v>0.5207429656572592</v>
       </c>
       <c r="K202">
-        <v>34.24266805220408</v>
+        <v>-0.1575733194779592</v>
       </c>
       <c r="L202">
         <v>-0.01109989950502592</v>
@@ -15508,13 +15508,13 @@
         <v>-0.0175000000000054</v>
       </c>
       <c r="U202">
-        <v>0.9998710661752854</v>
+        <v>-0.0001289338247145722</v>
       </c>
       <c r="V202">
-        <v>0.9998494170287829</v>
+        <v>-0.0001505829712170614</v>
       </c>
       <c r="W202">
-        <v>0.9996768982229403</v>
+        <v>-0.0003231017770597422</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15549,7 +15549,7 @@
         <v>0.4918428124301408</v>
       </c>
       <c r="K203">
-        <v>32.96880933648447</v>
+        <v>-0.1703119066351553</v>
       </c>
       <c r="L203">
         <v>-0.01195676676747049</v>
@@ -15579,13 +15579,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U203">
-        <v>0.9998710495492109</v>
+        <v>-0.0001289504507890893</v>
       </c>
       <c r="V203">
-        <v>0.9998709094429743</v>
+        <v>-0.0001290905570257017</v>
       </c>
       <c r="W203">
-        <v>0.9996767937944409</v>
+        <v>-0.0003232062055591456</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15620,7 +15620,7 @@
         <v>0.608680545936078</v>
       </c>
       <c r="K204">
-        <v>37.83725410702296</v>
+        <v>-0.1216274589297704</v>
       </c>
       <c r="L204">
         <v>-0.01255775824696974</v>
@@ -15650,13 +15650,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U204">
-        <v>0.9998925274323729</v>
+        <v>-0.0001074725676271093</v>
       </c>
       <c r="V204">
-        <v>0.9999354463882254</v>
+        <v>-6.455361177459817E-05</v>
       </c>
       <c r="W204">
-        <v>1.000646621403168</v>
+        <v>0.0006466214031684014</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15691,7 +15691,7 @@
         <v>0.5420191848098482</v>
       </c>
       <c r="K205">
-        <v>35.1499637714745</v>
+        <v>-0.148500362285255</v>
       </c>
       <c r="L205">
         <v>-0.01315460008342194</v>
@@ -15721,13 +15721,13 @@
         <v>-0.0487500000000054</v>
       </c>
       <c r="U205">
-        <v>0.9998602706450122</v>
+        <v>-0.0001397293549878498</v>
       </c>
       <c r="V205">
-        <v>0.9999139229610501</v>
+        <v>-8.607703894991658E-05</v>
       </c>
       <c r="W205">
-        <v>0.9993537964458805</v>
+        <v>-0.0006462035541194844</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15762,7 +15762,7 @@
         <v>0.4859929867285162</v>
       </c>
       <c r="K206">
-        <v>32.70493138722362</v>
+        <v>-0.1729506861277638</v>
       </c>
       <c r="L206">
         <v>-0.01389800030658718</v>
@@ -15792,13 +15792,13 @@
         <v>-0.06625000000000369</v>
       </c>
       <c r="U206">
-        <v>0.9998387512899897</v>
+        <v>-0.000161248710010331</v>
       </c>
       <c r="V206">
-        <v>0.9998493522145224</v>
+        <v>-0.0001506477854775756</v>
       </c>
       <c r="W206">
-        <v>0.9993533785968316</v>
+        <v>-0.0006466214031684014</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15833,7 +15833,7 @@
         <v>0.5403959921954451</v>
       </c>
       <c r="K207">
-        <v>35.08162803158474</v>
+        <v>-0.1491837196841526</v>
       </c>
       <c r="L207">
         <v>-0.01451505708689792</v>
@@ -15863,13 +15863,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U207">
-        <v>0.9998387252846498</v>
+        <v>-0.0001612747153502125</v>
       </c>
       <c r="V207">
-        <v>0.9998062808067328</v>
+        <v>-0.0001937191932671611</v>
       </c>
       <c r="W207">
-        <v>1.000323519896474</v>
+        <v>0.0003235198964737229</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15904,7 +15904,7 @@
         <v>0.4396804614639743</v>
       </c>
       <c r="K208">
-        <v>30.54014229080211</v>
+        <v>-0.1945985770919789</v>
       </c>
       <c r="L208">
         <v>-0.01543334816539062</v>
@@ -15934,13 +15934,13 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="U208">
-        <v>0.9997956857431664</v>
+        <v>-0.0002043142568336487</v>
       </c>
       <c r="V208">
-        <v>0.9997201291711519</v>
+        <v>-0.0002798708288480611</v>
       </c>
       <c r="W208">
-        <v>0.9987063389391978</v>
+        <v>-0.001293661060802198</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15975,7 +15975,7 @@
         <v>0.5377718145360729</v>
       </c>
       <c r="K209">
-        <v>34.97084609385381</v>
+        <v>-0.1502915390614619</v>
       </c>
       <c r="L209">
         <v>-0.01618489884569396</v>
@@ -16005,13 +16005,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U209">
-        <v>0.9998279107286905</v>
+        <v>-0.0001720892713095168</v>
       </c>
       <c r="V209">
-        <v>0.999741585373732</v>
+        <v>-0.0002584146262679665</v>
       </c>
       <c r="W209">
-        <v>1.000647668393782</v>
+        <v>0.0006476683937823857</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16046,7 +16046,7 @@
         <v>0.5113712373798949</v>
       </c>
       <c r="K210">
-        <v>33.83491922649033</v>
+        <v>-0.1616508077350967</v>
       </c>
       <c r="L210">
         <v>-0.01684631307354681</v>
@@ -16076,13 +16076,13 @@
         <v>-0.06500000000000483</v>
       </c>
       <c r="U210">
-        <v>0.9998386385395712</v>
+        <v>-0.0001613614604287772</v>
       </c>
       <c r="V210">
-        <v>0.9997415185783524</v>
+        <v>-0.0002584814216476383</v>
       </c>
       <c r="W210">
-        <v>0.9996763754045308</v>
+        <v>-0.0003236245954691963</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16117,7 +16117,7 @@
         <v>0.614723925140255</v>
       </c>
       <c r="K211">
-        <v>38.06990876702716</v>
+        <v>-0.1193009123297284</v>
       </c>
       <c r="L211">
         <v>-0.01711488209716657</v>
@@ -16147,13 +16147,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U211">
-        <v>0.9998170941642278</v>
+        <v>-0.0001829058357721847</v>
       </c>
       <c r="V211">
-        <v>0.9997845431236937</v>
+        <v>-0.0002154568763063081</v>
       </c>
       <c r="W211">
-        <v>1.000647458724506</v>
+        <v>0.0006474587245062224</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16188,7 +16188,7 @@
         <v>0.58301040296215</v>
       </c>
       <c r="K212">
-        <v>36.82922120228732</v>
+        <v>-0.1317077879771268</v>
       </c>
       <c r="L212">
         <v>-0.01718360401000745</v>
@@ -16218,13 +16218,13 @@
         <v>-0.05624999999999147</v>
       </c>
       <c r="U212">
-        <v>0.9998170607035631</v>
+        <v>-0.0001829392964368681</v>
       </c>
       <c r="V212">
-        <v>0.9997844966920242</v>
+        <v>-0.0002155033079758173</v>
       </c>
       <c r="W212">
-        <v>0.9996764801035263</v>
+        <v>-0.0003235198964737229</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16259,7 +16259,7 @@
         <v>0.8002308725685771</v>
       </c>
       <c r="K213">
-        <v>44.45156922716274</v>
+        <v>-0.05548430772837259</v>
       </c>
       <c r="L213">
         <v>-0.01659424795525239</v>
@@ -16289,13 +16289,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U213">
-        <v>0.9998708427510493</v>
+        <v>-0.0001291572489506843</v>
       </c>
       <c r="V213">
-        <v>0.9998491151682366</v>
+        <v>-0.0001508848317633982</v>
       </c>
       <c r="W213">
-        <v>1.001294498381877</v>
+        <v>0.001294498381877007</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16330,7 +16330,7 @@
         <v>0.8002308725685769</v>
       </c>
       <c r="K214">
-        <v>44.45156922716274</v>
+        <v>-0.05548430772837259</v>
       </c>
       <c r="L214">
         <v>-0.0155831413387179</v>
@@ -16360,13 +16360,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U214">
-        <v>0.999892355056083</v>
+        <v>-0.000107644943917018</v>
       </c>
       <c r="V214">
-        <v>0.9999784417712242</v>
+        <v>-2.155822877580871E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16401,7 +16401,7 @@
         <v>0.714272625905826</v>
       </c>
       <c r="K215">
-        <v>41.66622129478399</v>
+        <v>-0.08333778705216005</v>
       </c>
       <c r="L215">
         <v>-0.01455920495581458</v>
@@ -16431,13 +16431,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U215">
-        <v>0.9998708121608819</v>
+        <v>-0.0001291878391180834</v>
       </c>
       <c r="V215">
-        <v>0.9999137652258272</v>
+        <v>-8.623477417279979E-05</v>
       </c>
       <c r="W215">
-        <v>0.9993535875888817</v>
+        <v>-0.0006464124111182912</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16472,7 +16472,7 @@
         <v>0.5825372691145052</v>
       </c>
       <c r="K216">
-        <v>36.81033492755964</v>
+        <v>-0.1318966507244037</v>
       </c>
       <c r="L216">
         <v>-0.01401010115389871</v>
@@ -16502,13 +16502,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U216">
-        <v>0.9998277272923037</v>
+        <v>-0.0001722727076962638</v>
       </c>
       <c r="V216">
-        <v>0.9998490761303119</v>
+        <v>-0.0001509238696880688</v>
       </c>
       <c r="W216">
-        <v>0.9987063389391978</v>
+        <v>-0.001293661060802198</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16543,7 +16543,7 @@
         <v>0.5825372691145051</v>
       </c>
       <c r="K217">
-        <v>36.81033492755964</v>
+        <v>-0.1318966507244037</v>
       </c>
       <c r="L217">
         <v>-0.01373285526383728</v>
@@ -16573,13 +16573,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U217">
-        <v>0.9998600043075598</v>
+        <v>-0.0001399956924401646</v>
       </c>
       <c r="V217">
-        <v>0.9998706171561651</v>
+        <v>-0.0001293828438349021</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16614,7 +16614,7 @@
         <v>0.6336267092825061</v>
       </c>
       <c r="K218">
-        <v>38.78650524517911</v>
+        <v>-0.1121349475482089</v>
       </c>
       <c r="L218">
         <v>-0.01347051109736563</v>
@@ -16644,13 +16644,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U218">
-        <v>0.999892295927709</v>
+        <v>-0.0001077040722909928</v>
       </c>
       <c r="V218">
-        <v>0.9999137336093861</v>
+        <v>-8.62663906139316E-05</v>
       </c>
       <c r="W218">
-        <v>1.000323834196891</v>
+        <v>0.0003238341968911929</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16685,7 +16685,7 @@
         <v>0.794961783497227</v>
       </c>
       <c r="K219">
-        <v>44.28850746606746</v>
+        <v>-0.05711492533932544</v>
       </c>
       <c r="L219">
         <v>-0.01283201019075822</v>
@@ -16715,13 +16715,13 @@
         <v>-0.002499999999990621</v>
       </c>
       <c r="U219">
-        <v>0.9999353705957753</v>
+        <v>-6.462940422469199E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999352946251401</v>
+        <v>-6.470537485991912E-05</v>
       </c>
       <c r="W219">
-        <v>1.00097118808676</v>
+        <v>0.0009711880867595557</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16756,7 +16756,7 @@
         <v>0.9081793794373754</v>
       </c>
       <c r="K220">
-        <v>47.5940254477098</v>
+        <v>-0.02405974552290202</v>
       </c>
       <c r="L220">
         <v>-0.01172416800368219</v>
@@ -16786,13 +16786,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U220">
-        <v>0.999967683209273</v>
+        <v>-3.23167907270161E-05</v>
       </c>
       <c r="V220">
-        <v>1.000021569853972</v>
+        <v>2.156985397205879E-05</v>
       </c>
       <c r="W220">
-        <v>1.000646830530401</v>
+        <v>0.0006468305304010435</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16827,7 +16827,7 @@
         <v>0.9081793794373755</v>
       </c>
       <c r="K221">
-        <v>47.5940254477098</v>
+        <v>-0.02405974552290202</v>
       </c>
       <c r="L221">
         <v>-0.01035971462992505</v>
@@ -16857,13 +16857,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U221">
-        <v>0.9999569095531519</v>
+        <v>-4.309044684813745E-05</v>
       </c>
       <c r="V221">
-        <v>1.000064708166171</v>
+        <v>6.470816617065722E-05</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16898,7 +16898,7 @@
         <v>0.9081793794373754</v>
       </c>
       <c r="K222">
-        <v>47.5940254477098</v>
+        <v>-0.02405974552290202</v>
       </c>
       <c r="L222">
         <v>-0.008888901180337958</v>
@@ -16928,13 +16928,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U222">
-        <v>0.9999245884684996</v>
+        <v>-7.541153150036894E-05</v>
       </c>
       <c r="V222">
-        <v>1.000043135986196</v>
+        <v>4.313598619631875E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16969,7 +16969,7 @@
         <v>0.9081793794373753</v>
       </c>
       <c r="K223">
-        <v>47.5940254477098</v>
+        <v>-0.02405974552290202</v>
       </c>
       <c r="L223">
         <v>-0.007414932096327211</v>
@@ -16999,13 +16999,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U223">
-        <v>0.9999245827811715</v>
+        <v>-7.541721882853292E-05</v>
       </c>
       <c r="V223">
-        <v>1.00012940237669</v>
+        <v>0.0001294023766902352</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17040,7 +17040,7 @@
         <v>0.8491619819868695</v>
       </c>
       <c r="K224">
-        <v>45.92144929750666</v>
+        <v>-0.04078550702493339</v>
       </c>
       <c r="L224">
         <v>-0.00612363753100359</v>
@@ -17070,13 +17070,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U224">
-        <v>0.9999030276909816</v>
+        <v>-9.697230901839493E-05</v>
       </c>
       <c r="V224">
-        <v>1.000064692816941</v>
+        <v>6.469281694099216E-05</v>
       </c>
       <c r="W224">
-        <v>0.9996767937944409</v>
+        <v>-0.0003232062055591456</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17111,7 +17111,7 @@
         <v>1.054375547732556</v>
       </c>
       <c r="K225">
-        <v>51.32340817122194</v>
+        <v>0.0132340817122194</v>
       </c>
       <c r="L225">
         <v>-0.004649868844958105</v>
@@ -17141,13 +17141,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U225">
-        <v>0.999946121270245</v>
+        <v>-5.387872975504138E-05</v>
       </c>
       <c r="V225">
-        <v>1.000150940141452</v>
+        <v>0.0001509401414523381</v>
       </c>
       <c r="W225">
-        <v>1.000969932104753</v>
+        <v>0.0009699321047527132</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17182,7 +17182,7 @@
         <v>0.921649277793638</v>
       </c>
       <c r="K226">
-        <v>47.96136779193336</v>
+        <v>-0.02038632208066637</v>
       </c>
       <c r="L226">
         <v>-0.003377916579140023</v>
@@ -17212,13 +17212,13 @@
         <v>0.03125</v>
       </c>
       <c r="U226">
-        <v>0.9999245657140393</v>
+        <v>-7.543428596068491E-05</v>
       </c>
       <c r="V226">
-        <v>1.000064678869413</v>
+        <v>6.467886941341483E-05</v>
       </c>
       <c r="W226">
-        <v>0.9993540051679587</v>
+        <v>-0.0006459948320413078</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17253,7 +17253,7 @@
         <v>1.186662751207451</v>
       </c>
       <c r="K227">
-        <v>54.26821079529473</v>
+        <v>0.04268210795294736</v>
       </c>
       <c r="L227">
         <v>-0.001826112756162067</v>
@@ -17283,13 +17283,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U227">
-        <v>0.9999784457209367</v>
+        <v>-2.155427906325169E-05</v>
       </c>
       <c r="V227">
-        <v>1.000172465830208</v>
+        <v>0.0001724658302075799</v>
       </c>
       <c r="W227">
-        <v>1.001292824822237</v>
+        <v>0.001292824822236582</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17324,7 +17324,7 @@
         <v>1.186662751207451</v>
       </c>
       <c r="K228">
-        <v>54.26821079529473</v>
+        <v>0.04268210795294736</v>
       </c>
       <c r="L228">
         <v>-0.0001969887284601208</v>
@@ -17354,13 +17354,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U228">
-        <v>0.9999676678845097</v>
+        <v>-3.233211549025228E-05</v>
       </c>
       <c r="V228">
-        <v>1.000086218045437</v>
+        <v>8.621804543684775E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17395,7 +17395,7 @@
         <v>1.105506486945155</v>
       </c>
       <c r="K229">
-        <v>52.50548947721914</v>
+        <v>0.02505489477219147</v>
       </c>
       <c r="L229">
         <v>0.001258126831140272</v>
@@ -17425,13 +17425,13 @@
         <v>0.04125000000000512</v>
       </c>
       <c r="U229">
-        <v>1.000021555440593</v>
+        <v>2.155544059312398E-05</v>
       </c>
       <c r="V229">
-        <v>1.000064657959395</v>
+        <v>6.465795939480934E-05</v>
       </c>
       <c r="W229">
-        <v>0.9996772111039379</v>
+        <v>-0.0003227888960620762</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17466,7 +17466,7 @@
         <v>0.9663690104865933</v>
       </c>
       <c r="K230">
-        <v>49.14484541471988</v>
+        <v>-0.008551545852801157</v>
       </c>
       <c r="L230">
         <v>0.002275021156028263</v>
@@ -17496,13 +17496,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U230">
-        <v>0.9999892225120169</v>
+        <v>-1.077748798306022E-05</v>
       </c>
       <c r="V230">
-        <v>1.000064653779013</v>
+        <v>6.465377901343494E-05</v>
       </c>
       <c r="W230">
-        <v>0.999354213755247</v>
+        <v>-0.0006457862447529772</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17537,7 +17537,7 @@
         <v>0.9663690104865933</v>
       </c>
       <c r="K231">
-        <v>49.14484541471988</v>
+        <v>-0.008551545852801157</v>
       </c>
       <c r="L231">
         <v>0.002953313763222379</v>
@@ -17567,13 +17567,13 @@
         <v>0.04124999999999801</v>
       </c>
       <c r="U231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V231">
-        <v>1.000150849064736</v>
+        <v>0.0001508490647359473</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17608,7 +17608,7 @@
         <v>0.9663690104865934</v>
       </c>
       <c r="K232">
-        <v>49.14484541471989</v>
+        <v>-0.008551545852801101</v>
       </c>
       <c r="L232">
         <v>0.003372480239774761</v>
@@ -17638,13 +17638,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U232">
-        <v>1.000010777604139</v>
+        <v>1.077760413870088E-05</v>
       </c>
       <c r="V232">
-        <v>1.000150826312728</v>
+        <v>0.0001508263127276699</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17679,7 +17679,7 @@
         <v>0.9663690104865935</v>
       </c>
       <c r="K233">
-        <v>49.1448454147199</v>
+        <v>-0.008551545852801046</v>
       </c>
       <c r="L233">
         <v>0.003595664389522443</v>
@@ -17709,13 +17709,13 @@
         <v>0.02624999999999034</v>
       </c>
       <c r="U233">
-        <v>1.000021554975966</v>
+        <v>2.155497596612044E-05</v>
       </c>
       <c r="V233">
-        <v>1.000129260200784</v>
+        <v>0.000129260200784076</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17750,7 +17750,7 @@
         <v>0.897061451279124</v>
       </c>
       <c r="K234">
-        <v>47.286894722059</v>
+        <v>-0.02713105277940997</v>
       </c>
       <c r="L234">
         <v>0.003555094082766158</v>
@@ -17780,13 +17780,13 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="U234">
-        <v>0.9999892227443203</v>
+        <v>-1.077725567966148E-05</v>
       </c>
       <c r="V234">
-        <v>1.000043081164915</v>
+        <v>4.30811649148044E-05</v>
       </c>
       <c r="W234">
-        <v>0.9996768982229403</v>
+        <v>-0.0003231017770597422</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17821,7 +17821,7 @@
         <v>0.8970614512791238</v>
       </c>
       <c r="K235">
-        <v>47.286894722059</v>
+        <v>-0.02713105277941003</v>
       </c>
       <c r="L235">
         <v>0.003344390873946444</v>
@@ -17851,13 +17851,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U235">
-        <v>1.00001077737183</v>
+        <v>1.077737183008409E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17892,7 +17892,7 @@
         <v>0.9765291066166965</v>
       </c>
       <c r="K236">
-        <v>49.40625985965166</v>
+        <v>-0.005937401403483367</v>
       </c>
       <c r="L236">
         <v>0.003149578833281903</v>
@@ -17922,13 +17922,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U236">
-        <v>1.000043109022719</v>
+        <v>4.310902271864592E-05</v>
       </c>
       <c r="V236">
-        <v>1.000021539654504</v>
+        <v>2.153965450379935E-05</v>
       </c>
       <c r="W236">
-        <v>1.000323206205559</v>
+        <v>0.0003232062055591456</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17963,7 +17963,7 @@
         <v>0.9011479345425949</v>
       </c>
       <c r="K237">
-        <v>47.40020059298572</v>
+        <v>-0.0259979940701428</v>
       </c>
       <c r="L237">
         <v>0.002847642284097234</v>
@@ -17993,13 +17993,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U237">
-        <v>1.000021553582205</v>
+        <v>2.155358220523595E-05</v>
       </c>
       <c r="V237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W237">
-        <v>0.9996768982229403</v>
+        <v>-0.0003231017770597422</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18034,7 +18034,7 @@
         <v>0.8334271858513643</v>
       </c>
       <c r="K238">
-        <v>45.45733761792982</v>
+        <v>-0.04542662382070178</v>
       </c>
       <c r="L238">
         <v>0.00237199658824072</v>
@@ -18064,13 +18064,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U238">
-        <v>1.000053882794146</v>
+        <v>5.388279414608732E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999784608094429</v>
+        <v>-2.153919055714049E-05</v>
       </c>
       <c r="W238">
-        <v>0.9996767937944409</v>
+        <v>-0.0003232062055591456</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18105,7 +18105,7 @@
         <v>0.7195825272787251</v>
       </c>
       <c r="K239">
-        <v>41.846350254412</v>
+        <v>-0.08153649745587999</v>
       </c>
       <c r="L239">
         <v>0.001577423960854821</v>
@@ -18135,13 +18135,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U239">
-        <v>1.000010775978189</v>
+        <v>1.077597818932574E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999569206909922</v>
+        <v>-4.307930900782075E-05</v>
       </c>
       <c r="W239">
-        <v>0.9993533785968316</v>
+        <v>-0.0006466214031684014</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18176,7 +18176,7 @@
         <v>0.719582527278725</v>
       </c>
       <c r="K240">
-        <v>41.846350254412</v>
+        <v>-0.08153649745587999</v>
       </c>
       <c r="L240">
         <v>0.0006345466970782232</v>
@@ -18206,13 +18206,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U240">
-        <v>1.000021551724138</v>
+        <v>2.155172413798034E-05</v>
       </c>
       <c r="V240">
-        <v>0.9998922970877132</v>
+        <v>-0.000107702912286789</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18247,7 +18247,7 @@
         <v>0.870937880391674</v>
       </c>
       <c r="K241">
-        <v>46.55087106416094</v>
+        <v>-0.03449128935839058</v>
       </c>
       <c r="L241">
         <v>-0.0001050325140608587</v>
@@ -18277,13 +18277,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U241">
-        <v>1.000021551259671</v>
+        <v>2.155125967107097E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999784570973093</v>
+        <v>-2.154290269074099E-05</v>
       </c>
       <c r="W241">
-        <v>1.000647039792947</v>
+        <v>0.0006470397929472238</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18318,7 +18318,7 @@
         <v>1.030259304721094</v>
       </c>
       <c r="K242">
-        <v>50.74520788183879</v>
+        <v>0.007452078818387942</v>
       </c>
       <c r="L242">
         <v>-0.0004385771440859879</v>
@@ -18348,13 +18348,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U242">
-        <v>1.000053876988061</v>
+        <v>5.387698806091912E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999353698996079</v>
+        <v>-6.4630100392149E-05</v>
       </c>
       <c r="W242">
-        <v>1.000646621403168</v>
+        <v>0.0006466214031684014</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18389,7 +18389,7 @@
         <v>0.9505522818554305</v>
       </c>
       <c r="K243">
-        <v>48.73246878321218</v>
+        <v>-0.01267531216787815</v>
       </c>
       <c r="L243">
         <v>-0.0006209752097253076</v>
@@ -18419,13 +18419,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V243">
-        <v>0.9999138209630508</v>
+        <v>-8.617903694918549E-05</v>
       </c>
       <c r="W243">
-        <v>0.9996768982229403</v>
+        <v>-0.0003231017770597422</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18460,7 +18460,7 @@
         <v>1.031990157687079</v>
       </c>
       <c r="K244">
-        <v>50.78716320465578</v>
+        <v>0.00787163204655783</v>
       </c>
       <c r="L244">
         <v>-0.000580233039146714</v>
@@ -18490,13 +18490,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U244">
-        <v>1.000010774817097</v>
+        <v>1.077481709743644E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999569067677919</v>
+        <v>-4.309323220808015E-05</v>
       </c>
       <c r="W244">
-        <v>1.000323206205559</v>
+        <v>0.0003232062055591456</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Storebrand 15.12.2020.xlsx
+++ b/data_clean/Storebrand 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1169,13 +1172,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W244"/>
+  <dimension ref="A1:X244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,10 +1248,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>61.88</v>
@@ -1305,7 +1311,7 @@
         <v>61.88</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>61.88</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1316,10 +1322,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>61.92</v>
@@ -1376,7 +1385,7 @@
         <v>61.90000000000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1387,10 +1396,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>61.84</v>
@@ -1447,21 +1459,24 @@
         <v>61.88</v>
       </c>
       <c r="T4">
+        <v>61.88</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0003231017770598532</v>
       </c>
       <c r="V4">
         <v>-0.0003231017770598532</v>
       </c>
       <c r="W4">
+        <v>-0.0003231017770598532</v>
+      </c>
+      <c r="X4">
         <v>-0.001291989664082616</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>61.86</v>
@@ -1518,21 +1533,24 @@
         <v>61.875</v>
       </c>
       <c r="T5">
+        <v>61.87333333333333</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-8.08015513897864E-05</v>
       </c>
       <c r="V5">
         <v>-8.08015513897864E-05</v>
       </c>
       <c r="W5">
+        <v>-8.08015513897864E-05</v>
+      </c>
+      <c r="X5">
         <v>0.0003234152652005218</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>61.94</v>
@@ -1589,21 +1607,24 @@
         <v>61.888</v>
       </c>
       <c r="T6">
+        <v>61.88</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0002101010101009937</v>
       </c>
       <c r="V6">
         <v>0.0002101010101009937</v>
       </c>
       <c r="W6">
+        <v>0.0002101010101009937</v>
+      </c>
+      <c r="X6">
         <v>0.001293242806336803</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>61.9</v>
@@ -1660,21 +1681,24 @@
         <v>61.89000000000001</v>
       </c>
       <c r="T7">
+        <v>61.9</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3.231644260615063E-05</v>
       </c>
       <c r="V7">
         <v>3.231644260615063E-05</v>
       </c>
       <c r="W7">
+        <v>3.231644260615063E-05</v>
+      </c>
+      <c r="X7">
         <v>-0.0006457862447529772</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>61.96</v>
@@ -1731,21 +1755,24 @@
         <v>61.9</v>
       </c>
       <c r="T8">
+        <v>61.93333333333334</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.000161576991436263</v>
       </c>
       <c r="V8">
         <v>0.000161576991436263</v>
       </c>
       <c r="W8">
+        <v>0.000161576991436263</v>
+      </c>
+      <c r="X8">
         <v>0.0009693053311794486</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>62.14</v>
@@ -1802,21 +1829,24 @@
         <v>61.93</v>
       </c>
       <c r="T9">
+        <v>62</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0004846526655897243</v>
       </c>
       <c r="V9">
         <v>0.0004846526655897243</v>
       </c>
       <c r="W9">
+        <v>0.0004846526655897243</v>
+      </c>
+      <c r="X9">
         <v>0.002905100064557686</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>62.02</v>
@@ -1873,21 +1903,24 @@
         <v>61.94</v>
       </c>
       <c r="T10">
+        <v>62.04</v>
+      </c>
+      <c r="U10">
         <v>0.007500000000000284</v>
-      </c>
-      <c r="U10">
-        <v>0.0001614726303891256</v>
       </c>
       <c r="V10">
         <v>0.0001614726303891256</v>
       </c>
       <c r="W10">
+        <v>0.0001614726303891256</v>
+      </c>
+      <c r="X10">
         <v>-0.001931123270035418</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>61.96</v>
@@ -1944,21 +1977,24 @@
         <v>61.94199999999999</v>
       </c>
       <c r="T11">
+        <v>62.04</v>
+      </c>
+      <c r="U11">
         <v>0.0105000000000075</v>
-      </c>
-      <c r="U11">
-        <v>3.228931223753229E-05</v>
       </c>
       <c r="V11">
         <v>3.228931223753229E-05</v>
       </c>
       <c r="W11">
+        <v>3.228931223753229E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.000967429861335134</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>62.06</v>
@@ -2015,21 +2051,24 @@
         <v>61.95272727272727</v>
       </c>
       <c r="T12">
+        <v>62.01333333333334</v>
+      </c>
+      <c r="U12">
         <v>0.02727272727273089</v>
-      </c>
-      <c r="U12">
-        <v>0.0001731825373296747</v>
       </c>
       <c r="V12">
         <v>0.0001731825373296747</v>
       </c>
       <c r="W12">
+        <v>0.0001731825373296747</v>
+      </c>
+      <c r="X12">
         <v>0.001613944480309826</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>62</v>
@@ -2086,21 +2125,24 @@
         <v>61.95666666666667</v>
       </c>
       <c r="T13">
+        <v>62.00666666666667</v>
+      </c>
+      <c r="U13">
         <v>0.04083333333333172</v>
-      </c>
-      <c r="U13">
-        <v>6.358709475451363E-05</v>
       </c>
       <c r="V13">
         <v>6.358709475451363E-05</v>
       </c>
       <c r="W13">
+        <v>6.358709475451363E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0009668063164679497</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>61.96</v>
@@ -2157,21 +2199,24 @@
         <v>61.95692307692308</v>
       </c>
       <c r="T14">
+        <v>62.00666666666666</v>
+      </c>
+      <c r="U14">
         <v>0.04307692307691724</v>
-      </c>
-      <c r="U14">
-        <v>4.138541826126385E-06</v>
       </c>
       <c r="V14">
         <v>4.138541826126385E-06</v>
       </c>
       <c r="W14">
+        <v>4.138541826126385E-06</v>
+      </c>
+      <c r="X14">
         <v>-0.000645161290322549</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>62</v>
@@ -2228,21 +2273,24 @@
         <v>61.96</v>
       </c>
       <c r="T15">
+        <v>61.98666666666666</v>
+      </c>
+      <c r="U15">
         <v>0.05250000000000199</v>
-      </c>
-      <c r="U15">
-        <v>4.966229638458941E-05</v>
       </c>
       <c r="V15">
         <v>4.966229638458941E-05</v>
       </c>
       <c r="W15">
+        <v>4.966229638458941E-05</v>
+      </c>
+      <c r="X15">
         <v>0.0006455777921239303</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>61.96</v>
@@ -2299,21 +2347,24 @@
         <v>61.96</v>
       </c>
       <c r="T16">
+        <v>61.97333333333333</v>
+      </c>
+      <c r="U16">
         <v>0.05250000000000199</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>-0.000645161290322549</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>61.9</v>
@@ -2370,21 +2421,24 @@
         <v>61.96133333333334</v>
       </c>
       <c r="T17">
+        <v>61.95333333333334</v>
+      </c>
+      <c r="U17">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-6.052291801172949E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2.151925973747915E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.0009683666881860065</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>61.94</v>
@@ -2441,21 +2495,24 @@
         <v>61.96266666666667</v>
       </c>
       <c r="T18">
+        <v>61.93333333333334</v>
+      </c>
+      <c r="U18">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-1.542834424195227E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2.151879666900669E-05</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0006462035541194844</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>61.98</v>
@@ -2512,21 +2569,24 @@
         <v>61.972</v>
       </c>
       <c r="T19">
+        <v>61.94</v>
+      </c>
+      <c r="U19">
         <v>0.01124999999999687</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2.215386173465284E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0001506283353416293</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0006457862447528662</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>62.06</v>
@@ -2583,21 +2643,24 @@
         <v>61.98533333333333</v>
       </c>
       <c r="T20">
+        <v>61.99333333333333</v>
+      </c>
+      <c r="U20">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>8.778065031300741E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0002151509283760955</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.001290738948047876</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>62.16</v>
@@ -2654,21 +2717,24 @@
         <v>62</v>
       </c>
       <c r="T21">
+        <v>62.06666666666666</v>
+      </c>
+      <c r="U21">
         <v>-0.001250000000005969</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001596901331883949</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0002366151132526806</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.001611343860779879</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>62.16</v>
@@ -2725,21 +2791,24 @@
         <v>62.01733333333333</v>
       </c>
       <c r="T22">
+        <v>62.12666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001444584804810578</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0002795698924731305</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>62.32</v>
@@ -2796,21 +2865,24 @@
         <v>62.04133333333333</v>
       </c>
       <c r="T23">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U23">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0002486450243059934</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0003869885838367892</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.002574002574002643</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>62.26</v>
@@ -2867,21 +2939,24 @@
         <v>62.04933333333333</v>
       </c>
       <c r="T24">
+        <v>62.24666666666667</v>
+      </c>
+      <c r="U24">
         <v>0.04249999999999687</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001848890793034741</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001289462938685038</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.0009627727856226231</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>62.24</v>
@@ -2938,21 +3013,24 @@
         <v>62.06399999999999</v>
       </c>
       <c r="T25">
+        <v>62.27333333333333</v>
+      </c>
+      <c r="U25">
         <v>0.07875000000000654</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001560111626863758</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0002363710595869595</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.0003212335367811514</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>62.32</v>
@@ -3009,21 +3087,24 @@
         <v>62.088</v>
       </c>
       <c r="T26">
+        <v>62.27333333333333</v>
+      </c>
+      <c r="U26">
         <v>0.1075000000000017</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001951062200185039</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0003866976024748947</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001285347043701757</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>62.3</v>
@@ -3080,21 +3161,24 @@
         <v>62.104</v>
       </c>
       <c r="T27">
+        <v>62.28666666666667</v>
+      </c>
+      <c r="U27">
         <v>0.1262499999999989</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001676618904522531</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0002576987501610173</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.0003209242618742447</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>62.32</v>
@@ -3151,21 +3235,24 @@
         <v>62.12533333333333</v>
       </c>
       <c r="T28">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U28">
         <v>0.1424999999999983</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001671561955249867</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0003435098114989987</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0003210272873195308</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>62.32</v>
@@ -3222,21 +3309,24 @@
         <v>62.14933333333332</v>
       </c>
       <c r="T29">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.1425000000000054</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001551905262153763</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0003863158346566475</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>62.3</v>
@@ -3293,21 +3383,24 @@
         <v>62.16933333333333</v>
       </c>
       <c r="T30">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U30">
         <v>0.1387500000000017</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.000133352595374836</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0003218055436369216</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0003209242618742447</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>62.34</v>
@@ -3364,21 +3457,24 @@
         <v>62.19466666666667</v>
       </c>
       <c r="T31">
+        <v>62.32</v>
+      </c>
+      <c r="U31">
         <v>0.1199999999999974</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.0001459275473429944</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0004074892229823934</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.0006420545746388395</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>62.36</v>
@@ -3435,21 +3531,24 @@
         <v>62.22533333333332</v>
       </c>
       <c r="T32">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U32">
         <v>0.1075000000000017</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0002577430301988759</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0004930755048662139</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.0003208213025345241</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>62.42</v>
@@ -3506,21 +3605,24 @@
         <v>62.25733333333334</v>
       </c>
       <c r="T33">
+        <v>62.37333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.09750000000000369</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0002684131415073843</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0005142600012857379</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0009621552277101486</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>62.36</v>
@@ -3577,21 +3679,24 @@
         <v>62.28266666666666</v>
       </c>
       <c r="T34">
+        <v>62.38</v>
+      </c>
+      <c r="U34">
         <v>0.0762499999999946</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002790747598346854</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0004069132418134114</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.000961230374879829</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>62.36</v>
@@ -3648,21 +3753,24 @@
         <v>62.30266666666667</v>
       </c>
       <c r="T35">
+        <v>62.38</v>
+      </c>
+      <c r="U35">
         <v>0.05999999999999517</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0002682662488866505</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0003211166295600254</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>62.34</v>
@@ -3719,21 +3827,24 @@
         <v>62.31466666666666</v>
       </c>
       <c r="T36">
+        <v>62.35333333333333</v>
+      </c>
+      <c r="U36">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0002145554411259187</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0001926081280627656</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.0003207184092366422</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>62.38</v>
@@ -3790,21 +3901,24 @@
         <v>62.32933333333333</v>
       </c>
       <c r="T37">
+        <v>62.36000000000001</v>
+      </c>
+      <c r="U37">
         <v>0.03875000000000739</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0002574113003559475</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.0002353646011641342</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0006416426050690482</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>62.32</v>
@@ -3861,21 +3975,24 @@
         <v>62.32933333333334</v>
       </c>
       <c r="T38">
+        <v>62.34666666666666</v>
+      </c>
+      <c r="U38">
         <v>0.03125</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0001930087926227397</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0009618467457518376</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>62.3</v>
@@ -3932,21 +4049,24 @@
         <v>62.332</v>
       </c>
       <c r="T39">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U39">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>8.576513218550019E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>4.278349412789595E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0003209242618742447</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>62.34</v>
@@ -4003,21 +4123,24 @@
         <v>62.33866666666667</v>
       </c>
       <c r="T40">
+        <v>62.32</v>
+      </c>
+      <c r="U40">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0001715155543167146</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0001069541594471701</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0006420545746388395</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>62.38</v>
@@ -4074,21 +4197,24 @@
         <v>62.34266666666667</v>
       </c>
       <c r="T41">
+        <v>62.34</v>
+      </c>
+      <c r="U41">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0002250755610813115</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>6.416563288702548E-05</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.0006416426050690482</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>62.38</v>
@@ -4145,21 +4271,24 @@
         <v>62.348</v>
       </c>
       <c r="T42">
+        <v>62.36666666666667</v>
+      </c>
+      <c r="U42">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001714475531220394</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>8.554868789700798E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>62.42</v>
@@ -4216,21 +4345,24 @@
         <v>62.35466666666667</v>
       </c>
       <c r="T43">
+        <v>62.39333333333334</v>
+      </c>
+      <c r="U43">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0002249863401151408</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0001069267124313988</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0006412311638346324</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>62.3</v>
@@ -4287,21 +4419,24 @@
         <v>62.35333333333334</v>
       </c>
       <c r="T44">
+        <v>62.36666666666667</v>
+      </c>
+      <c r="U44">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001820908311911396</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-2.138305606624868E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.001922460749759769</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>62.32</v>
@@ -4358,21 +4493,24 @@
         <v>62.35466666666666</v>
       </c>
       <c r="T45">
+        <v>62.34666666666667</v>
+      </c>
+      <c r="U45">
         <v>-0.006250000000008527</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0001713484048533331</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>2.138351331093524E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.0003210272873195308</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>62.38</v>
@@ -4429,21 +4567,24 @@
         <v>62.35733333333334</v>
       </c>
       <c r="T46">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U46">
         <v>-0.003750000000003695</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0002248562526099285</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>4.276611213294146E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0009627727856227342</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>62.4</v>
@@ -4500,21 +4641,24 @@
         <v>62.36000000000001</v>
       </c>
       <c r="T47">
+        <v>62.36666666666667</v>
+      </c>
+      <c r="U47">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0002676258376690388</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>4.276428327076864E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0003206155819173162</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>62.36</v>
@@ -4571,21 +4715,24 @@
         <v>62.356</v>
       </c>
       <c r="T48">
+        <v>62.38</v>
+      </c>
+      <c r="U48">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0002247455559241107</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-6.414368184737285E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0006410256410256387</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>62.3</v>
@@ -4642,21 +4789,24 @@
         <v>62.352</v>
       </c>
       <c r="T49">
+        <v>62.35333333333333</v>
+      </c>
+      <c r="U49">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0001711962336827799</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-6.414779652330616E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0009621552277101486</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>62.28</v>
@@ -4713,21 +4863,24 @@
         <v>62.34666666666666</v>
       </c>
       <c r="T50">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0001176772647524249</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-8.553588230264531E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.0003210272873193087</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>62.36</v>
@@ -4784,21 +4937,24 @@
         <v>62.348</v>
       </c>
       <c r="T51">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U51">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.0001069667440392053</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>2.138579982902122E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.001284521515735326</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>62.38</v>
@@ -4855,21 +5011,24 @@
         <v>62.348</v>
       </c>
       <c r="T52">
+        <v>62.34</v>
+      </c>
+      <c r="U52">
         <v>-0.002500000000004832</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>0.0001176508337166204</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0003207184092366422</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>62.36</v>
@@ -4926,21 +5085,24 @@
         <v>62.35066666666667</v>
       </c>
       <c r="T53">
+        <v>62.36666666666667</v>
+      </c>
+      <c r="U53">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>2.138854429567516E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>4.277068497260395E-05</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0003206155819173162</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>62.34</v>
@@ -4997,21 +5159,24 @@
         <v>62.35333333333334</v>
       </c>
       <c r="T54">
+        <v>62.36000000000001</v>
+      </c>
+      <c r="U54">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>4.277617367121067E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>4.276885571941058E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.0003207184092366422</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>62.34</v>
@@ -5068,21 +5233,24 @@
         <v>62.35333333333334</v>
       </c>
       <c r="T55">
+        <v>62.34666666666667</v>
+      </c>
+      <c r="U55">
         <v>-0.01250000000000995</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>5.346792993554672E-05</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>62.34</v>
@@ -5139,21 +5307,24 @@
         <v>62.35066666666667</v>
       </c>
       <c r="T56">
+        <v>62.34</v>
+      </c>
+      <c r="U56">
         <v>-0.01499999999999346</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>1.069301425382641E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-4.276702662253662E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>62.34</v>
@@ -5210,21 +5381,24 @@
         <v>62.348</v>
       </c>
       <c r="T57">
+        <v>62.34</v>
+      </c>
+      <c r="U57">
         <v>-0.007500000000000284</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>2.138579982879918E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-4.276885571929956E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>62.28</v>
@@ -5281,21 +5455,24 @@
         <v>62.33866666666666</v>
       </c>
       <c r="T58">
+        <v>62.32</v>
+      </c>
+      <c r="U58">
         <v>-0.001249999999991758</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-2.138534248619095E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001496973974038918</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>62.26</v>
@@ -5352,21 +5529,24 @@
         <v>62.336</v>
       </c>
       <c r="T59">
+        <v>62.29333333333333</v>
+      </c>
+      <c r="U59">
         <v>-0.003749999999989484</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-3.207869974353184E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-4.27770885912393E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0003211303789338871</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>62.22</v>
@@ -5423,21 +5603,24 @@
         <v>62.32933333333334</v>
       </c>
       <c r="T60">
+        <v>62.25333333333333</v>
+      </c>
+      <c r="U60">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-4.277297175903083E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.000106947296372284</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.0006424670735624138</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>62.2</v>
@@ -5494,21 +5677,24 @@
         <v>62.31733333333333</v>
       </c>
       <c r="T61">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U61">
         <v>-0.03125</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-7.485590238776041E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0001925257235759759</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>62.22</v>
@@ -5565,21 +5751,24 @@
         <v>62.30533333333333</v>
       </c>
       <c r="T62">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U62">
         <v>-0.03625000000000256</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-7.486150621360821E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0001925627968676347</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0003215434083601032</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>62.2</v>
@@ -5636,21 +5825,24 @@
         <v>62.29466666666666</v>
       </c>
       <c r="T63">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U63">
         <v>-0.04124999999999801</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0001176483170942655</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0001711998972800943</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>62.18</v>
@@ -5707,21 +5899,24 @@
         <v>62.28666666666667</v>
       </c>
       <c r="T64">
+        <v>62.2</v>
+      </c>
+      <c r="U64">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-9.626903987691726E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0001284219087775984</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.0003215434083602142</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>62.2</v>
@@ -5778,21 +5973,24 @@
         <v>62.28133333333334</v>
       </c>
       <c r="T65">
+        <v>62.19333333333334</v>
+      </c>
+      <c r="U65">
         <v>-0.06125000000000114</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-8.558071866404671E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-8.562560205505054E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.0003216468317788213</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>62.16</v>
@@ -5849,21 +6047,24 @@
         <v>62.268</v>
       </c>
       <c r="T66">
+        <v>62.18</v>
+      </c>
+      <c r="U66">
         <v>-0.06875000000000142</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-9.628654876914222E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-0.0002140823360664568</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0006430868167203174</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>62.2</v>
@@ -5920,21 +6121,24 @@
         <v>62.256</v>
       </c>
       <c r="T67">
+        <v>62.18666666666667</v>
+      </c>
+      <c r="U67">
         <v>-0.06625000000000369</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-9.629582076131626E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-0.0001927153594141195</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0006435006435008273</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>62.2</v>
@@ -5991,21 +6195,24 @@
         <v>62.24533333333333</v>
       </c>
       <c r="T68">
+        <v>62.18666666666667</v>
+      </c>
+      <c r="U68">
         <v>-0.05750000000000455</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-6.420339635970773E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-0.0001713355606955957</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>62.18</v>
@@ -6062,21 +6269,24 @@
         <v>62.23466666666666</v>
       </c>
       <c r="T69">
+        <v>62.19333333333334</v>
+      </c>
+      <c r="U69">
         <v>-0.04874999999999829</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-6.420751870050978E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-0.0001713649216006363</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>-0.0003215434083602142</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>62.2</v>
@@ -6133,21 +6343,24 @@
         <v>62.22533333333333</v>
       </c>
       <c r="T70">
+        <v>62.19333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-7.491358183220331E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0001499700059987008</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0003216468317788213</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>62.18</v>
@@ -6204,21 +6417,24 @@
         <v>62.21466666666667</v>
       </c>
       <c r="T71">
+        <v>62.18666666666667</v>
+      </c>
+      <c r="U71">
         <v>-0.03499999999999659</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-0.0001070274204252319</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0001714200004285793</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0003215434083602142</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>62.22</v>
@@ -6275,21 +6491,24 @@
         <v>62.20666666666667</v>
       </c>
       <c r="T72">
+        <v>62.2</v>
+      </c>
+      <c r="U72">
         <v>-0.02250000000000085</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-8.563110121595496E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.000128587042712236</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0006432936635574205</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>62.22</v>
@@ -6346,21 +6565,24 @@
         <v>62.20266666666667</v>
       </c>
       <c r="T73">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U73">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001070480431617504</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-6.430178973315659E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>62.24</v>
@@ -6417,21 +6639,24 @@
         <v>62.20133333333334</v>
       </c>
       <c r="T74">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U74">
         <v>-7.105427357601002E-15</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-3.211785110157628E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-2.143530823972561E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0003214400514304216</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>62.26</v>
@@ -6488,21 +6713,24 @@
         <v>62.204</v>
       </c>
       <c r="T75">
+        <v>62.24</v>
+      </c>
+      <c r="U75">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-3.21188826911678E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>4.287153544391131E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.0003213367609253837</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>62.3</v>
@@ -6559,21 +6787,24 @@
         <v>62.21066666666666</v>
       </c>
       <c r="T76">
+        <v>62.26666666666666</v>
+      </c>
+      <c r="U76">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-4.282655246246048E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0001071742438856216</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0006424670735625249</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>62.3</v>
@@ -6630,21 +6861,24 @@
         <v>62.216</v>
       </c>
       <c r="T77">
+        <v>62.28666666666666</v>
+      </c>
+      <c r="U77">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-5.353548331832325E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>8.573020703850354E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>62.34</v>
@@ -6701,21 +6935,24 @@
         <v>62.22533333333333</v>
       </c>
       <c r="T78">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U78">
         <v>0.03374999999999773</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-1.070766990407535E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.0001500150015001367</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0006420545746388395</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>62.32</v>
@@ -6772,21 +7009,24 @@
         <v>62.23466666666666</v>
       </c>
       <c r="T79">
+        <v>62.31999999999999</v>
+      </c>
+      <c r="U79">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1.070778455947163E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001499925003749514</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0003208213025345241</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>62.36</v>
@@ -6843,21 +7083,24 @@
         <v>62.24533333333333</v>
       </c>
       <c r="T80">
+        <v>62.34</v>
+      </c>
+      <c r="U80">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>4.283067961585729E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.0001713942925700707</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0006418485237484894</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>62.32</v>
@@ -6914,21 +7157,24 @@
         <v>62.256</v>
       </c>
       <c r="T81">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U81">
         <v>0.05499999999999972</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-2.141442261371918E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0001713649216006363</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.0006414368184733954</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>62.3</v>
@@ -6985,21 +7231,24 @@
         <v>62.26266666666667</v>
       </c>
       <c r="T82">
+        <v>62.32666666666666</v>
+      </c>
+      <c r="U82">
         <v>0.05374999999999375</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-4.282976240188585E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001070847254347473</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.0003209242618742447</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>62.32</v>
@@ -7056,21 +7305,24 @@
         <v>62.27066666666666</v>
       </c>
       <c r="T83">
+        <v>62.31333333333333</v>
+      </c>
+      <c r="U83">
         <v>0.05375000000000085</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-2.141579843439878E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0001284879114289428</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0003210272873195308</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>62.36</v>
@@ -7127,21 +7379,24 @@
         <v>62.28266666666666</v>
       </c>
       <c r="T84">
+        <v>62.32666666666668</v>
+      </c>
+      <c r="U84">
         <v>0.05125000000000313</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>1.070812854031544E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0001927071066099018</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0006418485237484894</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>62.38</v>
@@ -7198,21 +7453,24 @@
         <v>62.29466666666666</v>
       </c>
       <c r="T85">
+        <v>62.35333333333333</v>
+      </c>
+      <c r="U85">
         <v>0.04874999999999829</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>2.141602775540541E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0001926699777359264</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0003207184092366422</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>62.44</v>
@@ -7269,21 +7527,24 @@
         <v>62.312</v>
       </c>
       <c r="T86">
+        <v>62.39333333333334</v>
+      </c>
+      <c r="U86">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>5.353892279669203E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.0002782474690183889</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0009618467457517266</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>62.44</v>
@@ -7340,21 +7601,24 @@
         <v>62.32666666666667</v>
       </c>
       <c r="T87">
+        <v>62.41999999999999</v>
+      </c>
+      <c r="U87">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>5.35360565341314E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0002353746736849516</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>62.4</v>
@@ -7411,21 +7675,24 @@
         <v>62.33866666666666</v>
       </c>
       <c r="T88">
+        <v>62.42666666666667</v>
+      </c>
+      <c r="U88">
         <v>0.03875000000000739</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>6.423982869385725E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0001925339608512822</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0006406149903908087</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>62.44</v>
@@ -7482,21 +7749,24 @@
         <v>62.352</v>
       </c>
       <c r="T89">
+        <v>62.42666666666667</v>
+      </c>
+      <c r="U89">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>9.635355330472883E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.0002138854429567516</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0006410256410256387</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>62.38</v>
@@ -7553,21 +7823,24 @@
         <v>62.36</v>
       </c>
       <c r="T90">
+        <v>62.40666666666667</v>
+      </c>
+      <c r="U90">
         <v>0.04125000000000512</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>8.563935128202971E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.000128303823454079</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.000960922485586102</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>62.34</v>
@@ -7624,21 +7897,24 @@
         <v>62.36266666666667</v>
       </c>
       <c r="T91">
+        <v>62.38666666666666</v>
+      </c>
+      <c r="U91">
         <v>0.03875000000000028</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>7.492801558495188E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>4.276245456491523E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0006412311638345214</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>62.32</v>
@@ -7695,21 +7971,24 @@
         <v>62.364</v>
       </c>
       <c r="T92">
+        <v>62.34666666666667</v>
+      </c>
+      <c r="U92">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>5.351600128444822E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>2.138031300780163E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0003208213025345241</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>62.34</v>
@@ -7766,21 +8045,24 @@
         <v>62.364</v>
       </c>
       <c r="T93">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U93">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>7.49183924653174E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0003209242618742447</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>62.24</v>
@@ -7837,21 +8119,24 @@
         <v>62.35866666666666</v>
       </c>
       <c r="T94">
+        <v>62.3</v>
+      </c>
+      <c r="U94">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>3.210547719434409E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-8.551942359913411E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.00160410651267251</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>62.28</v>
@@ -7908,21 +8193,24 @@
         <v>62.35333333333333</v>
       </c>
       <c r="T95">
+        <v>62.28666666666667</v>
+      </c>
+      <c r="U95">
         <v>-0.01124999999999687</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>4.280592862127008E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-8.552673779638198E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0006426735218509894</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>62.2</v>
@@ -7979,21 +8267,24 @@
         <v>62.34533333333334</v>
       </c>
       <c r="T96">
+        <v>62.24</v>
+      </c>
+      <c r="U96">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>2.14020481759114E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-0.0001283010798673878</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.001284521515735326</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>62.26</v>
@@ -8050,21 +8341,24 @@
         <v>62.34266666666667</v>
       </c>
       <c r="T97">
+        <v>62.24666666666667</v>
+      </c>
+      <c r="U97">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>3.21023852072333E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-4.277251438233876E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0009646302250803096</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>62.28</v>
@@ -8121,21 +8415,24 @@
         <v>62.34</v>
       </c>
       <c r="T98">
+        <v>62.24666666666667</v>
+      </c>
+      <c r="U98">
         <v>-0.05624999999999858</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>4.280180623617014E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-4.277434394839297E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.0003212335367812624</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>62.26</v>
@@ -8192,21 +8489,24 @@
         <v>62.33333333333334</v>
       </c>
       <c r="T99">
+        <v>62.26666666666667</v>
+      </c>
+      <c r="U99">
         <v>-0.0625</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>4.279997431999583E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0001069404341781377</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0003211303789338871</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>62.26</v>
@@ -8263,21 +8563,24 @@
         <v>62.32533333333333</v>
       </c>
       <c r="T100">
+        <v>62.26666666666667</v>
+      </c>
+      <c r="U100">
         <v>-0.06374999999999886</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>3.209860692043875E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0001283422459893435</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>62.22</v>
@@ -8334,21 +8637,24 @@
         <v>62.31066666666666</v>
       </c>
       <c r="T101">
+        <v>62.24666666666667</v>
+      </c>
+      <c r="U101">
         <v>-0.06875000000000142</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>2.139838442194453E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0002353243196988597</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0006424670735624138</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>62.22</v>
@@ -8405,21 +8711,24 @@
         <v>62.29600000000001</v>
       </c>
       <c r="T102">
+        <v>62.23333333333333</v>
+      </c>
+      <c r="U102">
         <v>-0.05750000000000455</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0002353797102687682</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>62.2</v>
@@ -8476,21 +8785,24 @@
         <v>62.28266666666666</v>
       </c>
       <c r="T103">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U103">
         <v>-0.05250000000000199</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-1.069896327043907E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0002140319335646179</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>62.22</v>
@@ -8547,21 +8859,24 @@
         <v>62.268</v>
       </c>
       <c r="T104">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U104">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-1.069907773942891E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0002354855283438484</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.0003215434083601032</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>62.2</v>
@@ -8618,21 +8933,24 @@
         <v>62.256</v>
       </c>
       <c r="T105">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U105">
         <v>-0.03125000000000711</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-3.209757663313884E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0001927153594141195</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>62.22</v>
@@ -8689,21 +9007,24 @@
         <v>62.248</v>
       </c>
       <c r="T106">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U106">
         <v>-0.02874999999999517</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-4.279814256069603E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0001285016705218078</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0.0003215434083601032</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>62.26</v>
@@ -8760,21 +9081,24 @@
         <v>62.244</v>
       </c>
       <c r="T107">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U107">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-2.139998715999791E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-6.425909266161156E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0006428801028608433</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>62.28</v>
@@ -8831,21 +9155,24 @@
         <v>62.24</v>
       </c>
       <c r="T108">
+        <v>62.25333333333333</v>
+      </c>
+      <c r="U108">
         <v>-0.01875000000000426</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-3.210066769376851E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-6.426322215791203E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0.0003212335367812624</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>62.3</v>
@@ -8902,21 +9229,24 @@
         <v>62.244</v>
       </c>
       <c r="T109">
+        <v>62.28</v>
+      </c>
+      <c r="U109">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-1.070056605989578E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>6.426735218512114E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.0003211303789338871</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>62.34</v>
@@ -8973,21 +9303,24 @@
         <v>62.248</v>
       </c>
       <c r="T110">
+        <v>62.30666666666667</v>
+      </c>
+      <c r="U110">
         <v>0.002500000000004832</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-1.070068056341356E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>6.426322215813407E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0006420545746388395</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>62.32</v>
@@ -9044,21 +9377,24 @@
         <v>62.25599999999999</v>
       </c>
       <c r="T111">
+        <v>62.32</v>
+      </c>
+      <c r="U111">
         <v>0.01500000000000767</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>0</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0001285181853230011</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>-0.0003208213025345241</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>62.34</v>
@@ -9115,21 +9451,24 @@
         <v>62.26133333333333</v>
       </c>
       <c r="T112">
+        <v>62.33333333333334</v>
+      </c>
+      <c r="U112">
         <v>0.02125000000000199</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>2.140159013830356E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>8.566778034801992E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.0003209242618742447</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>62.3</v>
@@ -9186,21 +9525,24 @@
         <v>62.26266666666667</v>
       </c>
       <c r="T113">
+        <v>62.31999999999999</v>
+      </c>
+      <c r="U113">
         <v>0.03125</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-1.070056606011782E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>2.141511050202105E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.0006416426050690482</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>62.28</v>
@@ -9257,21 +9599,24 @@
         <v>62.264</v>
       </c>
       <c r="T114">
+        <v>62.30666666666667</v>
+      </c>
+      <c r="U114">
         <v>0.03874999999999318</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-4.280272225309911E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>2.14146519048608E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0003210272873193087</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>62.26</v>
@@ -9328,21 +9673,24 @@
         <v>62.264</v>
       </c>
       <c r="T115">
+        <v>62.28</v>
+      </c>
+      <c r="U115">
         <v>0.03875000000000028</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-6.420683160701657E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0003211303789338871</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>62.22</v>
@@ -9399,21 +9747,24 @@
         <v>62.264</v>
       </c>
       <c r="T116">
+        <v>62.25333333333333</v>
+      </c>
+      <c r="U116">
         <v>0.03374999999999773</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-0.0001177200830461134</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0006424670735624138</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>62.24</v>
@@ -9470,21 +9821,24 @@
         <v>62.26533333333334</v>
       </c>
       <c r="T117">
+        <v>62.24</v>
+      </c>
+      <c r="U117">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-0.0001070308569960376</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>2.141419332746253E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.0003214400514304216</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>62.22</v>
@@ -9541,21 +9895,24 @@
         <v>62.26666666666667</v>
       </c>
       <c r="T118">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U118">
         <v>0.00999999999999801</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-9.63380824440252E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>2.141373476938213E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0003213367609254947</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>62.22</v>
@@ -9612,21 +9969,24 @@
         <v>62.26666666666667</v>
       </c>
       <c r="T119">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U119">
         <v>-0.003750000000003695</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0001177578897786358</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>62.24</v>
@@ -9683,21 +10043,24 @@
         <v>62.26933333333333</v>
       </c>
       <c r="T120">
+        <v>62.22666666666667</v>
+      </c>
+      <c r="U120">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-7.494566439336658E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>4.28265524625715E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0003214400514304216</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>62.2</v>
@@ -9754,21 +10117,24 @@
         <v>62.26800000000001</v>
       </c>
       <c r="T121">
+        <v>62.22</v>
+      </c>
+      <c r="U121">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-7.495128166679077E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-2.141235921349072E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.0006426735218508783</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>62.2</v>
@@ -9825,21 +10191,24 @@
         <v>62.264</v>
       </c>
       <c r="T122">
+        <v>62.21333333333334</v>
+      </c>
+      <c r="U122">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-6.424877124233674E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-6.423845313807686E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>62.2</v>
@@ -9896,21 +10265,24 @@
         <v>62.25866666666666</v>
       </c>
       <c r="T123">
+        <v>62.2</v>
+      </c>
+      <c r="U123">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-7.496171598075918E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-8.565677330940602E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>62.2</v>
@@ -9967,21 +10339,24 @@
         <v>62.252</v>
       </c>
       <c r="T124">
+        <v>62.20000000000001</v>
+      </c>
+      <c r="U124">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-2.14192387602008E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0001070801387759168</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>62.2</v>
@@ -10038,21 +10413,24 @@
         <v>62.24266666666666</v>
       </c>
       <c r="T125">
+        <v>62.2</v>
+      </c>
+      <c r="U125">
         <v>-0.03875000000000028</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-4.283939510774104E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0001499282486238096</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>62.22</v>
@@ -10109,21 +10487,24 @@
         <v>62.236</v>
       </c>
       <c r="T126">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.03124999999999289</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>1.071030759991487E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.0001071076646244062</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0003215434083601032</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>62.16</v>
@@ -10180,21 +10561,24 @@
         <v>62.224</v>
       </c>
       <c r="T127">
+        <v>62.19333333333333</v>
+      </c>
+      <c r="U127">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-5.355096445280871E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0001928144482292726</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0009643201542912649</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>62.22</v>
@@ -10251,21 +10635,24 @@
         <v>62.21866666666666</v>
       </c>
       <c r="T128">
+        <v>62.2</v>
+      </c>
+      <c r="U128">
         <v>-0.02374999999999972</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-3.213229938725526E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-8.571183680472494E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0009652509652509078</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>62.2</v>
@@ -10322,21 +10709,24 @@
         <v>62.21333333333333</v>
       </c>
       <c r="T129">
+        <v>62.19333333333334</v>
+      </c>
+      <c r="U129">
         <v>-0.01749999999999119</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-3.213333190521528E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-8.571918395339218E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>62.2</v>
@@ -10393,21 +10783,24 @@
         <v>62.20933333333333</v>
       </c>
       <c r="T130">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U130">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-3.213436448934459E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-6.429489927128884E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>62.18</v>
@@ -10464,21 +10857,24 @@
         <v>62.20666666666666</v>
       </c>
       <c r="T131">
+        <v>62.19333333333334</v>
+      </c>
+      <c r="U131">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-2.142359809342853E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-4.286602224756741E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0003215434083602142</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>62.16</v>
@@ -10535,21 +10931,24 @@
         <v>62.20133333333333</v>
       </c>
       <c r="T132">
+        <v>62.18</v>
+      </c>
+      <c r="U132">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-3.213608561047909E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-8.573571964420879E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.0003216468317787102</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>62.12</v>
@@ -10606,21 +11005,24 @@
         <v>62.19466666666667</v>
       </c>
       <c r="T133">
+        <v>62.15333333333334</v>
+      </c>
+      <c r="U133">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-4.28494911624E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001071788386100003</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0006435006435006052</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>62.18</v>
@@ -10677,21 +11079,24 @@
         <v>62.192</v>
       </c>
       <c r="T134">
+        <v>62.15333333333333</v>
+      </c>
+      <c r="U134">
         <v>-0.01625000000000654</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-2.142566365992415E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-4.28761308579606E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0009658725048293793</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>62.22</v>
@@ -10748,21 +11153,24 @@
         <v>62.19066666666667</v>
       </c>
       <c r="T135">
+        <v>62.17333333333332</v>
+      </c>
+      <c r="U135">
         <v>-0.008749999999999147</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>1.071306136446459E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-2.143898464967986E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0.0006432936635574205</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>62.3</v>
@@ -10819,21 +11227,24 @@
         <v>62.19733333333333</v>
       </c>
       <c r="T136">
+        <v>62.23333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.002500000000004832</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>4.285178638374632E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001071972214479189</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.001285760205721687</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>62.3</v>
@@ -10890,21 +11301,24 @@
         <v>62.204</v>
       </c>
       <c r="T137">
+        <v>62.27333333333333</v>
+      </c>
+      <c r="U137">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>2.142497509338703E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0001071857314356439</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>62.2</v>
@@ -10961,21 +11375,24 @@
         <v>62.20399999999999</v>
       </c>
       <c r="T138">
+        <v>62.26666666666667</v>
+      </c>
+      <c r="U138">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-4.284903214757385E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.001605136436596988</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>62.16</v>
@@ -11032,21 +11449,24 @@
         <v>62.20133333333333</v>
       </c>
       <c r="T139">
+        <v>62.22</v>
+      </c>
+      <c r="U139">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-7.498901946501046E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-4.286969755418202E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.0006430868167203174</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>62.18</v>
@@ -11103,21 +11523,24 @@
         <v>62.2</v>
       </c>
       <c r="T140">
+        <v>62.18</v>
+      </c>
+      <c r="U140">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-8.57081637026802E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-2.143576772195566E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0003217503217503026</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>62.18</v>
@@ -11174,21 +11597,24 @@
         <v>62.19733333333333</v>
       </c>
       <c r="T141">
+        <v>62.17333333333332</v>
+      </c>
+      <c r="U141">
         <v>0.01625000000000654</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-7.500107144375878E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-4.28724544482284E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>62.1</v>
@@ -11245,21 +11671,24 @@
         <v>62.19333333333334</v>
       </c>
       <c r="T142">
+        <v>62.15333333333334</v>
+      </c>
+      <c r="U142">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-0.0001285829091883794</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-6.431143886109769E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>-0.001286587327114841</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>62.14</v>
@@ -11316,21 +11745,24 @@
         <v>62.188</v>
       </c>
       <c r="T143">
+        <v>62.13999999999999</v>
+      </c>
+      <c r="U143">
         <v>0.005000000000002558</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-8.573296325264934E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-8.575410011801843E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.0006441223832527321</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>62.12</v>
@@ -11387,21 +11819,24 @@
         <v>62.18266666666667</v>
       </c>
       <c r="T144">
+        <v>62.12</v>
+      </c>
+      <c r="U144">
         <v>-0.01124999999999687</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-8.574031402386328E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-8.576145451411055E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>62.1</v>
@@ -11458,21 +11893,24 @@
         <v>62.176</v>
       </c>
       <c r="T145">
+        <v>62.12</v>
+      </c>
+      <c r="U145">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-8.574766605573547E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001072110127152692</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0003219575016096821</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>62.1</v>
@@ -11529,21 +11967,24 @@
         <v>62.17066666666667</v>
       </c>
       <c r="T146">
+        <v>62.10666666666666</v>
+      </c>
+      <c r="U146">
         <v>-0.03624999999999545</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-6.431626451142147E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-8.577800651909939E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>62.08</v>
@@ -11600,21 +12041,24 @@
         <v>62.16533333333334</v>
       </c>
       <c r="T147">
+        <v>62.09333333333333</v>
+      </c>
+      <c r="U147">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-8.576053514575133E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-8.578536501668843E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0003220611916264771</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>62.12</v>
@@ -11671,21 +12115,24 @@
         <v>62.16533333333333</v>
       </c>
       <c r="T148">
+        <v>62.1</v>
+      </c>
+      <c r="U148">
         <v>-0.0449999999999946</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-5.360493165373903E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0006443298969072142</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>62.08</v>
@@ -11742,21 +12189,24 @@
         <v>62.15866666666667</v>
       </c>
       <c r="T149">
+        <v>62.09333333333333</v>
+      </c>
+      <c r="U149">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-7.505092741488806E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.0001072409059710289</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0006439150032195862</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>62.08</v>
@@ -11813,21 +12263,24 @@
         <v>62.14933333333333</v>
       </c>
       <c r="T150">
+        <v>62.09333333333333</v>
+      </c>
+      <c r="U150">
         <v>-0.05125000000000313</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-8.577892626226991E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0001501533709432623</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>62</v>
@@ -11884,21 +12337,24 @@
         <v>62.12933333333334</v>
       </c>
       <c r="T151">
+        <v>62.05333333333333</v>
+      </c>
+      <c r="U151">
         <v>-0.05500000000000682</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0001072328561471103</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.0003218055436368106</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.001288659793814428</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>62.06</v>
@@ -11955,21 +12411,24 @@
         <v>62.11333333333333</v>
       </c>
       <c r="T152">
+        <v>62.04666666666667</v>
+      </c>
+      <c r="U152">
         <v>-0.04750000000000654</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-7.507104938597742E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0002575273086250496</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0.000967741935483879</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>62.14</v>
@@ -12026,21 +12485,24 @@
         <v>62.10933333333333</v>
       </c>
       <c r="T153">
+        <v>62.06666666666666</v>
+      </c>
+      <c r="U153">
         <v>-0.03249999999999176</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-3.217572234504029E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-6.439841150585046E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.001289075088623859</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>62.2</v>
@@ -12097,21 +12559,24 @@
         <v>62.112</v>
       </c>
       <c r="T154">
+        <v>62.13333333333333</v>
+      </c>
+      <c r="U154">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>4.293503928565201E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0009655616350177088</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>62.2</v>
@@ -12168,21 +12633,24 @@
         <v>62.11333333333334</v>
       </c>
       <c r="T155">
+        <v>62.18</v>
+      </c>
+      <c r="U155">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>0</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>2.146659797364059E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>62.22</v>
@@ -12239,21 +12707,24 @@
         <v>62.116</v>
       </c>
       <c r="T156">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U156">
         <v>0.002500000000004832</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>4.293227433715963E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0003215434083601032</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>62.18</v>
@@ -12310,21 +12781,24 @@
         <v>62.12133333333334</v>
       </c>
       <c r="T157">
+        <v>62.2</v>
+      </c>
+      <c r="U157">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>1.072558588521844E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>8.5860862472531E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0006428801028608433</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>62.14</v>
@@ -12381,21 +12855,24 @@
         <v>62.12133333333334</v>
       </c>
       <c r="T158">
+        <v>62.18000000000001</v>
+      </c>
+      <c r="U158">
         <v>0.02000000000000313</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-4.290188339273193E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0006432936635574205</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>62.12</v>
@@ -12452,21 +12929,24 @@
         <v>62.12133333333334</v>
       </c>
       <c r="T159">
+        <v>62.14666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.03625000000000256</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-4.29037240431418E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>62.16</v>
@@ -12523,21 +13003,24 @@
         <v>62.12533333333333</v>
       </c>
       <c r="T160">
+        <v>62.13999999999999</v>
+      </c>
+      <c r="U160">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-2.145278242593474E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>6.439011826309127E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0006439150032195862</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>62.14</v>
@@ -12594,21 +13077,24 @@
         <v>62.128</v>
       </c>
       <c r="T161">
+        <v>62.13999999999999</v>
+      </c>
+      <c r="U161">
         <v>0.04374999999999574</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-2.145324265767634E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>4.292398162863975E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0003217503217503026</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>62.14</v>
@@ -12665,21 +13151,24 @@
         <v>62.13199999999999</v>
       </c>
       <c r="T162">
+        <v>62.14666666666667</v>
+      </c>
+      <c r="U162">
         <v>0.03375000000000483</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-1.072685145442343E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>6.438320885893134E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>62.12</v>
@@ -12736,21 +13225,24 @@
         <v>62.132</v>
       </c>
       <c r="T163">
+        <v>62.13333333333333</v>
+      </c>
+      <c r="U163">
         <v>0.02125000000000199</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>0</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>62.18</v>
@@ -12807,21 +13299,24 @@
         <v>62.13866666666667</v>
       </c>
       <c r="T164">
+        <v>62.14666666666667</v>
+      </c>
+      <c r="U164">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>0</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>0.0001072984398808874</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0009658725048293793</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>62.22</v>
@@ -12878,21 +13373,24 @@
         <v>62.148</v>
       </c>
       <c r="T165">
+        <v>62.17333333333332</v>
+      </c>
+      <c r="U165">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>0</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>0.0001502016994248123</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0006432936635574205</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>62.22</v>
@@ -12949,21 +13447,24 @@
         <v>62.16266666666666</v>
       </c>
       <c r="T166">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U166">
         <v>0.00999999999999801</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-4.290786608462938E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>0.0002359957949840119</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>62.2</v>
@@ -13020,21 +13521,24 @@
         <v>62.172</v>
       </c>
       <c r="T167">
+        <v>62.21333333333333</v>
+      </c>
+      <c r="U167">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-5.363713406070225E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0.0001501437089788116</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0003214400514303106</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>62.2</v>
@@ -13091,21 +13595,24 @@
         <v>62.176</v>
       </c>
       <c r="T168">
+        <v>62.20666666666667</v>
+      </c>
+      <c r="U168">
         <v>0.003750000000003695</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>6.433764395552544E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>62.18</v>
@@ -13162,21 +13669,24 @@
         <v>62.17466666666667</v>
       </c>
       <c r="T169">
+        <v>62.19333333333333</v>
+      </c>
+      <c r="U169">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>1.072800223145265E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-2.144450162977485E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0003215434083602142</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>62.16</v>
@@ -13233,21 +13743,24 @@
         <v>62.172</v>
       </c>
       <c r="T170">
+        <v>62.18000000000001</v>
+      </c>
+      <c r="U170">
         <v>0.01124999999999687</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-1.072788714251427E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-4.288992301260119E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0003216468317787102</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>62.14</v>
@@ -13304,21 +13817,24 @@
         <v>62.16666666666666</v>
       </c>
       <c r="T171">
+        <v>62.16</v>
+      </c>
+      <c r="U171">
         <v>0.0175000000000054</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-2.14560044629053E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-8.578352527399691E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0003217503217503026</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>62.12</v>
@@ -13375,21 +13891,24 @@
         <v>62.16266666666666</v>
       </c>
       <c r="T172">
+        <v>62.13999999999999</v>
+      </c>
+      <c r="U172">
         <v>0.01624999999999943</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>1.072823241643484E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-6.43431635389824E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>62.1</v>
@@ -13446,21 +13965,24 @@
         <v>62.16</v>
       </c>
       <c r="T173">
+        <v>62.12</v>
+      </c>
+      <c r="U173">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-2.145623464544499E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-4.289820256520027E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>-0.0003219575016096821</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>62.1</v>
@@ -13517,21 +14039,24 @@
         <v>62.15866666666667</v>
       </c>
       <c r="T174">
+        <v>62.10666666666666</v>
+      </c>
+      <c r="U174">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-1.072834751281171E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-2.145002144993136E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>62.12</v>
@@ -13588,21 +14113,24 @@
         <v>62.156</v>
       </c>
       <c r="T175">
+        <v>62.10666666666666</v>
+      </c>
+      <c r="U175">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>1.072846261140903E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-4.290096312664637E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.000322061191626366</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>62.12</v>
@@ -13659,21 +14187,24 @@
         <v>62.15466666666667</v>
       </c>
       <c r="T176">
+        <v>62.11333333333334</v>
+      </c>
+      <c r="U176">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>1.072834751258966E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-2.145140184905969E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>62.14</v>
@@ -13730,21 +14261,24 @@
         <v>62.15466666666667</v>
       </c>
       <c r="T177">
+        <v>62.12666666666667</v>
+      </c>
+      <c r="U177">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>3.218469724930451E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>0</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.0003219575016097931</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>62.14</v>
@@ -13801,21 +14335,24 @@
         <v>62.156</v>
       </c>
       <c r="T178">
+        <v>62.13333333333333</v>
+      </c>
+      <c r="U178">
         <v>-0.03125</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>1.072788714262529E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>2.145186202162641E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>62.12</v>
@@ -13872,21 +14409,24 @@
         <v>62.152</v>
       </c>
       <c r="T179">
+        <v>62.13333333333333</v>
+      </c>
+      <c r="U179">
         <v>-0.03374999999999773</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>2.14555441127029E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-6.43542055472901E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>62.08</v>
@@ -13943,21 +14483,24 @@
         <v>62.14266666666667</v>
       </c>
       <c r="T180">
+        <v>62.11333333333334</v>
+      </c>
+      <c r="U180">
         <v>-0.03249999999999176</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>0</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001501694769810991</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.0006439150032195862</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>62.16</v>
@@ -14014,21 +14557,24 @@
         <v>62.13866666666667</v>
       </c>
       <c r="T181">
+        <v>62.12</v>
+      </c>
+      <c r="U181">
         <v>-0.02125000000000199</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>8.582033512838372E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-6.436801338849385E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.001288659793814428</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>62.14</v>
@@ -14085,21 +14631,24 @@
         <v>62.13466666666667</v>
       </c>
       <c r="T182">
+        <v>62.12666666666667</v>
+      </c>
+      <c r="U182">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>4.290648531513064E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-6.437215689647502E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.0003217503217503026</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>62.12</v>
@@ -14156,21 +14705,24 @@
         <v>62.12933333333334</v>
       </c>
       <c r="T183">
+        <v>62.13999999999999</v>
+      </c>
+      <c r="U183">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-1.072616110697755E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-8.583506791703943E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.0003218538783392733</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>62.08</v>
@@ -14227,21 +14779,24 @@
         <v>62.12266666666666</v>
       </c>
       <c r="T184">
+        <v>62.11333333333334</v>
+      </c>
+      <c r="U184">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-6.43576569521187E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001073030452605206</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0006439150032195862</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>62.08</v>
@@ -14298,21 +14853,24 @@
         <v>62.11733333333333</v>
       </c>
       <c r="T185">
+        <v>62.09333333333333</v>
+      </c>
+      <c r="U185">
         <v>-0.005000000000002558</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-6.436179912683304E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-8.585164835150927E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>62.08</v>
@@ -14369,21 +14927,24 @@
         <v>62.11333333333334</v>
       </c>
       <c r="T186">
+        <v>62.07999999999999</v>
+      </c>
+      <c r="U186">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-7.509359880719657E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-6.439426461746223E-05</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>62.02</v>
@@ -14440,21 +15001,24 @@
         <v>62.10666666666667</v>
       </c>
       <c r="T187">
+        <v>62.06</v>
+      </c>
+      <c r="U187">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-8.582770089049507E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001073306858431211</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>-0.0009664948453607103</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>61.98</v>
@@ -14511,21 +15075,24 @@
         <v>62.09866666666667</v>
       </c>
       <c r="T188">
+        <v>62.02666666666666</v>
+      </c>
+      <c r="U188">
         <v>-0.01625000000000654</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-8.583506791703943E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0001288106483470219</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.0006449532408900893</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>61.96</v>
@@ -14582,21 +15149,24 @@
         <v>62.08933333333333</v>
       </c>
       <c r="T189">
+        <v>61.98666666666667</v>
+      </c>
+      <c r="U189">
         <v>-0.03249999999999176</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-8.584243620834986E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.000150298449778874</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0003226847370119135</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>61.94</v>
@@ -14653,21 +15223,24 @@
         <v>62.07733333333333</v>
       </c>
       <c r="T190">
+        <v>61.96</v>
+      </c>
+      <c r="U190">
         <v>-0.04749999999999943</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-0.0001180434829267663</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001932699121696135</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0003227888960620762</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>61.96</v>
@@ -14724,21 +15297,24 @@
         <v>62.06666666666667</v>
       </c>
       <c r="T191">
+        <v>61.95333333333334</v>
+      </c>
+      <c r="U191">
         <v>-0.05750000000000455</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-9.659243359261271E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001718286867991026</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0003228931223764331</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>62.02</v>
@@ -14795,21 +15371,24 @@
         <v>62.05866666666667</v>
       </c>
       <c r="T192">
+        <v>61.97333333333334</v>
+      </c>
+      <c r="U192">
         <v>-0.05875000000000341</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-6.440117639494591E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.00012889366272828</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0009683666881858954</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>62.02</v>
@@ -14866,21 +15445,24 @@
         <v>62.05066666666666</v>
       </c>
       <c r="T193">
+        <v>62</v>
+      </c>
+      <c r="U193">
         <v>-0.05874999999999631</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-5.36711034778703E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001289102784461926</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>62.04</v>
@@ -14937,21 +15519,24 @@
         <v>62.04533333333333</v>
       </c>
       <c r="T194">
+        <v>62.02666666666666</v>
+      </c>
+      <c r="U194">
         <v>-0.05749999999999034</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-7.514357790772141E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-8.595126563237798E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0.0003224766204450447</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>62.02</v>
@@ -15008,21 +15593,24 @@
         <v>62.04133333333333</v>
       </c>
       <c r="T195">
+        <v>62.02666666666667</v>
+      </c>
+      <c r="U195">
         <v>-0.05124999999999602</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0001073560355563385</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-6.446899041567811E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0003223726627981094</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>62.02</v>
@@ -15079,21 +15667,24 @@
         <v>62.032</v>
       </c>
       <c r="T196">
+        <v>62.02666666666666</v>
+      </c>
+      <c r="U196">
         <v>-0.04249999999999687</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0001073675621121595</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0001504373428465877</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>62</v>
@@ -15150,21 +15741,24 @@
         <v>62.02266666666667</v>
       </c>
       <c r="T197">
+        <v>62.01333333333334</v>
+      </c>
+      <c r="U197">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.0001073790911432226</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0001504599776460669</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0003224766204450447</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>62.02</v>
@@ -15221,21 +15815,24 @@
         <v>62.016</v>
       </c>
       <c r="T198">
+        <v>62.01333333333333</v>
+      </c>
+      <c r="U198">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-9.665156038574096E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001074875851839741</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0.000322580645161441</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>61.9</v>
@@ -15292,21 +15889,24 @@
         <v>62.004</v>
       </c>
       <c r="T199">
+        <v>61.97333333333334</v>
+      </c>
+      <c r="U199">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0001503614043755208</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0001934984520123306</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.001934859722670157</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>61.92</v>
@@ -15363,21 +15963,24 @@
         <v>61.99333333333333</v>
       </c>
       <c r="T200">
+        <v>61.94666666666667</v>
+      </c>
+      <c r="U200">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0001289005854236969</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0001720319119197233</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.0003231017770597422</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>61.9</v>
@@ -15434,21 +16037,24 @@
         <v>61.98133333333333</v>
       </c>
       <c r="T201">
+        <v>61.90666666666667</v>
+      </c>
+      <c r="U201">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0001289172029264041</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0001935692009893408</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0003229974160207094</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>61.88</v>
@@ -15505,21 +16111,24 @@
         <v>61.972</v>
       </c>
       <c r="T202">
+        <v>61.9</v>
+      </c>
+      <c r="U202">
         <v>-0.0175000000000054</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0001289338247145722</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0001505829712170614</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.0003231017770597422</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>61.86</v>
@@ -15576,21 +16185,24 @@
         <v>61.96400000000001</v>
       </c>
       <c r="T203">
+        <v>61.88</v>
+      </c>
+      <c r="U203">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.0001289504507890893</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0001290905570257017</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.0003232062055591456</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>61.9</v>
@@ -15647,21 +16259,24 @@
         <v>61.96000000000001</v>
       </c>
       <c r="T204">
+        <v>61.88</v>
+      </c>
+      <c r="U204">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001074725676271093</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-6.455361177459817E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0006466214031684014</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>61.86</v>
@@ -15718,21 +16333,24 @@
         <v>61.95466666666667</v>
       </c>
       <c r="T205">
+        <v>61.87333333333333</v>
+      </c>
+      <c r="U205">
         <v>-0.0487500000000054</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-0.0001397293549878498</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-8.607703894991658E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0006462035541194844</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>61.82</v>
@@ -15789,21 +16407,24 @@
         <v>61.94533333333333</v>
       </c>
       <c r="T206">
+        <v>61.85999999999999</v>
+      </c>
+      <c r="U206">
         <v>-0.06625000000000369</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-0.000161248710010331</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001506477854775756</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0006466214031684014</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>61.84</v>
@@ -15860,21 +16481,24 @@
         <v>61.93333333333333</v>
       </c>
       <c r="T207">
+        <v>61.84</v>
+      </c>
+      <c r="U207">
         <v>-0.06624999999999659</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-0.0001612747153502125</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001937191932671611</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0003235198964737229</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>61.76</v>
@@ -15931,21 +16555,24 @@
         <v>61.916</v>
       </c>
       <c r="T208">
+        <v>61.80666666666667</v>
+      </c>
+      <c r="U208">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.0002043142568336487</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0002798708288480611</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.001293661060802198</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>61.8</v>
@@ -16002,21 +16629,24 @@
         <v>61.9</v>
       </c>
       <c r="T209">
+        <v>61.8</v>
+      </c>
+      <c r="U209">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0001720892713095168</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0002584146262679665</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0006476683937823857</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>61.78</v>
@@ -16073,21 +16703,24 @@
         <v>61.88400000000001</v>
       </c>
       <c r="T210">
+        <v>61.78</v>
+      </c>
+      <c r="U210">
         <v>-0.06500000000000483</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0001613614604287772</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0002584814216476383</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0003236245954691963</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>61.82</v>
@@ -16144,21 +16777,24 @@
         <v>61.87066666666666</v>
       </c>
       <c r="T211">
+        <v>61.8</v>
+      </c>
+      <c r="U211">
         <v>-0.05750000000000455</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0001829058357721847</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-0.0002154568763063081</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0006474587245062224</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>61.8</v>
@@ -16215,21 +16851,24 @@
         <v>61.85733333333333</v>
       </c>
       <c r="T212">
+        <v>61.79999999999999</v>
+      </c>
+      <c r="U212">
         <v>-0.05624999999999147</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0001829392964368681</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.0002155033079758173</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.0003235198964737229</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>61.88</v>
@@ -16286,21 +16925,24 @@
         <v>61.848</v>
       </c>
       <c r="T213">
+        <v>61.83333333333334</v>
+      </c>
+      <c r="U213">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0001291572489506843</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0001508848317633982</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.001294498381877007</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>61.88</v>
@@ -16357,21 +16999,24 @@
         <v>61.84666666666667</v>
       </c>
       <c r="T214">
+        <v>61.85333333333333</v>
+      </c>
+      <c r="U214">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.000107644943917018</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-2.155822877580871E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>61.84</v>
@@ -16428,21 +17073,24 @@
         <v>61.84133333333333</v>
       </c>
       <c r="T215">
+        <v>61.86666666666667</v>
+      </c>
+      <c r="U215">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.0001291878391180834</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-8.623477417279979E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>-0.0006464124111182912</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>61.76</v>
@@ -16499,21 +17147,24 @@
         <v>61.83199999999999</v>
       </c>
       <c r="T216">
+        <v>61.82666666666668</v>
+      </c>
+      <c r="U216">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.0001722727076962638</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-0.0001509238696880688</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.001293661060802198</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>61.76</v>
@@ -16570,21 +17221,24 @@
         <v>61.82399999999999</v>
       </c>
       <c r="T217">
+        <v>61.78666666666667</v>
+      </c>
+      <c r="U217">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.0001399956924401646</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.0001293828438349021</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>61.78</v>
@@ -16641,21 +17295,24 @@
         <v>61.81866666666667</v>
       </c>
       <c r="T218">
+        <v>61.76666666666667</v>
+      </c>
+      <c r="U218">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-0.0001077040722909928</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-8.62663906139316E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0003238341968911929</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>61.84</v>
@@ -16712,21 +17369,24 @@
         <v>61.81466666666667</v>
       </c>
       <c r="T219">
+        <v>61.79333333333333</v>
+      </c>
+      <c r="U219">
         <v>-0.002499999999990621</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-6.462940422469199E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-6.470537485991912E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0009711880867595557</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>61.88</v>
@@ -16783,21 +17443,24 @@
         <v>61.816</v>
       </c>
       <c r="T220">
+        <v>61.83333333333334</v>
+      </c>
+      <c r="U220">
         <v>0.008749999999999147</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-3.23167907270161E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>2.156985397205879E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.0006468305304010435</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>61.88</v>
@@ -16854,21 +17517,24 @@
         <v>61.82000000000001</v>
       </c>
       <c r="T221">
+        <v>61.86666666666667</v>
+      </c>
+      <c r="U221">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-4.309044684813745E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>6.470816617065722E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>61.88</v>
@@ -16925,21 +17591,24 @@
         <v>61.82266666666667</v>
       </c>
       <c r="T222">
+        <v>61.88</v>
+      </c>
+      <c r="U222">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-7.541153150036894E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>4.313598619631875E-05</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>61.88</v>
@@ -16996,21 +17665,24 @@
         <v>61.83066666666667</v>
       </c>
       <c r="T223">
+        <v>61.88</v>
+      </c>
+      <c r="U223">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-7.541721882853292E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0001294023766902352</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>61.86</v>
@@ -17067,21 +17739,24 @@
         <v>61.83466666666667</v>
       </c>
       <c r="T224">
+        <v>61.87333333333333</v>
+      </c>
+      <c r="U224">
         <v>0.01249999999999574</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-9.697230901839493E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>6.469281694099216E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0003232062055591456</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>61.92</v>
@@ -17138,21 +17813,24 @@
         <v>61.844</v>
       </c>
       <c r="T225">
+        <v>61.88666666666668</v>
+      </c>
+      <c r="U225">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-5.387872975504138E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0001509401414523381</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0009699321047527132</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>61.88</v>
@@ -17209,21 +17887,24 @@
         <v>61.848</v>
       </c>
       <c r="T226">
+        <v>61.88666666666666</v>
+      </c>
+      <c r="U226">
         <v>0.03125</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-7.543428596068491E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>6.467886941341483E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0006459948320413078</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>61.96</v>
@@ -17280,21 +17961,24 @@
         <v>61.85866666666667</v>
       </c>
       <c r="T227">
+        <v>61.91999999999999</v>
+      </c>
+      <c r="U227">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-2.155427906325169E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0.0001724658302075799</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.001292824822236582</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>61.96</v>
@@ -17351,21 +18035,24 @@
         <v>61.864</v>
       </c>
       <c r="T228">
+        <v>61.93333333333334</v>
+      </c>
+      <c r="U228">
         <v>0.03750000000000142</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-3.233211549025228E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>8.621804543684775E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>61.94</v>
@@ -17422,21 +18109,24 @@
         <v>61.868</v>
       </c>
       <c r="T229">
+        <v>61.95333333333334</v>
+      </c>
+      <c r="U229">
         <v>0.04125000000000512</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>2.155544059312398E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>6.465795939480934E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.0003227888960620762</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>61.9</v>
@@ -17493,21 +18183,24 @@
         <v>61.872</v>
       </c>
       <c r="T230">
+        <v>61.93333333333334</v>
+      </c>
+      <c r="U230">
         <v>0.04250000000000398</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-1.077748798306022E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>6.465377901343494E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0006457862447529772</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>61.9</v>
@@ -17564,21 +18257,24 @@
         <v>61.88133333333334</v>
       </c>
       <c r="T231">
+        <v>61.91333333333333</v>
+      </c>
+      <c r="U231">
         <v>0.04124999999999801</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>0</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001508490647359473</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>61.9</v>
@@ -17635,21 +18331,24 @@
         <v>61.89066666666668</v>
       </c>
       <c r="T232">
+        <v>61.9</v>
+      </c>
+      <c r="U232">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>1.077760413870088E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>0.0001508263127276699</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>61.9</v>
@@ -17706,21 +18405,24 @@
         <v>61.89866666666667</v>
       </c>
       <c r="T233">
+        <v>61.9</v>
+      </c>
+      <c r="U233">
         <v>0.02624999999999034</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>2.155497596612044E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>0.000129260200784076</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>61.88</v>
@@ -17777,21 +18479,24 @@
         <v>61.90133333333334</v>
       </c>
       <c r="T234">
+        <v>61.89333333333334</v>
+      </c>
+      <c r="U234">
         <v>0.02000000000000313</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-1.077725567966148E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>4.30811649148044E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.0003231017770597422</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>61.88</v>
@@ -17848,21 +18553,24 @@
         <v>61.90133333333333</v>
       </c>
       <c r="T235">
+        <v>61.88666666666666</v>
+      </c>
+      <c r="U235">
         <v>0.007500000000000284</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>1.077737183008409E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>61.9</v>
@@ -17919,21 +18627,24 @@
         <v>61.90266666666666</v>
       </c>
       <c r="T236">
+        <v>61.88666666666666</v>
+      </c>
+      <c r="U236">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>4.310902271864592E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>2.153965450379935E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.0003232062055591456</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>61.88</v>
@@ -17990,21 +18701,24 @@
         <v>61.90266666666666</v>
       </c>
       <c r="T237">
+        <v>61.88666666666666</v>
+      </c>
+      <c r="U237">
         <v>-0.008749999999999147</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>2.155358220523595E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>0</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0003231017770597422</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>61.86</v>
@@ -18061,21 +18775,24 @@
         <v>61.90133333333333</v>
       </c>
       <c r="T238">
+        <v>61.88</v>
+      </c>
+      <c r="U238">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>5.388279414608732E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-2.153919055714049E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0003232062055591456</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>61.82</v>
@@ -18132,21 +18849,24 @@
         <v>61.89866666666667</v>
       </c>
       <c r="T239">
+        <v>61.85333333333333</v>
+      </c>
+      <c r="U239">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>1.077597818932574E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-4.307930900782075E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.0006466214031684014</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>61.82</v>
@@ -18203,21 +18923,24 @@
         <v>61.892</v>
       </c>
       <c r="T240">
+        <v>61.83333333333334</v>
+      </c>
+      <c r="U240">
         <v>-0.02624999999999744</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>2.155172413798034E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.000107702912286789</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>61.86</v>
@@ -18274,21 +18997,24 @@
         <v>61.89066666666667</v>
       </c>
       <c r="T241">
+        <v>61.83333333333334</v>
+      </c>
+      <c r="U241">
         <v>-0.02749999999999631</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>2.155125967107097E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-2.154290269074099E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0006470397929472238</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>61.9</v>
@@ -18345,21 +19071,24 @@
         <v>61.88666666666666</v>
       </c>
       <c r="T242">
+        <v>61.85999999999999</v>
+      </c>
+      <c r="U242">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>5.387698806091912E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-6.4630100392149E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.0006466214031684014</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>61.88</v>
@@ -18416,21 +19145,24 @@
         <v>61.88133333333334</v>
       </c>
       <c r="T243">
+        <v>61.88</v>
+      </c>
+      <c r="U243">
         <v>-0.02125000000000199</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>0</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-8.617903694918549E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0003231017770597422</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>61.9</v>
@@ -18487,15 +19219,18 @@
         <v>61.87866666666666</v>
       </c>
       <c r="T244">
+        <v>61.89333333333334</v>
+      </c>
+      <c r="U244">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>1.077481709743644E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-4.309323220808015E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0003232062055591456</v>
       </c>
     </row>
